--- a/name/vnindex/20221227/VNINDEX_HOSE_5p_20221227.xlsx
+++ b/name/vnindex/20221227/VNINDEX_HOSE_5p_20221227.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2507 +454,5907 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1672132500000</v>
+        <v>1672132440000</v>
       </c>
       <c r="B2">
-        <v>8304500</v>
+        <v>4199100</v>
       </c>
       <c r="C2">
-        <v>9313700</v>
+        <v>2135800</v>
       </c>
       <c r="D2">
-        <v>4779400</v>
+        <v>4696900</v>
       </c>
       <c r="E2">
-        <v>118854778000</v>
+        <v>60467348000</v>
       </c>
       <c r="F2">
-        <v>133306080000</v>
+        <v>33181089000</v>
       </c>
       <c r="G2">
-        <v>58713533000</v>
+        <v>57527116000</v>
       </c>
       <c r="H2">
-        <v>22397600</v>
+        <v>11031800</v>
       </c>
       <c r="I2">
-        <v>310874391000</v>
+        <v>151175553000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-27T09:15:00.000Z</v>
+        <v>2022-12-27T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>310874391000</v>
+        <v>151175553000</v>
       </c>
       <c r="L2">
-        <v>22397600</v>
+        <v>11031800</v>
       </c>
       <c r="M2">
-        <v>1009200</v>
+        <v>-2063300</v>
       </c>
       <c r="N2">
-        <v>14451302000</v>
+        <v>-27286259000</v>
       </c>
       <c r="O2">
-        <v>1009200</v>
+        <v>-2063300</v>
       </c>
       <c r="P2">
-        <v>14451302000</v>
+        <v>-27286259000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1672132800000</v>
+        <v>1672132560000</v>
       </c>
       <c r="B3">
-        <v>11202300</v>
+        <v>1942300</v>
       </c>
       <c r="C3">
-        <v>4863300</v>
+        <v>4418300</v>
       </c>
       <c r="D3">
-        <v>148500</v>
+        <v>65300</v>
       </c>
       <c r="E3">
-        <v>150203089000</v>
+        <v>27391748000</v>
       </c>
       <c r="F3">
-        <v>68131197000</v>
+        <v>60996868000</v>
       </c>
       <c r="G3">
-        <v>1986711000</v>
+        <v>989340000</v>
       </c>
       <c r="H3">
-        <v>16214100</v>
+        <v>6425900</v>
       </c>
       <c r="I3">
-        <v>220320997000</v>
+        <v>89377956000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-27T09:20:00.000Z</v>
+        <v>2022-12-27T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>531195388000</v>
+        <v>240553509000</v>
       </c>
       <c r="L3">
-        <v>38611700</v>
+        <v>17457700</v>
       </c>
       <c r="M3">
-        <v>-6339000</v>
+        <v>2476000</v>
       </c>
       <c r="N3">
-        <v>-82071892000</v>
+        <v>33605120000</v>
       </c>
       <c r="O3">
-        <v>-5329800</v>
+        <v>412700</v>
       </c>
       <c r="P3">
-        <v>-67620590000</v>
+        <v>6318861000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1672133100000</v>
+        <v>1672132680000</v>
       </c>
       <c r="B4">
-        <v>10231400</v>
+        <v>2163100</v>
       </c>
       <c r="C4">
-        <v>6105700</v>
+        <v>2759600</v>
       </c>
       <c r="D4">
-        <v>88500</v>
+        <v>17200</v>
       </c>
       <c r="E4">
-        <v>129378038000</v>
+        <v>30995682000</v>
       </c>
       <c r="F4">
-        <v>90521860000</v>
+        <v>39128123000</v>
       </c>
       <c r="G4">
-        <v>862294000</v>
+        <v>197077000</v>
       </c>
       <c r="H4">
-        <v>16425600</v>
+        <v>4939900</v>
       </c>
       <c r="I4">
-        <v>220762192000</v>
+        <v>70320882000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-27T09:25:00.000Z</v>
+        <v>2022-12-27T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>751957580000</v>
+        <v>310874391000</v>
       </c>
       <c r="L4">
-        <v>55037300</v>
+        <v>22397600</v>
       </c>
       <c r="M4">
-        <v>-4125700</v>
+        <v>596500</v>
       </c>
       <c r="N4">
-        <v>-38856178000</v>
+        <v>8132441000</v>
       </c>
       <c r="O4">
-        <v>-9455500</v>
+        <v>1009200</v>
       </c>
       <c r="P4">
-        <v>-106476768000</v>
+        <v>14451302000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1672133400000</v>
+        <v>1672132800000</v>
       </c>
       <c r="B5">
-        <v>3173000</v>
+        <v>4302700</v>
       </c>
       <c r="C5">
-        <v>5016400</v>
+        <v>2739800</v>
       </c>
       <c r="D5">
-        <v>76400</v>
+        <v>24100</v>
       </c>
       <c r="E5">
-        <v>43862888000</v>
+        <v>55146725000</v>
       </c>
       <c r="F5">
-        <v>76443468000</v>
+        <v>36232486000</v>
       </c>
       <c r="G5">
-        <v>1045236000</v>
+        <v>329381000</v>
       </c>
       <c r="H5">
-        <v>8265800</v>
+        <v>7066600</v>
       </c>
       <c r="I5">
-        <v>121351592000</v>
+        <v>91708592000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-27T09:30:00.000Z</v>
+        <v>2022-12-27T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>873309172000</v>
+        <v>402582983000</v>
       </c>
       <c r="L5">
-        <v>63303100</v>
+        <v>29464200</v>
       </c>
       <c r="M5">
-        <v>1843400</v>
+        <v>-1562900</v>
       </c>
       <c r="N5">
-        <v>32580580000</v>
+        <v>-18914239000</v>
       </c>
       <c r="O5">
-        <v>-7612100</v>
+        <v>-553700</v>
       </c>
       <c r="P5">
-        <v>-73896188000</v>
+        <v>-4462937000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1672133700000</v>
+        <v>1672132920000</v>
       </c>
       <c r="B6">
-        <v>4342000</v>
+        <v>4919000</v>
       </c>
       <c r="C6">
-        <v>2786900</v>
+        <v>1422200</v>
       </c>
       <c r="D6">
-        <v>37100</v>
+        <v>119500</v>
       </c>
       <c r="E6">
-        <v>51714447000</v>
+        <v>68812657000</v>
       </c>
       <c r="F6">
-        <v>38468673000</v>
+        <v>21668123000</v>
       </c>
       <c r="G6">
-        <v>775471000</v>
+        <v>1613572000</v>
       </c>
       <c r="H6">
-        <v>7166000</v>
+        <v>6460700</v>
       </c>
       <c r="I6">
-        <v>90958591000</v>
+        <v>92094352000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-27T09:35:00.000Z</v>
+        <v>2022-12-27T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>964267763000</v>
+        <v>494677335000</v>
       </c>
       <c r="L6">
-        <v>70469100</v>
+        <v>35924900</v>
       </c>
       <c r="M6">
-        <v>-1555100</v>
+        <v>-3496800</v>
       </c>
       <c r="N6">
-        <v>-13245774000</v>
+        <v>-47144534000</v>
       </c>
       <c r="O6">
-        <v>-9167200</v>
+        <v>-4050500</v>
       </c>
       <c r="P6">
-        <v>-87141962000</v>
+        <v>-51607471000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1672134000000</v>
+        <v>1672133040000</v>
       </c>
       <c r="B7">
-        <v>5205300</v>
+        <v>3865200</v>
       </c>
       <c r="C7">
-        <v>1820600</v>
+        <v>1447500</v>
       </c>
       <c r="D7">
-        <v>34800</v>
+        <v>9600</v>
       </c>
       <c r="E7">
-        <v>69783092000</v>
+        <v>52491675000</v>
       </c>
       <c r="F7">
-        <v>28920564000</v>
+        <v>20757586000</v>
       </c>
       <c r="G7">
-        <v>594887000</v>
+        <v>121127000</v>
       </c>
       <c r="H7">
-        <v>7060700</v>
+        <v>5322300</v>
       </c>
       <c r="I7">
-        <v>99298543000</v>
+        <v>73370388000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-27T09:40:00.000Z</v>
+        <v>2022-12-27T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1063566306000</v>
+        <v>568047723000</v>
       </c>
       <c r="L7">
-        <v>77529800</v>
+        <v>41247200</v>
       </c>
       <c r="M7">
-        <v>-3384700</v>
+        <v>-2417700</v>
       </c>
       <c r="N7">
-        <v>-40862528000</v>
+        <v>-31734089000</v>
       </c>
       <c r="O7">
-        <v>-12551900</v>
+        <v>-6468200</v>
       </c>
       <c r="P7">
-        <v>-128004490000</v>
+        <v>-83341560000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1672134300000</v>
+        <v>1672133160000</v>
       </c>
       <c r="B8">
-        <v>3024000</v>
+        <v>5429700</v>
       </c>
       <c r="C8">
-        <v>3618000</v>
+        <v>1852900</v>
       </c>
       <c r="D8">
-        <v>61000</v>
+        <v>77900</v>
       </c>
       <c r="E8">
-        <v>47961567000</v>
+        <v>70442448000</v>
       </c>
       <c r="F8">
-        <v>55074584000</v>
+        <v>29550400000</v>
       </c>
       <c r="G8">
-        <v>1262623000</v>
+        <v>643733000</v>
       </c>
       <c r="H8">
-        <v>6703000</v>
+        <v>7360500</v>
       </c>
       <c r="I8">
-        <v>104298774000</v>
+        <v>100636581000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-27T09:45:00.000Z</v>
+        <v>2022-12-27T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1167865080000</v>
+        <v>668684304000</v>
       </c>
       <c r="L8">
-        <v>84232800</v>
+        <v>48607700</v>
       </c>
       <c r="M8">
-        <v>594000</v>
+        <v>-3576800</v>
       </c>
       <c r="N8">
-        <v>7113017000</v>
+        <v>-40892048000</v>
       </c>
       <c r="O8">
-        <v>-11957900</v>
+        <v>-10045000</v>
       </c>
       <c r="P8">
-        <v>-120891473000</v>
+        <v>-124233608000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1672134600000</v>
+        <v>1672133280000</v>
       </c>
       <c r="B9">
-        <v>2366600</v>
+        <v>2917100</v>
       </c>
       <c r="C9">
-        <v>2533900</v>
+        <v>3506600</v>
       </c>
       <c r="D9">
-        <v>49000</v>
+        <v>5900</v>
       </c>
       <c r="E9">
-        <v>35161467000</v>
+        <v>32687622000</v>
       </c>
       <c r="F9">
-        <v>39017496000</v>
+        <v>50444462000</v>
       </c>
       <c r="G9">
-        <v>402058000</v>
+        <v>141192000</v>
       </c>
       <c r="H9">
-        <v>4949500</v>
+        <v>6429600</v>
       </c>
       <c r="I9">
-        <v>74581021000</v>
+        <v>83273276000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-27T09:50:00.000Z</v>
+        <v>2022-12-27T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1242446101000</v>
+        <v>751957580000</v>
       </c>
       <c r="L9">
-        <v>89182300</v>
+        <v>55037300</v>
       </c>
       <c r="M9">
-        <v>167300</v>
+        <v>589500</v>
       </c>
       <c r="N9">
-        <v>3856029000</v>
+        <v>17756840000</v>
       </c>
       <c r="O9">
-        <v>-11790600</v>
+        <v>-9455500</v>
       </c>
       <c r="P9">
-        <v>-117035444000</v>
+        <v>-106476768000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1672134900000</v>
+        <v>1672133400000</v>
       </c>
       <c r="B10">
-        <v>2182600</v>
+        <v>1452600</v>
       </c>
       <c r="C10">
-        <v>4113700</v>
+        <v>2213400</v>
       </c>
       <c r="D10">
-        <v>101900</v>
+        <v>13800</v>
       </c>
       <c r="E10">
-        <v>31065525000</v>
+        <v>19605250000</v>
       </c>
       <c r="F10">
-        <v>66587723000</v>
+        <v>33351116000</v>
       </c>
       <c r="G10">
-        <v>1664485000</v>
+        <v>179754000</v>
       </c>
       <c r="H10">
-        <v>6398200</v>
+        <v>3679800</v>
       </c>
       <c r="I10">
-        <v>99317733000</v>
+        <v>53136120000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-27T09:55:00.000Z</v>
+        <v>2022-12-27T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1341763834000</v>
+        <v>805093700000</v>
       </c>
       <c r="L10">
-        <v>95580500</v>
+        <v>58717100</v>
       </c>
       <c r="M10">
-        <v>1931100</v>
+        <v>760800</v>
       </c>
       <c r="N10">
-        <v>35522198000</v>
+        <v>13745866000</v>
       </c>
       <c r="O10">
-        <v>-9859500</v>
+        <v>-8694700</v>
       </c>
       <c r="P10">
-        <v>-81513246000</v>
+        <v>-92730902000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1672135200000</v>
+        <v>1672133520000</v>
       </c>
       <c r="B11">
-        <v>2232200</v>
+        <v>1123100</v>
       </c>
       <c r="C11">
-        <v>7651600</v>
+        <v>2156300</v>
       </c>
       <c r="D11">
-        <v>121900</v>
+        <v>61100</v>
       </c>
       <c r="E11">
-        <v>32559050000</v>
+        <v>15516861000</v>
       </c>
       <c r="F11">
-        <v>113897011000</v>
+        <v>32668756000</v>
       </c>
       <c r="G11">
-        <v>1331487000</v>
+        <v>842237000</v>
       </c>
       <c r="H11">
-        <v>10005700</v>
+        <v>3340500</v>
       </c>
       <c r="I11">
-        <v>147787548000</v>
+        <v>49027854000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-27T10:00:00.000Z</v>
+        <v>2022-12-27T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1489551382000</v>
+        <v>854121554000</v>
       </c>
       <c r="L11">
-        <v>105586200</v>
+        <v>62057600</v>
       </c>
       <c r="M11">
-        <v>5419400</v>
+        <v>1033200</v>
       </c>
       <c r="N11">
-        <v>81337961000</v>
+        <v>17151895000</v>
       </c>
       <c r="O11">
-        <v>-4440100</v>
+        <v>-7661500</v>
       </c>
       <c r="P11">
-        <v>-175285000</v>
+        <v>-75579007000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1672135500000</v>
+        <v>1672133640000</v>
       </c>
       <c r="B12">
-        <v>2444500</v>
+        <v>1172700</v>
       </c>
       <c r="C12">
-        <v>8473600</v>
+        <v>1366500</v>
       </c>
       <c r="D12">
-        <v>32400</v>
+        <v>25700</v>
       </c>
       <c r="E12">
-        <v>34979667000</v>
+        <v>16277610000</v>
       </c>
       <c r="F12">
-        <v>122152443000</v>
+        <v>21189381000</v>
       </c>
       <c r="G12">
-        <v>280353000</v>
+        <v>631601000</v>
       </c>
       <c r="H12">
-        <v>10950500</v>
+        <v>2564900</v>
       </c>
       <c r="I12">
-        <v>157412463000</v>
+        <v>38098592000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-27T10:05:00.000Z</v>
+        <v>2022-12-27T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1646963845000</v>
+        <v>892220146000</v>
       </c>
       <c r="L12">
-        <v>116536700</v>
+        <v>64622500</v>
       </c>
       <c r="M12">
-        <v>6029100</v>
+        <v>193800</v>
       </c>
       <c r="N12">
-        <v>87172776000</v>
+        <v>4911771000</v>
       </c>
       <c r="O12">
-        <v>1589000</v>
+        <v>-7467700</v>
       </c>
       <c r="P12">
-        <v>86997491000</v>
+        <v>-70667236000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1672135800000</v>
+        <v>1672133760000</v>
       </c>
       <c r="B13">
-        <v>5352900</v>
+        <v>2117300</v>
       </c>
       <c r="C13">
-        <v>2916500</v>
+        <v>1350800</v>
       </c>
       <c r="D13">
-        <v>20400</v>
+        <v>3000</v>
       </c>
       <c r="E13">
-        <v>74368172000</v>
+        <v>25473040000</v>
       </c>
       <c r="F13">
-        <v>44698488000</v>
+        <v>17637315000</v>
       </c>
       <c r="G13">
-        <v>310887000</v>
+        <v>70165000</v>
       </c>
       <c r="H13">
-        <v>8289800</v>
+        <v>3471100</v>
       </c>
       <c r="I13">
-        <v>119377547000</v>
+        <v>43180520000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-27T10:10:00.000Z</v>
+        <v>2022-12-27T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1766341392000</v>
+        <v>935400666000</v>
       </c>
       <c r="L13">
-        <v>124826500</v>
+        <v>68093600</v>
       </c>
       <c r="M13">
-        <v>-2436400</v>
+        <v>-766500</v>
       </c>
       <c r="N13">
-        <v>-29669684000</v>
+        <v>-7835725000</v>
       </c>
       <c r="O13">
-        <v>-847400</v>
+        <v>-8234200</v>
       </c>
       <c r="P13">
-        <v>57327807000</v>
+        <v>-78502961000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1672136100000</v>
+        <v>1672133880000</v>
       </c>
       <c r="B14">
-        <v>2649900</v>
+        <v>1649300</v>
       </c>
       <c r="C14">
-        <v>1807400</v>
+        <v>716300</v>
       </c>
       <c r="D14">
-        <v>32900</v>
+        <v>9900</v>
       </c>
       <c r="E14">
-        <v>39442093000</v>
+        <v>18704574000</v>
       </c>
       <c r="F14">
-        <v>23937159000</v>
+        <v>10065573000</v>
       </c>
       <c r="G14">
-        <v>922958000</v>
+        <v>96950000</v>
       </c>
       <c r="H14">
-        <v>4490200</v>
+        <v>2375500</v>
       </c>
       <c r="I14">
-        <v>64302210000</v>
+        <v>28867097000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-27T10:15:00.000Z</v>
+        <v>2022-12-27T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1830643602000</v>
+        <v>964267763000</v>
       </c>
       <c r="L14">
-        <v>129316700</v>
+        <v>70469100</v>
       </c>
       <c r="M14">
-        <v>-842500</v>
+        <v>-933000</v>
       </c>
       <c r="N14">
-        <v>-15504934000</v>
+        <v>-8639001000</v>
       </c>
       <c r="O14">
-        <v>-1689900</v>
+        <v>-9167200</v>
       </c>
       <c r="P14">
-        <v>41822873000</v>
+        <v>-87141962000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1672136400000</v>
+        <v>1672134000000</v>
       </c>
       <c r="B15">
-        <v>3062700</v>
+        <v>1806300</v>
       </c>
       <c r="C15">
-        <v>1895000</v>
+        <v>686700</v>
       </c>
       <c r="D15">
-        <v>7400</v>
+        <v>17000</v>
       </c>
       <c r="E15">
-        <v>47155652000</v>
+        <v>23493626000</v>
       </c>
       <c r="F15">
-        <v>26539807000</v>
+        <v>10549523000</v>
       </c>
       <c r="G15">
-        <v>108477000</v>
+        <v>390532000</v>
       </c>
       <c r="H15">
-        <v>4965100</v>
+        <v>2510000</v>
       </c>
       <c r="I15">
-        <v>73803936000</v>
+        <v>34433681000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-27T10:20:00.000Z</v>
+        <v>2022-12-27T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1904447538000</v>
+        <v>998701444000</v>
       </c>
       <c r="L15">
-        <v>134281800</v>
+        <v>72979100</v>
       </c>
       <c r="M15">
-        <v>-1167700</v>
+        <v>-1119600</v>
       </c>
       <c r="N15">
-        <v>-20615845000</v>
+        <v>-12944103000</v>
       </c>
       <c r="O15">
-        <v>-2857600</v>
+        <v>-10286800</v>
       </c>
       <c r="P15">
-        <v>21207028000</v>
+        <v>-100086065000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1672136700000</v>
+        <v>1672134120000</v>
       </c>
       <c r="B16">
-        <v>2992300</v>
+        <v>2417400</v>
       </c>
       <c r="C16">
-        <v>1592100</v>
+        <v>890500</v>
       </c>
       <c r="D16">
-        <v>38300</v>
+        <v>5900</v>
       </c>
       <c r="E16">
-        <v>46998892000</v>
+        <v>30103176000</v>
       </c>
       <c r="F16">
-        <v>25189124000</v>
+        <v>14829320000</v>
       </c>
       <c r="G16">
-        <v>692953000</v>
+        <v>70600000</v>
       </c>
       <c r="H16">
-        <v>4622700</v>
+        <v>3313800</v>
       </c>
       <c r="I16">
-        <v>72880969000</v>
+        <v>45003096000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-27T10:25:00.000Z</v>
+        <v>2022-12-27T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1977328507000</v>
+        <v>1043704540000</v>
       </c>
       <c r="L16">
-        <v>138904500</v>
+        <v>76292900</v>
       </c>
       <c r="M16">
-        <v>-1400200</v>
+        <v>-1526900</v>
       </c>
       <c r="N16">
-        <v>-21809768000</v>
+        <v>-15273856000</v>
       </c>
       <c r="O16">
-        <v>-4257800</v>
+        <v>-11813700</v>
       </c>
       <c r="P16">
-        <v>-602740000</v>
+        <v>-115359921000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1672137000000</v>
+        <v>1672134240000</v>
       </c>
       <c r="B17">
-        <v>1860700</v>
+        <v>1991300</v>
       </c>
       <c r="C17">
-        <v>3054800</v>
+        <v>755300</v>
       </c>
       <c r="D17">
-        <v>18800</v>
+        <v>24200</v>
       </c>
       <c r="E17">
-        <v>33178810000</v>
+        <v>33511311000</v>
       </c>
       <c r="F17">
-        <v>51684515000</v>
+        <v>13625571000</v>
       </c>
       <c r="G17">
-        <v>652522000</v>
+        <v>361664000</v>
       </c>
       <c r="H17">
-        <v>4934300</v>
+        <v>2770800</v>
       </c>
       <c r="I17">
-        <v>85515847000</v>
+        <v>47498546000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-27T10:30:00.000Z</v>
+        <v>2022-12-27T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2062844354000</v>
+        <v>1091203086000</v>
       </c>
       <c r="L17">
-        <v>143838800</v>
+        <v>79063700</v>
       </c>
       <c r="M17">
-        <v>1194100</v>
+        <v>-1236000</v>
       </c>
       <c r="N17">
-        <v>18505705000</v>
+        <v>-19885740000</v>
       </c>
       <c r="O17">
-        <v>-3063700</v>
+        <v>-13049700</v>
       </c>
       <c r="P17">
-        <v>17902965000</v>
+        <v>-135245661000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1672137300000</v>
+        <v>1672134360000</v>
       </c>
       <c r="B18">
-        <v>1865900</v>
+        <v>1250700</v>
       </c>
       <c r="C18">
-        <v>4875900</v>
+        <v>1216700</v>
       </c>
       <c r="D18">
-        <v>33000</v>
+        <v>44000</v>
       </c>
       <c r="E18">
-        <v>28205871000</v>
+        <v>19771748000</v>
       </c>
       <c r="F18">
-        <v>77015667000</v>
+        <v>20131539000</v>
       </c>
       <c r="G18">
-        <v>574038000</v>
+        <v>924226000</v>
       </c>
       <c r="H18">
-        <v>6774800</v>
+        <v>2511400</v>
       </c>
       <c r="I18">
-        <v>105795576000</v>
+        <v>40827513000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-27T10:35:00.000Z</v>
+        <v>2022-12-27T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2168639930000</v>
+        <v>1132030599000</v>
       </c>
       <c r="L18">
-        <v>150613600</v>
+        <v>81575100</v>
       </c>
       <c r="M18">
-        <v>3010000</v>
+        <v>-34000</v>
       </c>
       <c r="N18">
-        <v>48809796000</v>
+        <v>359791000</v>
       </c>
       <c r="O18">
-        <v>-53700</v>
+        <v>-13083700</v>
       </c>
       <c r="P18">
-        <v>66712761000</v>
+        <v>-134885870000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1672137600000</v>
+        <v>1672134480000</v>
       </c>
       <c r="B19">
-        <v>2140800</v>
+        <v>763600</v>
       </c>
       <c r="C19">
-        <v>5606900</v>
+        <v>1889400</v>
       </c>
       <c r="D19">
-        <v>70200</v>
+        <v>4700</v>
       </c>
       <c r="E19">
-        <v>33216294000</v>
+        <v>10864798000</v>
       </c>
       <c r="F19">
-        <v>83973840000</v>
+        <v>24859195000</v>
       </c>
       <c r="G19">
-        <v>910855000</v>
+        <v>110488000</v>
       </c>
       <c r="H19">
-        <v>7817900</v>
+        <v>2657700</v>
       </c>
       <c r="I19">
-        <v>118100989000</v>
+        <v>35834481000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-27T10:40:00.000Z</v>
+        <v>2022-12-27T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2286740919000</v>
+        <v>1167865080000</v>
       </c>
       <c r="L19">
-        <v>158431500</v>
+        <v>84232800</v>
       </c>
       <c r="M19">
-        <v>3466100</v>
+        <v>1125800</v>
       </c>
       <c r="N19">
-        <v>50757546000</v>
+        <v>13994397000</v>
       </c>
       <c r="O19">
-        <v>3412400</v>
+        <v>-11957900</v>
       </c>
       <c r="P19">
-        <v>117470307000</v>
+        <v>-120891473000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1672137900000</v>
+        <v>1672134600000</v>
       </c>
       <c r="B20">
-        <v>2504200</v>
+        <v>905400</v>
       </c>
       <c r="C20">
-        <v>9256000</v>
+        <v>1359500</v>
       </c>
       <c r="D20">
-        <v>58900</v>
+        <v>40100</v>
       </c>
       <c r="E20">
-        <v>35081449000</v>
+        <v>12711724000</v>
       </c>
       <c r="F20">
-        <v>134188538000</v>
+        <v>21329636000</v>
       </c>
       <c r="G20">
-        <v>993079000</v>
+        <v>311529000</v>
       </c>
       <c r="H20">
-        <v>11819100</v>
+        <v>2305000</v>
       </c>
       <c r="I20">
-        <v>170263066000</v>
+        <v>34352889000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-27T10:45:00.000Z</v>
+        <v>2022-12-27T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2457003985000</v>
+        <v>1202217969000</v>
       </c>
       <c r="L20">
-        <v>170250600</v>
+        <v>86537800</v>
       </c>
       <c r="M20">
-        <v>6751800</v>
+        <v>454100</v>
       </c>
       <c r="N20">
-        <v>99107089000</v>
+        <v>8617912000</v>
       </c>
       <c r="O20">
-        <v>10164200</v>
+        <v>-11503800</v>
       </c>
       <c r="P20">
-        <v>216577396000</v>
+        <v>-112273561000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1672138200000</v>
+        <v>1672134720000</v>
       </c>
       <c r="B21">
-        <v>4659700</v>
+        <v>1004300</v>
       </c>
       <c r="C21">
-        <v>13882400</v>
+        <v>816600</v>
       </c>
       <c r="D21">
-        <v>124700</v>
+        <v>8500</v>
       </c>
       <c r="E21">
-        <v>69721871000</v>
+        <v>15816748000</v>
       </c>
       <c r="F21">
-        <v>219180971000</v>
+        <v>12352832000</v>
       </c>
       <c r="G21">
-        <v>2449320000</v>
+        <v>86309000</v>
       </c>
       <c r="H21">
-        <v>18666800</v>
+        <v>1829400</v>
       </c>
       <c r="I21">
-        <v>291352162000</v>
+        <v>28255889000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-27T10:50:00.000Z</v>
+        <v>2022-12-27T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2748356147000</v>
+        <v>1230473858000</v>
       </c>
       <c r="L21">
-        <v>188917400</v>
+        <v>88367200</v>
       </c>
       <c r="M21">
-        <v>9222700</v>
+        <v>-187700</v>
       </c>
       <c r="N21">
-        <v>149459100000</v>
+        <v>-3463916000</v>
       </c>
       <c r="O21">
-        <v>19386900</v>
+        <v>-11691500</v>
       </c>
       <c r="P21">
-        <v>366036496000</v>
+        <v>-115737477000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1672138500000</v>
+        <v>1672134840000</v>
       </c>
       <c r="B22">
-        <v>6867000</v>
+        <v>1139200</v>
       </c>
       <c r="C22">
-        <v>4310900</v>
+        <v>667300</v>
       </c>
       <c r="D22">
-        <v>50900</v>
+        <v>24100</v>
       </c>
       <c r="E22">
-        <v>102533110000</v>
+        <v>16060321000</v>
       </c>
       <c r="F22">
-        <v>64922135000</v>
+        <v>10919151000</v>
       </c>
       <c r="G22">
-        <v>498151000</v>
+        <v>548800000</v>
       </c>
       <c r="H22">
-        <v>11228800</v>
+        <v>1830600</v>
       </c>
       <c r="I22">
-        <v>167953396000</v>
+        <v>27528272000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-27T10:55:00.000Z</v>
+        <v>2022-12-27T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2916309543000</v>
+        <v>1258002130000</v>
       </c>
       <c r="L22">
-        <v>200146200</v>
+        <v>90197800</v>
       </c>
       <c r="M22">
-        <v>-2556100</v>
+        <v>-471900</v>
       </c>
       <c r="N22">
-        <v>-37610975000</v>
+        <v>-5141170000</v>
       </c>
       <c r="O22">
-        <v>16830800</v>
+        <v>-12163400</v>
       </c>
       <c r="P22">
-        <v>328425521000</v>
+        <v>-120878647000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1672138800000</v>
+        <v>1672134960000</v>
       </c>
       <c r="B23">
-        <v>4131300</v>
+        <v>799300</v>
       </c>
       <c r="C23">
-        <v>1452000</v>
+        <v>1914700</v>
       </c>
       <c r="D23">
-        <v>27600</v>
+        <v>10000</v>
       </c>
       <c r="E23">
-        <v>55845336000</v>
+        <v>11587959000</v>
       </c>
       <c r="F23">
-        <v>21592899000</v>
+        <v>36185586000</v>
       </c>
       <c r="G23">
-        <v>380086000</v>
+        <v>115199000</v>
       </c>
       <c r="H23">
-        <v>5610900</v>
+        <v>2724000</v>
       </c>
       <c r="I23">
-        <v>77818321000</v>
+        <v>47888744000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-27T11:00:00.000Z</v>
+        <v>2022-12-27T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2994127864000</v>
+        <v>1305890874000</v>
       </c>
       <c r="L23">
-        <v>205757100</v>
+        <v>92921800</v>
       </c>
       <c r="M23">
-        <v>-2679300</v>
+        <v>1115400</v>
       </c>
       <c r="N23">
-        <v>-34252437000</v>
+        <v>24597627000</v>
       </c>
       <c r="O23">
-        <v>14151500</v>
+        <v>-11048000</v>
       </c>
       <c r="P23">
-        <v>294173084000</v>
+        <v>-96281020000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1672139100000</v>
+        <v>1672135080000</v>
       </c>
       <c r="B24">
-        <v>3143000</v>
+        <v>701000</v>
       </c>
       <c r="C24">
-        <v>1360800</v>
+        <v>1889500</v>
       </c>
       <c r="D24">
-        <v>10800</v>
+        <v>68200</v>
       </c>
       <c r="E24">
-        <v>48207052000</v>
+        <v>10050240000</v>
       </c>
       <c r="F24">
-        <v>22042151000</v>
+        <v>24818014000</v>
       </c>
       <c r="G24">
-        <v>196392000</v>
+        <v>1004706000</v>
       </c>
       <c r="H24">
-        <v>4514600</v>
+        <v>2658700</v>
       </c>
       <c r="I24">
-        <v>70445595000</v>
+        <v>35872960000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-27T11:05:00.000Z</v>
+        <v>2022-12-27T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>3064573459000</v>
+        <v>1341763834000</v>
       </c>
       <c r="L24">
-        <v>210271700</v>
+        <v>95580500</v>
       </c>
       <c r="M24">
-        <v>-1782200</v>
+        <v>1188500</v>
       </c>
       <c r="N24">
-        <v>-26164901000</v>
+        <v>14767774000</v>
       </c>
       <c r="O24">
-        <v>12369300</v>
+        <v>-9859500</v>
       </c>
       <c r="P24">
-        <v>268008183000</v>
+        <v>-81513246000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1672139400000</v>
+        <v>1672135200000</v>
       </c>
       <c r="B25">
-        <v>2000400</v>
+        <v>665400</v>
       </c>
       <c r="C25">
-        <v>1959000</v>
+        <v>2457400</v>
       </c>
       <c r="D25">
-        <v>15700</v>
+        <v>27000</v>
       </c>
       <c r="E25">
-        <v>25413425000</v>
+        <v>9744350000</v>
       </c>
       <c r="F25">
-        <v>29050855000</v>
+        <v>36812303000</v>
       </c>
       <c r="G25">
-        <v>271121000</v>
+        <v>494988000</v>
       </c>
       <c r="H25">
-        <v>3975100</v>
+        <v>3149800</v>
       </c>
       <c r="I25">
-        <v>54735401000</v>
+        <v>47051641000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-27T11:10:00.000Z</v>
+        <v>2022-12-27T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>3119308860000</v>
+        <v>1388815475000</v>
       </c>
       <c r="L25">
-        <v>214246800</v>
+        <v>98730300</v>
       </c>
       <c r="M25">
-        <v>-41400</v>
+        <v>1792000</v>
       </c>
       <c r="N25">
-        <v>3637430000</v>
+        <v>27067953000</v>
       </c>
       <c r="O25">
-        <v>12327900</v>
+        <v>-8067500</v>
       </c>
       <c r="P25">
-        <v>271645613000</v>
+        <v>-54445293000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1672139700000</v>
+        <v>1672135320000</v>
       </c>
       <c r="B26">
-        <v>1682600</v>
+        <v>1083300</v>
       </c>
       <c r="C26">
-        <v>2359100</v>
+        <v>3383900</v>
       </c>
       <c r="D26">
-        <v>20200</v>
+        <v>87900</v>
       </c>
       <c r="E26">
-        <v>29351893000</v>
+        <v>15792625000</v>
       </c>
       <c r="F26">
-        <v>37573384000</v>
+        <v>50979659000</v>
       </c>
       <c r="G26">
-        <v>188986000</v>
+        <v>778236000</v>
       </c>
       <c r="H26">
-        <v>4061900</v>
+        <v>4555100</v>
       </c>
       <c r="I26">
-        <v>67114263000</v>
+        <v>67550520000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-27T11:15:00.000Z</v>
+        <v>2022-12-27T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>3186423123000</v>
+        <v>1456365995000</v>
       </c>
       <c r="L26">
-        <v>218308700</v>
+        <v>103285400</v>
       </c>
       <c r="M26">
-        <v>676500</v>
+        <v>2300600</v>
       </c>
       <c r="N26">
-        <v>8221491000</v>
+        <v>35187034000</v>
       </c>
       <c r="O26">
-        <v>13004400</v>
+        <v>-5766900</v>
       </c>
       <c r="P26">
-        <v>279867104000</v>
+        <v>-19258259000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1672140000000</v>
+        <v>1672135440000</v>
       </c>
       <c r="B27">
-        <v>1646300</v>
+        <v>934500</v>
       </c>
       <c r="C27">
-        <v>3353100</v>
+        <v>3928800</v>
       </c>
       <c r="D27">
-        <v>12600</v>
+        <v>7100</v>
       </c>
       <c r="E27">
-        <v>25723504000</v>
+        <v>12789402000</v>
       </c>
       <c r="F27">
-        <v>58528980000</v>
+        <v>57518701000</v>
       </c>
       <c r="G27">
-        <v>300433000</v>
+        <v>61818000</v>
       </c>
       <c r="H27">
-        <v>5012000</v>
+        <v>4870400</v>
       </c>
       <c r="I27">
-        <v>84552917000</v>
+        <v>70369921000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-27T11:20:00.000Z</v>
+        <v>2022-12-27T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3270976040000</v>
+        <v>1526735916000</v>
       </c>
       <c r="L27">
-        <v>223320700</v>
+        <v>108155800</v>
       </c>
       <c r="M27">
-        <v>1706800</v>
+        <v>2994300</v>
       </c>
       <c r="N27">
-        <v>32805476000</v>
+        <v>44729299000</v>
       </c>
       <c r="O27">
-        <v>14711200</v>
+        <v>-2772600</v>
       </c>
       <c r="P27">
-        <v>312672580000</v>
+        <v>25471040000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1672140300000</v>
+        <v>1672135560000</v>
       </c>
       <c r="B28">
-        <v>2955800</v>
+        <v>1022500</v>
       </c>
       <c r="C28">
-        <v>2766400</v>
+        <v>3648300</v>
       </c>
       <c r="D28">
-        <v>28700</v>
+        <v>13800</v>
       </c>
       <c r="E28">
-        <v>49764940000</v>
+        <v>14928888000</v>
       </c>
       <c r="F28">
-        <v>36181092000</v>
+        <v>51160554000</v>
       </c>
       <c r="G28">
-        <v>390420000</v>
+        <v>178566000</v>
       </c>
       <c r="H28">
-        <v>5750900</v>
+        <v>4684600</v>
       </c>
       <c r="I28">
-        <v>86336452000</v>
+        <v>66268008000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-27T11:25:00.000Z</v>
+        <v>2022-12-27T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>3357312492000</v>
+        <v>1593003924000</v>
       </c>
       <c r="L28">
-        <v>229071600</v>
+        <v>112840400</v>
       </c>
       <c r="M28">
-        <v>-189400</v>
+        <v>2625800</v>
       </c>
       <c r="N28">
-        <v>-13583848000</v>
+        <v>36231666000</v>
       </c>
       <c r="O28">
-        <v>14521800</v>
+        <v>-146800</v>
       </c>
       <c r="P28">
-        <v>299088732000</v>
+        <v>61702706000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1672145700000</v>
+        <v>1672135680000</v>
       </c>
       <c r="B29">
-        <v>12700</v>
+        <v>971000</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2706800</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>18500</v>
       </c>
       <c r="E29">
-        <v>127000000</v>
+        <v>14283452000</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>39578237000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>98232000</v>
       </c>
       <c r="H29">
-        <v>12700</v>
+        <v>3696300</v>
       </c>
       <c r="I29">
-        <v>127000000</v>
+        <v>53959921000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-27T12:55:00.000Z</v>
+        <v>2022-12-27T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3357439492000</v>
+        <v>1646963845000</v>
       </c>
       <c r="L29">
-        <v>229084300</v>
+        <v>116536700</v>
       </c>
       <c r="M29">
-        <v>-12700</v>
+        <v>1735800</v>
       </c>
       <c r="N29">
-        <v>-127000000</v>
+        <v>25294785000</v>
       </c>
       <c r="O29">
-        <v>14509100</v>
+        <v>1589000</v>
       </c>
       <c r="P29">
-        <v>298961732000</v>
+        <v>86997491000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1672146000000</v>
+        <v>1672135800000</v>
       </c>
       <c r="B30">
-        <v>5374200</v>
+        <v>2422400</v>
       </c>
       <c r="C30">
-        <v>5608500</v>
+        <v>1271700</v>
       </c>
       <c r="D30">
-        <v>406800</v>
+        <v>11100</v>
       </c>
       <c r="E30">
-        <v>81903386000</v>
+        <v>32031435000</v>
       </c>
       <c r="F30">
-        <v>76316124000</v>
+        <v>19827173000</v>
       </c>
       <c r="G30">
-        <v>5477538000</v>
+        <v>184415000</v>
       </c>
       <c r="H30">
-        <v>11389500</v>
+        <v>3705200</v>
       </c>
       <c r="I30">
-        <v>163697048000</v>
+        <v>52043023000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-27T13:00:00.000Z</v>
+        <v>2022-12-27T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3521136540000</v>
+        <v>1699006868000</v>
       </c>
       <c r="L30">
-        <v>240473800</v>
+        <v>120241900</v>
       </c>
       <c r="M30">
-        <v>234300</v>
+        <v>-1150700</v>
       </c>
       <c r="N30">
-        <v>-5587262000</v>
+        <v>-12204262000</v>
       </c>
       <c r="O30">
-        <v>14743400</v>
+        <v>438300</v>
       </c>
       <c r="P30">
-        <v>293374470000</v>
+        <v>74793229000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1672146300000</v>
+        <v>1672135920000</v>
       </c>
       <c r="B31">
-        <v>4861300</v>
+        <v>2201400</v>
       </c>
       <c r="C31">
-        <v>10767900</v>
+        <v>1229200</v>
       </c>
       <c r="D31">
-        <v>130800</v>
+        <v>9100</v>
       </c>
       <c r="E31">
-        <v>65021240000</v>
+        <v>32194028000</v>
       </c>
       <c r="F31">
-        <v>146481450000</v>
+        <v>18410344000</v>
       </c>
       <c r="G31">
-        <v>1772982000</v>
+        <v>122290000</v>
       </c>
       <c r="H31">
-        <v>15760000</v>
+        <v>3439700</v>
       </c>
       <c r="I31">
-        <v>213275672000</v>
+        <v>50726662000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-27T13:05:00.000Z</v>
+        <v>2022-12-27T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3734412212000</v>
+        <v>1749733530000</v>
       </c>
       <c r="L31">
-        <v>256233800</v>
+        <v>123681600</v>
       </c>
       <c r="M31">
-        <v>5906600</v>
+        <v>-972200</v>
       </c>
       <c r="N31">
-        <v>81460210000</v>
+        <v>-13783684000</v>
       </c>
       <c r="O31">
-        <v>20650000</v>
+        <v>-533900</v>
       </c>
       <c r="P31">
-        <v>374834680000</v>
+        <v>61009545000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1672146600000</v>
+        <v>1672136040000</v>
       </c>
       <c r="B32">
-        <v>5209000</v>
+        <v>1219100</v>
       </c>
       <c r="C32">
-        <v>6658600</v>
+        <v>899900</v>
       </c>
       <c r="D32">
-        <v>62100</v>
+        <v>6000</v>
       </c>
       <c r="E32">
-        <v>71405369000</v>
+        <v>16109647000</v>
       </c>
       <c r="F32">
-        <v>104178166000</v>
+        <v>12827484000</v>
       </c>
       <c r="G32">
-        <v>537757000</v>
+        <v>35129000</v>
       </c>
       <c r="H32">
-        <v>11929700</v>
+        <v>2125000</v>
       </c>
       <c r="I32">
-        <v>176121292000</v>
+        <v>28972260000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-27T13:10:00.000Z</v>
+        <v>2022-12-27T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3910533504000</v>
+        <v>1778705790000</v>
       </c>
       <c r="L32">
-        <v>268163500</v>
+        <v>125806600</v>
       </c>
       <c r="M32">
-        <v>1449600</v>
+        <v>-319200</v>
       </c>
       <c r="N32">
-        <v>32772797000</v>
+        <v>-3282163000</v>
       </c>
       <c r="O32">
-        <v>22099600</v>
+        <v>-853100</v>
       </c>
       <c r="P32">
-        <v>407607477000</v>
+        <v>57727382000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1672146900000</v>
+        <v>1672136160000</v>
       </c>
       <c r="B33">
-        <v>4743700</v>
+        <v>1310700</v>
       </c>
       <c r="C33">
-        <v>4803500</v>
+        <v>659600</v>
       </c>
       <c r="D33">
-        <v>25500</v>
+        <v>19200</v>
       </c>
       <c r="E33">
-        <v>66954503000</v>
+        <v>20564352000</v>
       </c>
       <c r="F33">
-        <v>71951918000</v>
+        <v>9364867000</v>
       </c>
       <c r="G33">
-        <v>355378000</v>
+        <v>750646000</v>
       </c>
       <c r="H33">
-        <v>9572700</v>
+        <v>1989500</v>
       </c>
       <c r="I33">
-        <v>139261799000</v>
+        <v>30679865000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-27T13:15:00.000Z</v>
+        <v>2022-12-27T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>4049795303000</v>
+        <v>1809385655000</v>
       </c>
       <c r="L33">
-        <v>277736200</v>
+        <v>127796100</v>
       </c>
       <c r="M33">
-        <v>59800</v>
+        <v>-651100</v>
       </c>
       <c r="N33">
-        <v>4997415000</v>
+        <v>-11199485000</v>
       </c>
       <c r="O33">
-        <v>22159400</v>
+        <v>-1504200</v>
       </c>
       <c r="P33">
-        <v>412604892000</v>
+        <v>46527897000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1672147200000</v>
+        <v>1672136280000</v>
       </c>
       <c r="B34">
-        <v>7606000</v>
+        <v>849200</v>
       </c>
       <c r="C34">
-        <v>4203000</v>
+        <v>663500</v>
       </c>
       <c r="D34">
-        <v>54000</v>
+        <v>7900</v>
       </c>
       <c r="E34">
-        <v>111804614000</v>
+        <v>12910803000</v>
       </c>
       <c r="F34">
-        <v>68973304000</v>
+        <v>8205779000</v>
       </c>
       <c r="G34">
-        <v>1449824000</v>
+        <v>141365000</v>
       </c>
       <c r="H34">
-        <v>11863000</v>
+        <v>1520600</v>
       </c>
       <c r="I34">
-        <v>182227742000</v>
+        <v>21257947000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-27T13:20:00.000Z</v>
+        <v>2022-12-27T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>4232023045000</v>
+        <v>1830643602000</v>
       </c>
       <c r="L34">
-        <v>289599200</v>
+        <v>129316700</v>
       </c>
       <c r="M34">
-        <v>-3403000</v>
+        <v>-185700</v>
       </c>
       <c r="N34">
-        <v>-42831310000</v>
+        <v>-4705024000</v>
       </c>
       <c r="O34">
-        <v>18756400</v>
+        <v>-1689900</v>
       </c>
       <c r="P34">
-        <v>369773582000</v>
+        <v>41822873000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1672147500000</v>
+        <v>1672136400000</v>
       </c>
       <c r="B35">
-        <v>10815200</v>
+        <v>1320100</v>
       </c>
       <c r="C35">
-        <v>3395800</v>
+        <v>729900</v>
       </c>
       <c r="D35">
-        <v>88600</v>
+        <v>500</v>
       </c>
       <c r="E35">
-        <v>167370308000</v>
+        <v>21353073000</v>
       </c>
       <c r="F35">
-        <v>47210317000</v>
+        <v>11793665000</v>
       </c>
       <c r="G35">
-        <v>1259761000</v>
+        <v>8775000</v>
       </c>
       <c r="H35">
-        <v>14299600</v>
+        <v>2050500</v>
       </c>
       <c r="I35">
-        <v>215840386000</v>
+        <v>33155513000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-27T13:25:00.000Z</v>
+        <v>2022-12-27T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>4447863431000</v>
+        <v>1863799115000</v>
       </c>
       <c r="L35">
-        <v>303898800</v>
+        <v>131367200</v>
       </c>
       <c r="M35">
-        <v>-7419400</v>
+        <v>-590200</v>
       </c>
       <c r="N35">
-        <v>-120159991000</v>
+        <v>-9559408000</v>
       </c>
       <c r="O35">
-        <v>11337000</v>
+        <v>-2280100</v>
       </c>
       <c r="P35">
-        <v>249613591000</v>
+        <v>32263465000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1672147800000</v>
+        <v>1672136520000</v>
       </c>
       <c r="B36">
-        <v>6784400</v>
+        <v>1128600</v>
       </c>
       <c r="C36">
-        <v>2991600</v>
+        <v>857300</v>
       </c>
       <c r="D36">
-        <v>43900</v>
+        <v>2700</v>
       </c>
       <c r="E36">
-        <v>108206898000</v>
+        <v>17074689000</v>
       </c>
       <c r="F36">
-        <v>47087677000</v>
+        <v>10488195000</v>
       </c>
       <c r="G36">
-        <v>651059000</v>
+        <v>18909000</v>
       </c>
       <c r="H36">
-        <v>9819900</v>
+        <v>1988600</v>
       </c>
       <c r="I36">
-        <v>155945634000</v>
+        <v>27581793000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-27T13:30:00.000Z</v>
+        <v>2022-12-27T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>4603809065000</v>
+        <v>1891380908000</v>
       </c>
       <c r="L36">
-        <v>313718700</v>
+        <v>133355800</v>
       </c>
       <c r="M36">
-        <v>-3792800</v>
+        <v>-271300</v>
       </c>
       <c r="N36">
-        <v>-61119221000</v>
+        <v>-6586494000</v>
       </c>
       <c r="O36">
-        <v>7544200</v>
+        <v>-2551400</v>
       </c>
       <c r="P36">
-        <v>188494370000</v>
+        <v>25676971000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1672148100000</v>
+        <v>1672136640000</v>
       </c>
       <c r="B37">
-        <v>6829800</v>
+        <v>1077500</v>
       </c>
       <c r="C37">
-        <v>3171300</v>
+        <v>520500</v>
       </c>
       <c r="D37">
-        <v>56300</v>
+        <v>4200</v>
       </c>
       <c r="E37">
-        <v>100045350000</v>
+        <v>17093397000</v>
       </c>
       <c r="F37">
-        <v>48857700000</v>
+        <v>7802570000</v>
       </c>
       <c r="G37">
-        <v>617885000</v>
+        <v>80793000</v>
       </c>
       <c r="H37">
-        <v>10057400</v>
+        <v>1602200</v>
       </c>
       <c r="I37">
-        <v>149520935000</v>
+        <v>24976760000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-27T13:35:00.000Z</v>
+        <v>2022-12-27T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4753330000000</v>
+        <v>1916357668000</v>
       </c>
       <c r="L37">
-        <v>323776100</v>
+        <v>134958000</v>
       </c>
       <c r="M37">
-        <v>-3658500</v>
+        <v>-557000</v>
       </c>
       <c r="N37">
-        <v>-51187650000</v>
+        <v>-9290827000</v>
       </c>
       <c r="O37">
-        <v>3885700</v>
+        <v>-3108400</v>
       </c>
       <c r="P37">
-        <v>137306720000</v>
+        <v>16386144000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1672148400000</v>
+        <v>1672136760000</v>
       </c>
       <c r="B38">
-        <v>4115600</v>
+        <v>1296500</v>
       </c>
       <c r="C38">
-        <v>5093200</v>
+        <v>677800</v>
       </c>
       <c r="D38">
-        <v>29000</v>
+        <v>26100</v>
       </c>
       <c r="E38">
-        <v>71598777000</v>
+        <v>22451170000</v>
       </c>
       <c r="F38">
-        <v>80350488000</v>
+        <v>10394321000</v>
       </c>
       <c r="G38">
-        <v>538640000</v>
+        <v>402528000</v>
       </c>
       <c r="H38">
-        <v>9237800</v>
+        <v>2000400</v>
       </c>
       <c r="I38">
-        <v>152487905000</v>
+        <v>33248019000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-27T13:40:00.000Z</v>
+        <v>2022-12-27T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4905817905000</v>
+        <v>1949605687000</v>
       </c>
       <c r="L38">
-        <v>333013900</v>
+        <v>136958400</v>
       </c>
       <c r="M38">
-        <v>977600</v>
+        <v>-618700</v>
       </c>
       <c r="N38">
-        <v>8751711000</v>
+        <v>-12056849000</v>
       </c>
       <c r="O38">
-        <v>4863300</v>
+        <v>-3727100</v>
       </c>
       <c r="P38">
-        <v>146058431000</v>
+        <v>4329295000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1672148700000</v>
+        <v>1672136880000</v>
       </c>
       <c r="B39">
-        <v>8723100</v>
+        <v>1232300</v>
       </c>
       <c r="C39">
-        <v>4039300</v>
+        <v>701600</v>
       </c>
       <c r="D39">
-        <v>89000</v>
+        <v>12200</v>
       </c>
       <c r="E39">
-        <v>139388596000</v>
+        <v>16182215000</v>
       </c>
       <c r="F39">
-        <v>68190504000</v>
+        <v>11250180000</v>
       </c>
       <c r="G39">
-        <v>1733769000</v>
+        <v>290425000</v>
       </c>
       <c r="H39">
-        <v>12851400</v>
+        <v>1946100</v>
       </c>
       <c r="I39">
-        <v>209312869000</v>
+        <v>27722820000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-27T13:45:00.000Z</v>
+        <v>2022-12-27T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>5115130774000</v>
+        <v>1977328507000</v>
       </c>
       <c r="L39">
-        <v>345865300</v>
+        <v>138904500</v>
       </c>
       <c r="M39">
-        <v>-4683800</v>
+        <v>-530700</v>
       </c>
       <c r="N39">
-        <v>-71198092000</v>
+        <v>-4932035000</v>
       </c>
       <c r="O39">
-        <v>179500</v>
+        <v>-4257800</v>
       </c>
       <c r="P39">
-        <v>74860339000</v>
+        <v>-602740000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1672149000000</v>
+        <v>1672137000000</v>
       </c>
       <c r="B40">
-        <v>3462800</v>
+        <v>737900</v>
       </c>
       <c r="C40">
-        <v>2736200</v>
+        <v>957200</v>
       </c>
       <c r="D40">
-        <v>23500</v>
+        <v>13900</v>
       </c>
       <c r="E40">
-        <v>64130883000</v>
+        <v>13578099000</v>
       </c>
       <c r="F40">
-        <v>48827396000</v>
+        <v>16903834000</v>
       </c>
       <c r="G40">
-        <v>518095000</v>
+        <v>512542000</v>
       </c>
       <c r="H40">
-        <v>6222500</v>
+        <v>1709000</v>
       </c>
       <c r="I40">
-        <v>113476374000</v>
+        <v>30994475000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-27T13:50:00.000Z</v>
+        <v>2022-12-27T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>5228607148000</v>
+        <v>2008322982000</v>
       </c>
       <c r="L40">
-        <v>352087800</v>
+        <v>140613500</v>
       </c>
       <c r="M40">
-        <v>-726600</v>
+        <v>219300</v>
       </c>
       <c r="N40">
-        <v>-15303487000</v>
+        <v>3325735000</v>
       </c>
       <c r="O40">
-        <v>-547100</v>
+        <v>-4038500</v>
       </c>
       <c r="P40">
-        <v>59556852000</v>
+        <v>2722995000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1672149300000</v>
+        <v>1672137120000</v>
       </c>
       <c r="B41">
-        <v>2160500</v>
+        <v>864400</v>
       </c>
       <c r="C41">
-        <v>4270500</v>
+        <v>1434500</v>
       </c>
       <c r="D41">
-        <v>68100</v>
+        <v>4000</v>
       </c>
       <c r="E41">
-        <v>37312044000</v>
+        <v>15547802000</v>
       </c>
       <c r="F41">
-        <v>69628062000</v>
+        <v>25019898000</v>
       </c>
       <c r="G41">
-        <v>1118235000</v>
+        <v>131220000</v>
       </c>
       <c r="H41">
-        <v>6499100</v>
+        <v>2302900</v>
       </c>
       <c r="I41">
-        <v>108058341000</v>
+        <v>40698920000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-27T13:55:00.000Z</v>
+        <v>2022-12-27T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>5336665489000</v>
+        <v>2049021902000</v>
       </c>
       <c r="L41">
-        <v>358586900</v>
+        <v>142916400</v>
       </c>
       <c r="M41">
-        <v>2110000</v>
+        <v>570100</v>
       </c>
       <c r="N41">
-        <v>32316018000</v>
+        <v>9472096000</v>
       </c>
       <c r="O41">
-        <v>1562900</v>
+        <v>-3468400</v>
       </c>
       <c r="P41">
-        <v>91872870000</v>
+        <v>12195091000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1672149600000</v>
+        <v>1672137240000</v>
       </c>
       <c r="B42">
-        <v>2553000</v>
+        <v>637800</v>
       </c>
       <c r="C42">
-        <v>7450700</v>
+        <v>1615500</v>
       </c>
       <c r="D42">
-        <v>67900</v>
+        <v>1900</v>
       </c>
       <c r="E42">
-        <v>41547190000</v>
+        <v>7901712000</v>
       </c>
       <c r="F42">
-        <v>123113094000</v>
+        <v>26113605000</v>
       </c>
       <c r="G42">
-        <v>1025234000</v>
+        <v>13260000</v>
       </c>
       <c r="H42">
-        <v>10071600</v>
+        <v>2255200</v>
       </c>
       <c r="I42">
-        <v>165685518000</v>
+        <v>34028577000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-27T14:00:00.000Z</v>
+        <v>2022-12-27T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>5502351007000</v>
+        <v>2083050479000</v>
       </c>
       <c r="L42">
-        <v>368658500</v>
+        <v>145171600</v>
       </c>
       <c r="M42">
-        <v>4897700</v>
+        <v>977700</v>
       </c>
       <c r="N42">
-        <v>81565904000</v>
+        <v>18211893000</v>
       </c>
       <c r="O42">
-        <v>6460600</v>
+        <v>-2490700</v>
       </c>
       <c r="P42">
-        <v>173438774000</v>
+        <v>30406984000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1672149900000</v>
+        <v>1672137360000</v>
       </c>
       <c r="B43">
-        <v>3505200</v>
+        <v>774200</v>
       </c>
       <c r="C43">
-        <v>4227500</v>
+        <v>1456900</v>
       </c>
       <c r="D43">
-        <v>68300</v>
+        <v>23700</v>
       </c>
       <c r="E43">
-        <v>56751456000</v>
+        <v>11271376000</v>
       </c>
       <c r="F43">
-        <v>71037283000</v>
+        <v>22496150000</v>
       </c>
       <c r="G43">
-        <v>1030349000</v>
+        <v>277983000</v>
       </c>
       <c r="H43">
-        <v>7801000</v>
+        <v>2254800</v>
       </c>
       <c r="I43">
-        <v>128819088000</v>
+        <v>34045509000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-27T14:05:00.000Z</v>
+        <v>2022-12-27T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>5631170095000</v>
+        <v>2117095988000</v>
       </c>
       <c r="L43">
-        <v>376459500</v>
+        <v>147426400</v>
       </c>
       <c r="M43">
-        <v>722300</v>
+        <v>682700</v>
       </c>
       <c r="N43">
-        <v>14285827000</v>
+        <v>11224774000</v>
       </c>
       <c r="O43">
-        <v>7182900</v>
+        <v>-1808000</v>
       </c>
       <c r="P43">
-        <v>187724601000</v>
+        <v>41631758000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1672150200000</v>
+        <v>1672137480000</v>
       </c>
       <c r="B44">
-        <v>4429000</v>
+        <v>712300</v>
       </c>
       <c r="C44">
-        <v>3923800</v>
+        <v>2466600</v>
       </c>
       <c r="D44">
-        <v>44500</v>
+        <v>8300</v>
       </c>
       <c r="E44">
-        <v>69113208000</v>
+        <v>13085692000</v>
       </c>
       <c r="F44">
-        <v>77116257000</v>
+        <v>38166695000</v>
       </c>
       <c r="G44">
-        <v>1484168000</v>
+        <v>291555000</v>
       </c>
       <c r="H44">
-        <v>8397300</v>
+        <v>3187200</v>
       </c>
       <c r="I44">
-        <v>147713633000</v>
+        <v>51543942000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-27T14:10:00.000Z</v>
+        <v>2022-12-27T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>5778883728000</v>
+        <v>2168639930000</v>
       </c>
       <c r="L44">
-        <v>384856800</v>
+        <v>150613600</v>
       </c>
       <c r="M44">
-        <v>-505200</v>
+        <v>1754300</v>
       </c>
       <c r="N44">
-        <v>8003049000</v>
+        <v>25081003000</v>
       </c>
       <c r="O44">
-        <v>6677700</v>
+        <v>-53700</v>
       </c>
       <c r="P44">
-        <v>195727650000</v>
+        <v>66712761000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1672150500000</v>
+        <v>1672137600000</v>
       </c>
       <c r="B45">
-        <v>3034100</v>
+        <v>900100</v>
       </c>
       <c r="C45">
-        <v>14113000</v>
+        <v>2308600</v>
       </c>
       <c r="D45">
-        <v>112200</v>
+        <v>54400</v>
       </c>
       <c r="E45">
-        <v>48798311000</v>
+        <v>13874324000</v>
       </c>
       <c r="F45">
-        <v>254797173000</v>
+        <v>33783869000</v>
       </c>
       <c r="G45">
-        <v>1581266000</v>
+        <v>543287000</v>
       </c>
       <c r="H45">
-        <v>17259300</v>
+        <v>3263100</v>
       </c>
       <c r="I45">
-        <v>305176750000</v>
+        <v>48201480000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-27T14:15:00.000Z</v>
+        <v>2022-12-27T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>6084060478000</v>
+        <v>2216841410000</v>
       </c>
       <c r="L45">
-        <v>402116100</v>
+        <v>153876700</v>
       </c>
       <c r="M45">
-        <v>11078900</v>
+        <v>1408500</v>
       </c>
       <c r="N45">
-        <v>205998862000</v>
+        <v>19909545000</v>
       </c>
       <c r="O45">
-        <v>17756600</v>
+        <v>1354800</v>
       </c>
       <c r="P45">
-        <v>401726512000</v>
+        <v>86622306000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1672150800000</v>
+        <v>1672137720000</v>
       </c>
       <c r="B46">
-        <v>4543000</v>
+        <v>875700</v>
       </c>
       <c r="C46">
-        <v>16569500</v>
+        <v>2054800</v>
       </c>
       <c r="D46">
-        <v>56500</v>
+        <v>15600</v>
       </c>
       <c r="E46">
-        <v>83558971000</v>
+        <v>13402847000</v>
       </c>
       <c r="F46">
-        <v>285286762000</v>
+        <v>31093501000</v>
       </c>
       <c r="G46">
-        <v>651997000</v>
+        <v>366090000</v>
       </c>
       <c r="H46">
-        <v>21169000</v>
+        <v>2946100</v>
       </c>
       <c r="I46">
-        <v>369497730000</v>
+        <v>44862438000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-27T14:20:00.000Z</v>
+        <v>2022-12-27T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>6453558208000</v>
+        <v>2261703848000</v>
       </c>
       <c r="L46">
-        <v>423285100</v>
+        <v>156822800</v>
       </c>
       <c r="M46">
-        <v>12026500</v>
+        <v>1179100</v>
       </c>
       <c r="N46">
-        <v>201727791000</v>
+        <v>17690654000</v>
       </c>
       <c r="O46">
-        <v>29783100</v>
+        <v>2533900</v>
       </c>
       <c r="P46">
-        <v>603454303000</v>
+        <v>104312960000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1672151100000</v>
+        <v>1672137840000</v>
       </c>
       <c r="B47">
-        <v>7801800</v>
+        <v>774100</v>
       </c>
       <c r="C47">
-        <v>20622500</v>
+        <v>3691300</v>
       </c>
       <c r="D47">
-        <v>116000</v>
+        <v>8500</v>
       </c>
       <c r="E47">
-        <v>132499373000</v>
+        <v>11688434000</v>
       </c>
       <c r="F47">
-        <v>336473816000</v>
+        <v>54343683000</v>
       </c>
       <c r="G47">
-        <v>2612585000</v>
+        <v>123014000</v>
       </c>
       <c r="H47">
-        <v>28540300</v>
+        <v>4473900</v>
       </c>
       <c r="I47">
-        <v>471585774000</v>
+        <v>66155131000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-27T14:25:00.000Z</v>
+        <v>2022-12-27T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>6925143982000</v>
+        <v>2327858979000</v>
       </c>
       <c r="L47">
-        <v>451825400</v>
+        <v>161296700</v>
       </c>
       <c r="M47">
-        <v>12820700</v>
+        <v>2917200</v>
       </c>
       <c r="N47">
-        <v>203974443000</v>
+        <v>42655249000</v>
       </c>
       <c r="O47">
-        <v>42603800</v>
+        <v>5451100</v>
       </c>
       <c r="P47">
-        <v>807428746000</v>
+        <v>146968209000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1672151400000</v>
+        <v>1672137960000</v>
       </c>
       <c r="B48">
-        <v>5900</v>
+        <v>645700</v>
       </c>
       <c r="C48">
-        <v>406700</v>
+        <v>3599900</v>
       </c>
       <c r="D48">
-        <v>20600</v>
+        <v>10900</v>
       </c>
       <c r="E48">
-        <v>86585000</v>
+        <v>9338977000</v>
       </c>
       <c r="F48">
-        <v>9288080000</v>
+        <v>50354268000</v>
       </c>
       <c r="G48">
-        <v>208060000</v>
+        <v>245958000</v>
       </c>
       <c r="H48">
-        <v>433200</v>
+        <v>4256500</v>
       </c>
       <c r="I48">
-        <v>9582725000</v>
+        <v>59939203000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-27T14:30:00.000Z</v>
+        <v>2022-12-27T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>6934726707000</v>
+        <v>2387798182000</v>
       </c>
       <c r="L48">
-        <v>452258600</v>
+        <v>165553200</v>
       </c>
       <c r="M48">
-        <v>400800</v>
+        <v>2954200</v>
       </c>
       <c r="N48">
-        <v>9201495000</v>
+        <v>41015291000</v>
       </c>
       <c r="O48">
-        <v>43004600</v>
+        <v>8405300</v>
       </c>
       <c r="P48">
-        <v>816630241000</v>
+        <v>187983500000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1672151700000</v>
+        <v>1672138080000</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1449400</v>
       </c>
       <c r="C49">
-        <v>10000</v>
+        <v>3208300</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>39700</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>19993161000</v>
       </c>
       <c r="F49">
-        <v>102000000</v>
+        <v>48587057000</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>625585000</v>
       </c>
       <c r="H49">
-        <v>10000</v>
+        <v>4697400</v>
       </c>
       <c r="I49">
-        <v>102000000</v>
+        <v>69205803000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-27T14:35:00.000Z</v>
+        <v>2022-12-27T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>6934828707000</v>
+        <v>2457003985000</v>
       </c>
       <c r="L49">
-        <v>452268600</v>
+        <v>170250600</v>
       </c>
       <c r="M49">
-        <v>10000</v>
+        <v>1758900</v>
       </c>
       <c r="N49">
-        <v>102000000</v>
+        <v>28593896000</v>
       </c>
       <c r="O49">
-        <v>43014600</v>
+        <v>10164200</v>
       </c>
       <c r="P49">
-        <v>816732241000</v>
+        <v>216577396000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1672152300000</v>
+        <v>1672138200000</v>
       </c>
       <c r="B50">
-        <v>4239000</v>
+        <v>1392700</v>
       </c>
       <c r="C50">
-        <v>6412300</v>
+        <v>5264600</v>
       </c>
       <c r="D50">
-        <v>18000000</v>
+        <v>21900</v>
       </c>
       <c r="E50">
-        <v>125868958000</v>
+        <v>19943268000</v>
       </c>
       <c r="F50">
-        <v>96016080000</v>
+        <v>82897160000</v>
       </c>
       <c r="G50">
-        <v>351058959000</v>
+        <v>405965000</v>
       </c>
       <c r="H50">
-        <v>28651300</v>
+        <v>6679200</v>
       </c>
       <c r="I50">
-        <v>572943997000</v>
+        <v>103246393000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-27T14:45:00.000Z</v>
+        <v>2022-12-27T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>7507772704000</v>
+        <v>2560250378000</v>
       </c>
       <c r="L50">
-        <v>480919900</v>
+        <v>176929800</v>
       </c>
       <c r="M50">
-        <v>2173300</v>
+        <v>3871900</v>
       </c>
       <c r="N50">
-        <v>-29852878000</v>
+        <v>62953892000</v>
       </c>
       <c r="O50">
-        <v>45187900</v>
+        <v>14036100</v>
       </c>
       <c r="P50">
-        <v>786879363000</v>
+        <v>279531288000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1672152900000</v>
+        <v>1672138320000</v>
       </c>
       <c r="B51">
+        <v>2126400</v>
+      </c>
+      <c r="C51">
+        <v>6673000</v>
+      </c>
+      <c r="D51">
+        <v>91000</v>
+      </c>
+      <c r="E51">
+        <v>35370222000</v>
+      </c>
+      <c r="F51">
+        <v>108639395000</v>
+      </c>
+      <c r="G51">
+        <v>1546755000</v>
+      </c>
+      <c r="H51">
+        <v>8890400</v>
+      </c>
+      <c r="I51">
+        <v>145556372000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2022-12-27T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>2705806750000</v>
+      </c>
+      <c r="L51">
+        <v>185820200</v>
+      </c>
+      <c r="M51">
+        <v>4546600</v>
+      </c>
+      <c r="N51">
+        <v>73269173000</v>
+      </c>
+      <c r="O51">
+        <v>18582700</v>
+      </c>
+      <c r="P51">
+        <v>352800461000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1672138440000</v>
+      </c>
+      <c r="B52">
+        <v>2495400</v>
+      </c>
+      <c r="C52">
+        <v>3218500</v>
+      </c>
+      <c r="D52">
+        <v>20700</v>
+      </c>
+      <c r="E52">
+        <v>34223384000</v>
+      </c>
+      <c r="F52">
+        <v>45798873000</v>
+      </c>
+      <c r="G52">
+        <v>555666000</v>
+      </c>
+      <c r="H52">
+        <v>5734600</v>
+      </c>
+      <c r="I52">
+        <v>80577923000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2022-12-27T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>2786384673000</v>
+      </c>
+      <c r="L52">
+        <v>191554800</v>
+      </c>
+      <c r="M52">
+        <v>723100</v>
+      </c>
+      <c r="N52">
+        <v>11575489000</v>
+      </c>
+      <c r="O52">
+        <v>19305800</v>
+      </c>
+      <c r="P52">
+        <v>364375950000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1672138560000</v>
+      </c>
+      <c r="B53">
+        <v>2892800</v>
+      </c>
+      <c r="C53">
+        <v>1854800</v>
+      </c>
+      <c r="D53">
+        <v>34600</v>
+      </c>
+      <c r="E53">
+        <v>45213307000</v>
+      </c>
+      <c r="F53">
+        <v>27694181000</v>
+      </c>
+      <c r="G53">
+        <v>359238000</v>
+      </c>
+      <c r="H53">
+        <v>4782200</v>
+      </c>
+      <c r="I53">
+        <v>73266726000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-27T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2859651399000</v>
+      </c>
+      <c r="L53">
+        <v>196337000</v>
+      </c>
+      <c r="M53">
+        <v>-1038000</v>
+      </c>
+      <c r="N53">
+        <v>-17519126000</v>
+      </c>
+      <c r="O53">
+        <v>18267800</v>
+      </c>
+      <c r="P53">
+        <v>346856824000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1672138680000</v>
+      </c>
+      <c r="B54">
+        <v>2619400</v>
+      </c>
+      <c r="C54">
+        <v>1182400</v>
+      </c>
+      <c r="D54">
+        <v>7400</v>
+      </c>
+      <c r="E54">
+        <v>37504800000</v>
+      </c>
+      <c r="F54">
+        <v>19073497000</v>
+      </c>
+      <c r="G54">
+        <v>79847000</v>
+      </c>
+      <c r="H54">
+        <v>3809200</v>
+      </c>
+      <c r="I54">
+        <v>56658144000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-27T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2916309543000</v>
+      </c>
+      <c r="L54">
+        <v>200146200</v>
+      </c>
+      <c r="M54">
+        <v>-1437000</v>
+      </c>
+      <c r="N54">
+        <v>-18431303000</v>
+      </c>
+      <c r="O54">
+        <v>16830800</v>
+      </c>
+      <c r="P54">
+        <v>328425521000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1672138800000</v>
+      </c>
+      <c r="B55">
+        <v>2126000</v>
+      </c>
+      <c r="C55">
+        <v>730300</v>
+      </c>
+      <c r="D55">
+        <v>20300</v>
+      </c>
+      <c r="E55">
+        <v>28589083000</v>
+      </c>
+      <c r="F55">
+        <v>10933287000</v>
+      </c>
+      <c r="G55">
+        <v>242996000</v>
+      </c>
+      <c r="H55">
+        <v>2876600</v>
+      </c>
+      <c r="I55">
+        <v>39765366000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-27T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2956074909000</v>
+      </c>
+      <c r="L55">
+        <v>203022800</v>
+      </c>
+      <c r="M55">
+        <v>-1395700</v>
+      </c>
+      <c r="N55">
+        <v>-17655796000</v>
+      </c>
+      <c r="O55">
+        <v>15435100</v>
+      </c>
+      <c r="P55">
+        <v>310769725000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1672138920000</v>
+      </c>
+      <c r="B56">
+        <v>1390800</v>
+      </c>
+      <c r="C56">
+        <v>506000</v>
+      </c>
+      <c r="D56">
+        <v>7000</v>
+      </c>
+      <c r="E56">
+        <v>18667432000</v>
+      </c>
+      <c r="F56">
+        <v>7859968000</v>
+      </c>
+      <c r="G56">
+        <v>128260000</v>
+      </c>
+      <c r="H56">
+        <v>1903800</v>
+      </c>
+      <c r="I56">
+        <v>26655660000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-27T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2982730569000</v>
+      </c>
+      <c r="L56">
+        <v>204926600</v>
+      </c>
+      <c r="M56">
+        <v>-884800</v>
+      </c>
+      <c r="N56">
+        <v>-10807464000</v>
+      </c>
+      <c r="O56">
+        <v>14550300</v>
+      </c>
+      <c r="P56">
+        <v>299962261000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1672139040000</v>
+      </c>
+      <c r="B57">
+        <v>1541700</v>
+      </c>
+      <c r="C57">
+        <v>406000</v>
+      </c>
+      <c r="D57">
+        <v>300</v>
+      </c>
+      <c r="E57">
+        <v>23818949000</v>
+      </c>
+      <c r="F57">
+        <v>5727365000</v>
+      </c>
+      <c r="G57">
+        <v>8830000</v>
+      </c>
+      <c r="H57">
+        <v>1948000</v>
+      </c>
+      <c r="I57">
+        <v>29555144000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-27T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>3012285713000</v>
+      </c>
+      <c r="L57">
+        <v>206874600</v>
+      </c>
+      <c r="M57">
+        <v>-1135700</v>
+      </c>
+      <c r="N57">
+        <v>-18091584000</v>
+      </c>
+      <c r="O57">
+        <v>13414600</v>
+      </c>
+      <c r="P57">
+        <v>281870677000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1672139160000</v>
+      </c>
+      <c r="B58">
+        <v>1170300</v>
+      </c>
+      <c r="C58">
+        <v>547600</v>
+      </c>
+      <c r="D58">
+        <v>2200</v>
+      </c>
+      <c r="E58">
+        <v>16131605000</v>
+      </c>
+      <c r="F58">
+        <v>8364479000</v>
+      </c>
+      <c r="G58">
+        <v>50997000</v>
+      </c>
+      <c r="H58">
+        <v>1720100</v>
+      </c>
+      <c r="I58">
+        <v>24547081000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-27T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>3036832794000</v>
+      </c>
+      <c r="L58">
+        <v>208594700</v>
+      </c>
+      <c r="M58">
+        <v>-622700</v>
+      </c>
+      <c r="N58">
+        <v>-7767126000</v>
+      </c>
+      <c r="O58">
+        <v>12791900</v>
+      </c>
+      <c r="P58">
+        <v>274103551000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1672139280000</v>
+      </c>
+      <c r="B59">
+        <v>1045500</v>
+      </c>
+      <c r="C59">
+        <v>622900</v>
+      </c>
+      <c r="D59">
+        <v>8600</v>
+      </c>
+      <c r="E59">
+        <v>16845319000</v>
+      </c>
+      <c r="F59">
+        <v>10749951000</v>
+      </c>
+      <c r="G59">
+        <v>145395000</v>
+      </c>
+      <c r="H59">
+        <v>1677000</v>
+      </c>
+      <c r="I59">
+        <v>27740665000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-27T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>3064573459000</v>
+      </c>
+      <c r="L59">
+        <v>210271700</v>
+      </c>
+      <c r="M59">
+        <v>-422600</v>
+      </c>
+      <c r="N59">
+        <v>-6095368000</v>
+      </c>
+      <c r="O59">
+        <v>12369300</v>
+      </c>
+      <c r="P59">
+        <v>268008183000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1672139400000</v>
+      </c>
+      <c r="B60">
+        <v>920600</v>
+      </c>
+      <c r="C60">
+        <v>807100</v>
+      </c>
+      <c r="D60">
+        <v>8400</v>
+      </c>
+      <c r="E60">
+        <v>12206376000</v>
+      </c>
+      <c r="F60">
+        <v>12877997000</v>
+      </c>
+      <c r="G60">
+        <v>145886000</v>
+      </c>
+      <c r="H60">
+        <v>1736100</v>
+      </c>
+      <c r="I60">
+        <v>25230259000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-27T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>3089803718000</v>
+      </c>
+      <c r="L60">
+        <v>212007800</v>
+      </c>
+      <c r="M60">
+        <v>-113500</v>
+      </c>
+      <c r="N60">
+        <v>671621000</v>
+      </c>
+      <c r="O60">
+        <v>12255800</v>
+      </c>
+      <c r="P60">
+        <v>268679804000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1672139520000</v>
+      </c>
+      <c r="B61">
+        <v>799400</v>
+      </c>
+      <c r="C61">
+        <v>926900</v>
+      </c>
+      <c r="D61">
+        <v>5600</v>
+      </c>
+      <c r="E61">
+        <v>9581935000</v>
+      </c>
+      <c r="F61">
+        <v>13059346000</v>
+      </c>
+      <c r="G61">
+        <v>88875000</v>
+      </c>
+      <c r="H61">
+        <v>1731900</v>
+      </c>
+      <c r="I61">
+        <v>22730156000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-27T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>3112533874000</v>
+      </c>
+      <c r="L61">
+        <v>213739700</v>
+      </c>
+      <c r="M61">
+        <v>127500</v>
+      </c>
+      <c r="N61">
+        <v>3477411000</v>
+      </c>
+      <c r="O61">
+        <v>12383300</v>
+      </c>
+      <c r="P61">
+        <v>272157215000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1672139640000</v>
+      </c>
+      <c r="B62">
+        <v>609100</v>
+      </c>
+      <c r="C62">
+        <v>488200</v>
+      </c>
+      <c r="D62">
+        <v>5200</v>
+      </c>
+      <c r="E62">
+        <v>12343060000</v>
+      </c>
+      <c r="F62">
+        <v>8471204000</v>
+      </c>
+      <c r="G62">
+        <v>80110000</v>
+      </c>
+      <c r="H62">
+        <v>1102500</v>
+      </c>
+      <c r="I62">
+        <v>20894374000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-27T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>3133428248000</v>
+      </c>
+      <c r="L62">
+        <v>214842200</v>
+      </c>
+      <c r="M62">
+        <v>-120900</v>
+      </c>
+      <c r="N62">
+        <v>-3871856000</v>
+      </c>
+      <c r="O62">
+        <v>12262400</v>
+      </c>
+      <c r="P62">
+        <v>268285359000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1672139760000</v>
+      </c>
+      <c r="B63">
+        <v>476900</v>
+      </c>
+      <c r="C63">
+        <v>1038900</v>
+      </c>
+      <c r="D63">
+        <v>16700</v>
+      </c>
+      <c r="E63">
+        <v>6995075000</v>
+      </c>
+      <c r="F63">
+        <v>17153661000</v>
+      </c>
+      <c r="G63">
+        <v>145236000</v>
+      </c>
+      <c r="H63">
+        <v>1532500</v>
+      </c>
+      <c r="I63">
+        <v>24293972000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-27T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>3157722220000</v>
+      </c>
+      <c r="L63">
+        <v>216374700</v>
+      </c>
+      <c r="M63">
+        <v>562000</v>
+      </c>
+      <c r="N63">
+        <v>10158586000</v>
+      </c>
+      <c r="O63">
+        <v>12824400</v>
+      </c>
+      <c r="P63">
+        <v>278443945000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1672139880000</v>
+      </c>
+      <c r="B64">
+        <v>877000</v>
+      </c>
+      <c r="C64">
+        <v>1057000</v>
+      </c>
+      <c r="D64">
         <v>0</v>
       </c>
-      <c r="C51">
+      <c r="E64">
+        <v>13638872000</v>
+      </c>
+      <c r="F64">
+        <v>15062031000</v>
+      </c>
+      <c r="G64">
         <v>0</v>
       </c>
-      <c r="D51">
+      <c r="H64">
+        <v>1934000</v>
+      </c>
+      <c r="I64">
+        <v>28700903000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-27T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>3186423123000</v>
+      </c>
+      <c r="L64">
+        <v>218308700</v>
+      </c>
+      <c r="M64">
+        <v>180000</v>
+      </c>
+      <c r="N64">
+        <v>1423159000</v>
+      </c>
+      <c r="O64">
+        <v>13004400</v>
+      </c>
+      <c r="P64">
+        <v>279867104000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1672140000000</v>
+      </c>
+      <c r="B65">
+        <v>577700</v>
+      </c>
+      <c r="C65">
+        <v>1256000</v>
+      </c>
+      <c r="D65">
+        <v>8800</v>
+      </c>
+      <c r="E65">
+        <v>8118605000</v>
+      </c>
+      <c r="F65">
+        <v>24006611000</v>
+      </c>
+      <c r="G65">
+        <v>197443000</v>
+      </c>
+      <c r="H65">
+        <v>1842500</v>
+      </c>
+      <c r="I65">
+        <v>32322659000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-27T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>3218745782000</v>
+      </c>
+      <c r="L65">
+        <v>220151200</v>
+      </c>
+      <c r="M65">
+        <v>678300</v>
+      </c>
+      <c r="N65">
+        <v>15888006000</v>
+      </c>
+      <c r="O65">
+        <v>13682700</v>
+      </c>
+      <c r="P65">
+        <v>295755110000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1672140120000</v>
+      </c>
+      <c r="B66">
+        <v>659100</v>
+      </c>
+      <c r="C66">
+        <v>1407700</v>
+      </c>
+      <c r="D66">
+        <v>3100</v>
+      </c>
+      <c r="E66">
+        <v>10317832000</v>
+      </c>
+      <c r="F66">
+        <v>22633240000</v>
+      </c>
+      <c r="G66">
+        <v>92535000</v>
+      </c>
+      <c r="H66">
+        <v>2069900</v>
+      </c>
+      <c r="I66">
+        <v>33043607000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-27T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>3251789389000</v>
+      </c>
+      <c r="L66">
+        <v>222221100</v>
+      </c>
+      <c r="M66">
+        <v>748600</v>
+      </c>
+      <c r="N66">
+        <v>12315408000</v>
+      </c>
+      <c r="O66">
+        <v>14431300</v>
+      </c>
+      <c r="P66">
+        <v>308070518000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1672140240000</v>
+      </c>
+      <c r="B67">
+        <v>1057100</v>
+      </c>
+      <c r="C67">
+        <v>1502000</v>
+      </c>
+      <c r="D67">
+        <v>9000</v>
+      </c>
+      <c r="E67">
+        <v>21025150000</v>
+      </c>
+      <c r="F67">
+        <v>22676657000</v>
+      </c>
+      <c r="G67">
+        <v>82447000</v>
+      </c>
+      <c r="H67">
+        <v>2568100</v>
+      </c>
+      <c r="I67">
+        <v>43784254000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-27T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>3295573643000</v>
+      </c>
+      <c r="L67">
+        <v>224789200</v>
+      </c>
+      <c r="M67">
+        <v>444900</v>
+      </c>
+      <c r="N67">
+        <v>1651507000</v>
+      </c>
+      <c r="O67">
+        <v>14876200</v>
+      </c>
+      <c r="P67">
+        <v>309722025000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1672140360000</v>
+      </c>
+      <c r="B68">
+        <v>1278500</v>
+      </c>
+      <c r="C68">
+        <v>1164400</v>
+      </c>
+      <c r="D68">
+        <v>2100</v>
+      </c>
+      <c r="E68">
+        <v>21904976000</v>
+      </c>
+      <c r="F68">
+        <v>15321601000</v>
+      </c>
+      <c r="G68">
+        <v>50985000</v>
+      </c>
+      <c r="H68">
+        <v>2445000</v>
+      </c>
+      <c r="I68">
+        <v>37277562000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-27T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>3332851205000</v>
+      </c>
+      <c r="L68">
+        <v>227234200</v>
+      </c>
+      <c r="M68">
+        <v>-114100</v>
+      </c>
+      <c r="N68">
+        <v>-6583375000</v>
+      </c>
+      <c r="O68">
+        <v>14762100</v>
+      </c>
+      <c r="P68">
+        <v>303138650000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1672140480000</v>
+      </c>
+      <c r="B69">
+        <v>1029700</v>
+      </c>
+      <c r="C69">
+        <v>789400</v>
+      </c>
+      <c r="D69">
+        <v>18300</v>
+      </c>
+      <c r="E69">
+        <v>14121881000</v>
+      </c>
+      <c r="F69">
+        <v>10071963000</v>
+      </c>
+      <c r="G69">
+        <v>267443000</v>
+      </c>
+      <c r="H69">
+        <v>1837400</v>
+      </c>
+      <c r="I69">
+        <v>24461287000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-27T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>3357312492000</v>
+      </c>
+      <c r="L69">
+        <v>229071600</v>
+      </c>
+      <c r="M69">
+        <v>-240300</v>
+      </c>
+      <c r="N69">
+        <v>-4049918000</v>
+      </c>
+      <c r="O69">
+        <v>14521800</v>
+      </c>
+      <c r="P69">
+        <v>299088732000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1672145880000</v>
+      </c>
+      <c r="B70">
+        <v>12700</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>127000000</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>12700</v>
+      </c>
+      <c r="I70">
+        <v>127000000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-27T12:58:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>3357439492000</v>
+      </c>
+      <c r="L70">
+        <v>229084300</v>
+      </c>
+      <c r="M70">
+        <v>-12700</v>
+      </c>
+      <c r="N70">
+        <v>-127000000</v>
+      </c>
+      <c r="O70">
+        <v>14509100</v>
+      </c>
+      <c r="P70">
+        <v>298961732000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1672146000000</v>
+      </c>
+      <c r="B71">
+        <v>2765300</v>
+      </c>
+      <c r="C71">
+        <v>2123700</v>
+      </c>
+      <c r="D71">
+        <v>349200</v>
+      </c>
+      <c r="E71">
+        <v>44392302000</v>
+      </c>
+      <c r="F71">
+        <v>29402750000</v>
+      </c>
+      <c r="G71">
+        <v>4918762000</v>
+      </c>
+      <c r="H71">
+        <v>5238200</v>
+      </c>
+      <c r="I71">
+        <v>78713814000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-27T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3436153306000</v>
+      </c>
+      <c r="L71">
+        <v>234322500</v>
+      </c>
+      <c r="M71">
+        <v>-641600</v>
+      </c>
+      <c r="N71">
+        <v>-14989552000</v>
+      </c>
+      <c r="O71">
+        <v>13867500</v>
+      </c>
+      <c r="P71">
+        <v>283972180000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1672146120000</v>
+      </c>
+      <c r="B72">
+        <v>1449200</v>
+      </c>
+      <c r="C72">
+        <v>1842100</v>
+      </c>
+      <c r="D72">
+        <v>53500</v>
+      </c>
+      <c r="E72">
+        <v>21597722000</v>
+      </c>
+      <c r="F72">
+        <v>21963550000</v>
+      </c>
+      <c r="G72">
+        <v>490381000</v>
+      </c>
+      <c r="H72">
+        <v>3344800</v>
+      </c>
+      <c r="I72">
+        <v>44051653000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-27T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3480204959000</v>
+      </c>
+      <c r="L72">
+        <v>237667300</v>
+      </c>
+      <c r="M72">
+        <v>392900</v>
+      </c>
+      <c r="N72">
+        <v>365828000</v>
+      </c>
+      <c r="O72">
+        <v>14260400</v>
+      </c>
+      <c r="P72">
+        <v>284338008000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1672146240000</v>
+      </c>
+      <c r="B73">
+        <v>2440300</v>
+      </c>
+      <c r="C73">
+        <v>3129800</v>
+      </c>
+      <c r="D73">
+        <v>69900</v>
+      </c>
+      <c r="E73">
+        <v>33736015000</v>
+      </c>
+      <c r="F73">
+        <v>47071921000</v>
+      </c>
+      <c r="G73">
+        <v>877154000</v>
+      </c>
+      <c r="H73">
+        <v>5640000</v>
+      </c>
+      <c r="I73">
+        <v>81685090000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-27T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3561890049000</v>
+      </c>
+      <c r="L73">
+        <v>243307300</v>
+      </c>
+      <c r="M73">
+        <v>689500</v>
+      </c>
+      <c r="N73">
+        <v>13335906000</v>
+      </c>
+      <c r="O73">
+        <v>14949900</v>
+      </c>
+      <c r="P73">
+        <v>297673914000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1672146360000</v>
+      </c>
+      <c r="B74">
+        <v>1727300</v>
+      </c>
+      <c r="C74">
+        <v>5509200</v>
+      </c>
+      <c r="D74">
+        <v>40800</v>
+      </c>
+      <c r="E74">
+        <v>22981199000</v>
+      </c>
+      <c r="F74">
+        <v>72475019000</v>
+      </c>
+      <c r="G74">
+        <v>508781000</v>
+      </c>
+      <c r="H74">
+        <v>7277300</v>
+      </c>
+      <c r="I74">
+        <v>95964999000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-27T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3657855048000</v>
+      </c>
+      <c r="L74">
+        <v>250584600</v>
+      </c>
+      <c r="M74">
+        <v>3781900</v>
+      </c>
+      <c r="N74">
+        <v>49493820000</v>
+      </c>
+      <c r="O74">
+        <v>18731800</v>
+      </c>
+      <c r="P74">
+        <v>347167734000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1672146480000</v>
+      </c>
+      <c r="B75">
+        <v>1853400</v>
+      </c>
+      <c r="C75">
+        <v>3771600</v>
+      </c>
+      <c r="D75">
+        <v>24200</v>
+      </c>
+      <c r="E75">
+        <v>24217388000</v>
+      </c>
+      <c r="F75">
+        <v>51884334000</v>
+      </c>
+      <c r="G75">
+        <v>455442000</v>
+      </c>
+      <c r="H75">
+        <v>5649200</v>
+      </c>
+      <c r="I75">
+        <v>76557164000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-27T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3734412212000</v>
+      </c>
+      <c r="L75">
+        <v>256233800</v>
+      </c>
+      <c r="M75">
+        <v>1918200</v>
+      </c>
+      <c r="N75">
+        <v>27666946000</v>
+      </c>
+      <c r="O75">
+        <v>20650000</v>
+      </c>
+      <c r="P75">
+        <v>374834680000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1672146600000</v>
+      </c>
+      <c r="B76">
+        <v>2093200</v>
+      </c>
+      <c r="C76">
+        <v>2915200</v>
+      </c>
+      <c r="D76">
+        <v>12800</v>
+      </c>
+      <c r="E76">
+        <v>27930585000</v>
+      </c>
+      <c r="F76">
+        <v>50200843000</v>
+      </c>
+      <c r="G76">
+        <v>99801000</v>
+      </c>
+      <c r="H76">
+        <v>5021200</v>
+      </c>
+      <c r="I76">
+        <v>78231229000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-27T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3812643441000</v>
+      </c>
+      <c r="L76">
+        <v>261255000</v>
+      </c>
+      <c r="M76">
+        <v>822000</v>
+      </c>
+      <c r="N76">
+        <v>22270258000</v>
+      </c>
+      <c r="O76">
+        <v>21472000</v>
+      </c>
+      <c r="P76">
+        <v>397104938000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1672146720000</v>
+      </c>
+      <c r="B77">
+        <v>2028800</v>
+      </c>
+      <c r="C77">
+        <v>2436400</v>
+      </c>
+      <c r="D77">
+        <v>17800</v>
+      </c>
+      <c r="E77">
+        <v>26640538000</v>
+      </c>
+      <c r="F77">
+        <v>34050721000</v>
+      </c>
+      <c r="G77">
+        <v>242214000</v>
+      </c>
+      <c r="H77">
+        <v>4483000</v>
+      </c>
+      <c r="I77">
+        <v>60933473000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-27T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3873576914000</v>
+      </c>
+      <c r="L77">
+        <v>265738000</v>
+      </c>
+      <c r="M77">
+        <v>407600</v>
+      </c>
+      <c r="N77">
+        <v>7410183000</v>
+      </c>
+      <c r="O77">
+        <v>21879600</v>
+      </c>
+      <c r="P77">
+        <v>404515121000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1672146840000</v>
+      </c>
+      <c r="B78">
+        <v>2177800</v>
+      </c>
+      <c r="C78">
+        <v>2044300</v>
+      </c>
+      <c r="D78">
+        <v>35600</v>
+      </c>
+      <c r="E78">
+        <v>32390158000</v>
+      </c>
+      <c r="F78">
+        <v>33335451000</v>
+      </c>
+      <c r="G78">
+        <v>243002000</v>
+      </c>
+      <c r="H78">
+        <v>4257700</v>
+      </c>
+      <c r="I78">
+        <v>65968611000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-27T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3939545525000</v>
+      </c>
+      <c r="L78">
+        <v>269995700</v>
+      </c>
+      <c r="M78">
+        <v>-133500</v>
+      </c>
+      <c r="N78">
+        <v>945293000</v>
+      </c>
+      <c r="O78">
+        <v>21746100</v>
+      </c>
+      <c r="P78">
+        <v>405460414000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1672146960000</v>
+      </c>
+      <c r="B79">
+        <v>1626600</v>
+      </c>
+      <c r="C79">
+        <v>1608100</v>
+      </c>
+      <c r="D79">
+        <v>8000</v>
+      </c>
+      <c r="E79">
+        <v>20597424000</v>
+      </c>
+      <c r="F79">
+        <v>24156836000</v>
+      </c>
+      <c r="G79">
+        <v>92333000</v>
+      </c>
+      <c r="H79">
+        <v>3242700</v>
+      </c>
+      <c r="I79">
+        <v>44846593000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-27T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3984392118000</v>
+      </c>
+      <c r="L79">
+        <v>273238400</v>
+      </c>
+      <c r="M79">
+        <v>-18500</v>
+      </c>
+      <c r="N79">
+        <v>3559412000</v>
+      </c>
+      <c r="O79">
+        <v>21727600</v>
+      </c>
+      <c r="P79">
+        <v>409019826000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1672147080000</v>
+      </c>
+      <c r="B80">
+        <v>2026300</v>
+      </c>
+      <c r="C80">
+        <v>2458100</v>
+      </c>
+      <c r="D80">
+        <v>13400</v>
+      </c>
+      <c r="E80">
+        <v>30801167000</v>
+      </c>
+      <c r="F80">
+        <v>34386233000</v>
+      </c>
+      <c r="G80">
+        <v>215785000</v>
+      </c>
+      <c r="H80">
+        <v>4497800</v>
+      </c>
+      <c r="I80">
+        <v>65403185000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-27T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>4049795303000</v>
+      </c>
+      <c r="L80">
+        <v>277736200</v>
+      </c>
+      <c r="M80">
+        <v>431800</v>
+      </c>
+      <c r="N80">
+        <v>3585066000</v>
+      </c>
+      <c r="O80">
+        <v>22159400</v>
+      </c>
+      <c r="P80">
+        <v>412604892000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1672147200000</v>
+      </c>
+      <c r="B81">
+        <v>2701500</v>
+      </c>
+      <c r="C81">
+        <v>1669900</v>
+      </c>
+      <c r="D81">
+        <v>37100</v>
+      </c>
+      <c r="E81">
+        <v>42238086000</v>
+      </c>
+      <c r="F81">
+        <v>24734936000</v>
+      </c>
+      <c r="G81">
+        <v>1125351000</v>
+      </c>
+      <c r="H81">
+        <v>4408500</v>
+      </c>
+      <c r="I81">
+        <v>68098373000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-27T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>4117893676000</v>
+      </c>
+      <c r="L81">
+        <v>282144700</v>
+      </c>
+      <c r="M81">
+        <v>-1031600</v>
+      </c>
+      <c r="N81">
+        <v>-17503150000</v>
+      </c>
+      <c r="O81">
+        <v>21127800</v>
+      </c>
+      <c r="P81">
+        <v>395101742000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1672147320000</v>
+      </c>
+      <c r="B82">
+        <v>3311800</v>
+      </c>
+      <c r="C82">
+        <v>1741100</v>
+      </c>
+      <c r="D82">
+        <v>7400</v>
+      </c>
+      <c r="E82">
+        <v>47036088000</v>
+      </c>
+      <c r="F82">
+        <v>28308229000</v>
+      </c>
+      <c r="G82">
+        <v>175192000</v>
+      </c>
+      <c r="H82">
+        <v>5060300</v>
+      </c>
+      <c r="I82">
+        <v>75519509000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-27T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>4193413185000</v>
+      </c>
+      <c r="L82">
+        <v>287205000</v>
+      </c>
+      <c r="M82">
+        <v>-1570700</v>
+      </c>
+      <c r="N82">
+        <v>-18727859000</v>
+      </c>
+      <c r="O82">
+        <v>19557100</v>
+      </c>
+      <c r="P82">
+        <v>376373883000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1672147440000</v>
+      </c>
+      <c r="B83">
+        <v>3472000</v>
+      </c>
+      <c r="C83">
+        <v>1568300</v>
+      </c>
+      <c r="D83">
+        <v>34600</v>
+      </c>
+      <c r="E83">
+        <v>54206378000</v>
+      </c>
+      <c r="F83">
+        <v>27192776000</v>
+      </c>
+      <c r="G83">
+        <v>463946000</v>
+      </c>
+      <c r="H83">
+        <v>5074900</v>
+      </c>
+      <c r="I83">
+        <v>81863100000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-27T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>4275276285000</v>
+      </c>
+      <c r="L83">
+        <v>292279900</v>
+      </c>
+      <c r="M83">
+        <v>-1903700</v>
+      </c>
+      <c r="N83">
+        <v>-27013602000</v>
+      </c>
+      <c r="O83">
+        <v>17653400</v>
+      </c>
+      <c r="P83">
+        <v>349360281000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1672147560000</v>
+      </c>
+      <c r="B84">
+        <v>5318700</v>
+      </c>
+      <c r="C84">
+        <v>1204300</v>
+      </c>
+      <c r="D84">
+        <v>18900</v>
+      </c>
+      <c r="E84">
+        <v>80986234000</v>
+      </c>
+      <c r="F84">
+        <v>16184667000</v>
+      </c>
+      <c r="G84">
+        <v>256668000</v>
+      </c>
+      <c r="H84">
+        <v>6541900</v>
+      </c>
+      <c r="I84">
+        <v>97427569000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-27T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>4372703854000</v>
+      </c>
+      <c r="L84">
+        <v>298821800</v>
+      </c>
+      <c r="M84">
+        <v>-4114400</v>
+      </c>
+      <c r="N84">
+        <v>-64801567000</v>
+      </c>
+      <c r="O84">
+        <v>13539000</v>
+      </c>
+      <c r="P84">
+        <v>284558714000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1672147680000</v>
+      </c>
+      <c r="B85">
+        <v>3617200</v>
+      </c>
+      <c r="C85">
+        <v>1415200</v>
+      </c>
+      <c r="D85">
+        <v>44600</v>
+      </c>
+      <c r="E85">
+        <v>54708136000</v>
+      </c>
+      <c r="F85">
+        <v>19763013000</v>
+      </c>
+      <c r="G85">
+        <v>688428000</v>
+      </c>
+      <c r="H85">
+        <v>5077000</v>
+      </c>
+      <c r="I85">
+        <v>75159577000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-27T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>4447863431000</v>
+      </c>
+      <c r="L85">
+        <v>303898800</v>
+      </c>
+      <c r="M85">
+        <v>-2202000</v>
+      </c>
+      <c r="N85">
+        <v>-34945123000</v>
+      </c>
+      <c r="O85">
+        <v>11337000</v>
+      </c>
+      <c r="P85">
+        <v>249613591000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1672147800000</v>
+      </c>
+      <c r="B86">
+        <v>2333600</v>
+      </c>
+      <c r="C86">
+        <v>1072800</v>
+      </c>
+      <c r="D86">
+        <v>22900</v>
+      </c>
+      <c r="E86">
+        <v>34615037000</v>
+      </c>
+      <c r="F86">
+        <v>15321618000</v>
+      </c>
+      <c r="G86">
+        <v>250467000</v>
+      </c>
+      <c r="H86">
+        <v>3429300</v>
+      </c>
+      <c r="I86">
+        <v>50187122000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-27T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>4498050553000</v>
+      </c>
+      <c r="L86">
+        <v>307328100</v>
+      </c>
+      <c r="M86">
+        <v>-1260800</v>
+      </c>
+      <c r="N86">
+        <v>-19293419000</v>
+      </c>
+      <c r="O86">
+        <v>10076200</v>
+      </c>
+      <c r="P86">
+        <v>230320172000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1672147920000</v>
+      </c>
+      <c r="B87">
+        <v>2323600</v>
+      </c>
+      <c r="C87">
+        <v>1455500</v>
+      </c>
+      <c r="D87">
+        <v>16600</v>
+      </c>
+      <c r="E87">
+        <v>38854831000</v>
+      </c>
+      <c r="F87">
+        <v>24662330000</v>
+      </c>
+      <c r="G87">
+        <v>249612000</v>
+      </c>
+      <c r="H87">
+        <v>3795700</v>
+      </c>
+      <c r="I87">
+        <v>63766773000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-27T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>4561817326000</v>
+      </c>
+      <c r="L87">
+        <v>311123800</v>
+      </c>
+      <c r="M87">
+        <v>-868100</v>
+      </c>
+      <c r="N87">
+        <v>-14192501000</v>
+      </c>
+      <c r="O87">
+        <v>9208100</v>
+      </c>
+      <c r="P87">
+        <v>216127671000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1672148040000</v>
+      </c>
+      <c r="B88">
+        <v>3838700</v>
+      </c>
+      <c r="C88">
+        <v>891200</v>
+      </c>
+      <c r="D88">
+        <v>31000</v>
+      </c>
+      <c r="E88">
+        <v>57096484000</v>
+      </c>
+      <c r="F88">
+        <v>13866952000</v>
+      </c>
+      <c r="G88">
+        <v>399660000</v>
+      </c>
+      <c r="H88">
+        <v>4760900</v>
+      </c>
+      <c r="I88">
+        <v>71363096000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-27T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>4633180422000</v>
+      </c>
+      <c r="L88">
+        <v>315884700</v>
+      </c>
+      <c r="M88">
+        <v>-2947500</v>
+      </c>
+      <c r="N88">
+        <v>-43229532000</v>
+      </c>
+      <c r="O88">
+        <v>6260600</v>
+      </c>
+      <c r="P88">
+        <v>172898139000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1672148160000</v>
+      </c>
+      <c r="B89">
+        <v>3072500</v>
+      </c>
+      <c r="C89">
+        <v>864100</v>
+      </c>
+      <c r="D89">
+        <v>25400</v>
+      </c>
+      <c r="E89">
+        <v>47528603000</v>
+      </c>
+      <c r="F89">
+        <v>13688415000</v>
+      </c>
+      <c r="G89">
+        <v>286603000</v>
+      </c>
+      <c r="H89">
+        <v>3962000</v>
+      </c>
+      <c r="I89">
+        <v>61503621000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-27T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>4694684043000</v>
+      </c>
+      <c r="L89">
+        <v>319846700</v>
+      </c>
+      <c r="M89">
+        <v>-2208400</v>
+      </c>
+      <c r="N89">
+        <v>-33840188000</v>
+      </c>
+      <c r="O89">
+        <v>4052200</v>
+      </c>
+      <c r="P89">
+        <v>139057951000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1672148280000</v>
+      </c>
+      <c r="B90">
+        <v>2045800</v>
+      </c>
+      <c r="C90">
+        <v>1879300</v>
+      </c>
+      <c r="D90">
+        <v>4300</v>
+      </c>
+      <c r="E90">
+        <v>30157293000</v>
+      </c>
+      <c r="F90">
+        <v>28406062000</v>
+      </c>
+      <c r="G90">
+        <v>82602000</v>
+      </c>
+      <c r="H90">
+        <v>3929400</v>
+      </c>
+      <c r="I90">
+        <v>58645957000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-27T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4753330000000</v>
+      </c>
+      <c r="L90">
+        <v>323776100</v>
+      </c>
+      <c r="M90">
+        <v>-166500</v>
+      </c>
+      <c r="N90">
+        <v>-1751231000</v>
+      </c>
+      <c r="O90">
+        <v>3885700</v>
+      </c>
+      <c r="P90">
+        <v>137306720000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1672148400000</v>
+      </c>
+      <c r="B91">
+        <v>1012800</v>
+      </c>
+      <c r="C91">
+        <v>2690800</v>
+      </c>
+      <c r="D91">
+        <v>11900</v>
+      </c>
+      <c r="E91">
+        <v>14653807000</v>
+      </c>
+      <c r="F91">
+        <v>41913131000</v>
+      </c>
+      <c r="G91">
+        <v>226082000</v>
+      </c>
+      <c r="H91">
+        <v>3715500</v>
+      </c>
+      <c r="I91">
+        <v>56793020000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-27T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4810123020000</v>
+      </c>
+      <c r="L91">
+        <v>327491600</v>
+      </c>
+      <c r="M91">
+        <v>1678000</v>
+      </c>
+      <c r="N91">
+        <v>27259324000</v>
+      </c>
+      <c r="O91">
+        <v>5563700</v>
+      </c>
+      <c r="P91">
+        <v>164566044000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1672148520000</v>
+      </c>
+      <c r="B92">
+        <v>1232400</v>
+      </c>
+      <c r="C92">
+        <v>1978100</v>
+      </c>
+      <c r="D92">
+        <v>8100</v>
+      </c>
+      <c r="E92">
+        <v>23674670000</v>
+      </c>
+      <c r="F92">
+        <v>31535295000</v>
+      </c>
+      <c r="G92">
+        <v>183845000</v>
+      </c>
+      <c r="H92">
+        <v>3218600</v>
+      </c>
+      <c r="I92">
+        <v>55393810000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-27T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>4865516830000</v>
+      </c>
+      <c r="L92">
+        <v>330710200</v>
+      </c>
+      <c r="M92">
+        <v>745700</v>
+      </c>
+      <c r="N92">
+        <v>7860625000</v>
+      </c>
+      <c r="O92">
+        <v>6309400</v>
+      </c>
+      <c r="P92">
+        <v>172426669000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1672148640000</v>
+      </c>
+      <c r="B93">
+        <v>4456300</v>
+      </c>
+      <c r="C93">
+        <v>921600</v>
+      </c>
+      <c r="D93">
+        <v>54100</v>
+      </c>
+      <c r="E93">
+        <v>81794074000</v>
+      </c>
+      <c r="F93">
+        <v>14426124000</v>
+      </c>
+      <c r="G93">
+        <v>1218670000</v>
+      </c>
+      <c r="H93">
+        <v>5432000</v>
+      </c>
+      <c r="I93">
+        <v>97438868000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-27T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4962955698000</v>
+      </c>
+      <c r="L93">
+        <v>336142200</v>
+      </c>
+      <c r="M93">
+        <v>-3534700</v>
+      </c>
+      <c r="N93">
+        <v>-67367950000</v>
+      </c>
+      <c r="O93">
+        <v>2774700</v>
+      </c>
+      <c r="P93">
+        <v>105058719000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1672148760000</v>
+      </c>
+      <c r="B94">
+        <v>4247100</v>
+      </c>
+      <c r="C94">
+        <v>1555800</v>
+      </c>
+      <c r="D94">
+        <v>31900</v>
+      </c>
+      <c r="E94">
+        <v>62651490000</v>
+      </c>
+      <c r="F94">
+        <v>27423783000</v>
+      </c>
+      <c r="G94">
+        <v>556864000</v>
+      </c>
+      <c r="H94">
+        <v>5834800</v>
+      </c>
+      <c r="I94">
+        <v>90632137000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-27T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>5053587835000</v>
+      </c>
+      <c r="L94">
+        <v>341977000</v>
+      </c>
+      <c r="M94">
+        <v>-2691300</v>
+      </c>
+      <c r="N94">
+        <v>-35227707000</v>
+      </c>
+      <c r="O94">
+        <v>83400</v>
+      </c>
+      <c r="P94">
+        <v>69831012000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1672148880000</v>
+      </c>
+      <c r="B95">
+        <v>1890100</v>
+      </c>
+      <c r="C95">
+        <v>1986200</v>
+      </c>
+      <c r="D95">
+        <v>12000</v>
+      </c>
+      <c r="E95">
+        <v>28213332000</v>
+      </c>
+      <c r="F95">
+        <v>33242659000</v>
+      </c>
+      <c r="G95">
+        <v>86948000</v>
+      </c>
+      <c r="H95">
+        <v>3888300</v>
+      </c>
+      <c r="I95">
+        <v>61542939000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-27T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>5115130774000</v>
+      </c>
+      <c r="L95">
+        <v>345865300</v>
+      </c>
+      <c r="M95">
+        <v>96100</v>
+      </c>
+      <c r="N95">
+        <v>5029327000</v>
+      </c>
+      <c r="O95">
+        <v>179500</v>
+      </c>
+      <c r="P95">
+        <v>74860339000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1672149000000</v>
+      </c>
+      <c r="B96">
+        <v>1243800</v>
+      </c>
+      <c r="C96">
+        <v>1494300</v>
+      </c>
+      <c r="D96">
+        <v>4900</v>
+      </c>
+      <c r="E96">
+        <v>23356266000</v>
+      </c>
+      <c r="F96">
+        <v>26199238000</v>
+      </c>
+      <c r="G96">
+        <v>108542000</v>
+      </c>
+      <c r="H96">
+        <v>2743000</v>
+      </c>
+      <c r="I96">
+        <v>49664046000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-27T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>5164794820000</v>
+      </c>
+      <c r="L96">
+        <v>348608300</v>
+      </c>
+      <c r="M96">
+        <v>250500</v>
+      </c>
+      <c r="N96">
+        <v>2842972000</v>
+      </c>
+      <c r="O96">
+        <v>430000</v>
+      </c>
+      <c r="P96">
+        <v>77703311000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1672149120000</v>
+      </c>
+      <c r="B97">
+        <v>1304500</v>
+      </c>
+      <c r="C97">
+        <v>864100</v>
+      </c>
+      <c r="D97">
+        <v>6400</v>
+      </c>
+      <c r="E97">
+        <v>24622975000</v>
+      </c>
+      <c r="F97">
+        <v>16313029000</v>
+      </c>
+      <c r="G97">
+        <v>190270000</v>
+      </c>
+      <c r="H97">
+        <v>2175000</v>
+      </c>
+      <c r="I97">
+        <v>41126274000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-27T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>5205921094000</v>
+      </c>
+      <c r="L97">
+        <v>350783300</v>
+      </c>
+      <c r="M97">
+        <v>-440400</v>
+      </c>
+      <c r="N97">
+        <v>-8309946000</v>
+      </c>
+      <c r="O97">
+        <v>-10400</v>
+      </c>
+      <c r="P97">
+        <v>69393365000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1672149240000</v>
+      </c>
+      <c r="B98">
+        <v>1613600</v>
+      </c>
+      <c r="C98">
+        <v>750500</v>
+      </c>
+      <c r="D98">
+        <v>47100</v>
+      </c>
+      <c r="E98">
+        <v>28629761000</v>
+      </c>
+      <c r="F98">
+        <v>12750768000</v>
+      </c>
+      <c r="G98">
+        <v>722220000</v>
+      </c>
+      <c r="H98">
+        <v>2411200</v>
+      </c>
+      <c r="I98">
+        <v>42102749000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-27T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>5248023843000</v>
+      </c>
+      <c r="L98">
+        <v>353194500</v>
+      </c>
+      <c r="M98">
+        <v>-863100</v>
+      </c>
+      <c r="N98">
+        <v>-15878993000</v>
+      </c>
+      <c r="O98">
+        <v>-873500</v>
+      </c>
+      <c r="P98">
+        <v>53514372000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1672149360000</v>
+      </c>
+      <c r="B99">
+        <v>847000</v>
+      </c>
+      <c r="C99">
+        <v>1440200</v>
+      </c>
+      <c r="D99">
+        <v>14700</v>
+      </c>
+      <c r="E99">
+        <v>12879806000</v>
+      </c>
+      <c r="F99">
+        <v>24384286000</v>
+      </c>
+      <c r="G99">
+        <v>164922000</v>
+      </c>
+      <c r="H99">
+        <v>2301900</v>
+      </c>
+      <c r="I99">
+        <v>37429014000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-27T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>5285452857000</v>
+      </c>
+      <c r="L99">
+        <v>355496400</v>
+      </c>
+      <c r="M99">
+        <v>593200</v>
+      </c>
+      <c r="N99">
+        <v>11504480000</v>
+      </c>
+      <c r="O99">
+        <v>-280300</v>
+      </c>
+      <c r="P99">
+        <v>65018852000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1672149480000</v>
+      </c>
+      <c r="B100">
+        <v>614400</v>
+      </c>
+      <c r="C100">
+        <v>2457600</v>
+      </c>
+      <c r="D100">
+        <v>18500</v>
+      </c>
+      <c r="E100">
+        <v>11954119000</v>
+      </c>
+      <c r="F100">
+        <v>38808137000</v>
+      </c>
+      <c r="G100">
+        <v>450376000</v>
+      </c>
+      <c r="H100">
+        <v>3090500</v>
+      </c>
+      <c r="I100">
+        <v>51212632000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-27T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>5336665489000</v>
+      </c>
+      <c r="L100">
+        <v>358586900</v>
+      </c>
+      <c r="M100">
+        <v>1843200</v>
+      </c>
+      <c r="N100">
+        <v>26854018000</v>
+      </c>
+      <c r="O100">
+        <v>1562900</v>
+      </c>
+      <c r="P100">
+        <v>91872870000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1672149600000</v>
+      </c>
+      <c r="B101">
+        <v>946900</v>
+      </c>
+      <c r="C101">
+        <v>3660200</v>
+      </c>
+      <c r="D101">
+        <v>53100</v>
+      </c>
+      <c r="E101">
+        <v>15168650000</v>
+      </c>
+      <c r="F101">
+        <v>59233459000</v>
+      </c>
+      <c r="G101">
+        <v>847181000</v>
+      </c>
+      <c r="H101">
+        <v>4660200</v>
+      </c>
+      <c r="I101">
+        <v>75249290000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-27T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>5411914779000</v>
+      </c>
+      <c r="L101">
+        <v>363247100</v>
+      </c>
+      <c r="M101">
+        <v>2713300</v>
+      </c>
+      <c r="N101">
+        <v>44064809000</v>
+      </c>
+      <c r="O101">
+        <v>4276200</v>
+      </c>
+      <c r="P101">
+        <v>135937679000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1672149720000</v>
+      </c>
+      <c r="B102">
+        <v>1075700</v>
+      </c>
+      <c r="C102">
+        <v>2974700</v>
+      </c>
+      <c r="D102">
+        <v>6400</v>
+      </c>
+      <c r="E102">
+        <v>17420851000</v>
+      </c>
+      <c r="F102">
+        <v>48788980000</v>
+      </c>
+      <c r="G102">
+        <v>59483000</v>
+      </c>
+      <c r="H102">
+        <v>4056800</v>
+      </c>
+      <c r="I102">
+        <v>66269314000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-27T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>5478184093000</v>
+      </c>
+      <c r="L102">
+        <v>367303900</v>
+      </c>
+      <c r="M102">
+        <v>1899000</v>
+      </c>
+      <c r="N102">
+        <v>31368129000</v>
+      </c>
+      <c r="O102">
+        <v>6175200</v>
+      </c>
+      <c r="P102">
+        <v>167305808000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1672149840000</v>
+      </c>
+      <c r="B103">
+        <v>1112000</v>
+      </c>
+      <c r="C103">
+        <v>1816700</v>
+      </c>
+      <c r="D103">
+        <v>9000</v>
+      </c>
+      <c r="E103">
+        <v>18649111000</v>
+      </c>
+      <c r="F103">
+        <v>30745455000</v>
+      </c>
+      <c r="G103">
+        <v>164710000</v>
+      </c>
+      <c r="H103">
+        <v>2937700</v>
+      </c>
+      <c r="I103">
+        <v>49559276000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-27T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>5527743369000</v>
+      </c>
+      <c r="L103">
+        <v>370241600</v>
+      </c>
+      <c r="M103">
+        <v>704700</v>
+      </c>
+      <c r="N103">
+        <v>12096344000</v>
+      </c>
+      <c r="O103">
+        <v>6879900</v>
+      </c>
+      <c r="P103">
+        <v>179402152000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1672149960000</v>
+      </c>
+      <c r="B104">
+        <v>1004500</v>
+      </c>
+      <c r="C104">
+        <v>1701200</v>
+      </c>
+      <c r="D104">
+        <v>63600</v>
+      </c>
+      <c r="E104">
+        <v>17689360000</v>
+      </c>
+      <c r="F104">
+        <v>29562007000</v>
+      </c>
+      <c r="G104">
+        <v>865304000</v>
+      </c>
+      <c r="H104">
+        <v>2769300</v>
+      </c>
+      <c r="I104">
+        <v>48116671000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-27T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>5575860040000</v>
+      </c>
+      <c r="L104">
+        <v>373010900</v>
+      </c>
+      <c r="M104">
+        <v>696700</v>
+      </c>
+      <c r="N104">
+        <v>11872647000</v>
+      </c>
+      <c r="O104">
+        <v>7576600</v>
+      </c>
+      <c r="P104">
+        <v>191274799000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1672150080000</v>
+      </c>
+      <c r="B105">
+        <v>1919100</v>
+      </c>
+      <c r="C105">
+        <v>1525400</v>
+      </c>
+      <c r="D105">
+        <v>4100</v>
+      </c>
+      <c r="E105">
+        <v>29370674000</v>
+      </c>
+      <c r="F105">
+        <v>25820476000</v>
+      </c>
+      <c r="G105">
+        <v>118905000</v>
+      </c>
+      <c r="H105">
+        <v>3448600</v>
+      </c>
+      <c r="I105">
+        <v>55310055000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-27T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>5631170095000</v>
+      </c>
+      <c r="L105">
+        <v>376459500</v>
+      </c>
+      <c r="M105">
+        <v>-393700</v>
+      </c>
+      <c r="N105">
+        <v>-3550198000</v>
+      </c>
+      <c r="O105">
+        <v>7182900</v>
+      </c>
+      <c r="P105">
+        <v>187724601000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1672150200000</v>
+      </c>
+      <c r="B106">
+        <v>1478500</v>
+      </c>
+      <c r="C106">
+        <v>780600</v>
+      </c>
+      <c r="D106">
+        <v>8500</v>
+      </c>
+      <c r="E106">
+        <v>22515885000</v>
+      </c>
+      <c r="F106">
+        <v>14596566000</v>
+      </c>
+      <c r="G106">
+        <v>302504000</v>
+      </c>
+      <c r="H106">
+        <v>2267600</v>
+      </c>
+      <c r="I106">
+        <v>37414955000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-27T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>5668585050000</v>
+      </c>
+      <c r="L106">
+        <v>378727100</v>
+      </c>
+      <c r="M106">
+        <v>-697900</v>
+      </c>
+      <c r="N106">
+        <v>-7919319000</v>
+      </c>
+      <c r="O106">
+        <v>6485000</v>
+      </c>
+      <c r="P106">
+        <v>179805282000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1672150320000</v>
+      </c>
+      <c r="B107">
+        <v>2283600</v>
+      </c>
+      <c r="C107">
+        <v>1314700</v>
+      </c>
+      <c r="D107">
+        <v>26500</v>
+      </c>
+      <c r="E107">
+        <v>34578079000</v>
+      </c>
+      <c r="F107">
+        <v>23870566000</v>
+      </c>
+      <c r="G107">
+        <v>799689000</v>
+      </c>
+      <c r="H107">
+        <v>3624800</v>
+      </c>
+      <c r="I107">
+        <v>59248334000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-27T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>5727833384000</v>
+      </c>
+      <c r="L107">
+        <v>382351900</v>
+      </c>
+      <c r="M107">
+        <v>-968900</v>
+      </c>
+      <c r="N107">
+        <v>-10707513000</v>
+      </c>
+      <c r="O107">
+        <v>5516100</v>
+      </c>
+      <c r="P107">
+        <v>169097769000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1672150440000</v>
+      </c>
+      <c r="B108">
+        <v>1426000</v>
+      </c>
+      <c r="C108">
+        <v>4804500</v>
+      </c>
+      <c r="D108">
+        <v>34400</v>
+      </c>
+      <c r="E108">
+        <v>23990470000</v>
+      </c>
+      <c r="F108">
+        <v>101600131000</v>
+      </c>
+      <c r="G108">
+        <v>998131000</v>
+      </c>
+      <c r="H108">
+        <v>6264900</v>
+      </c>
+      <c r="I108">
+        <v>126588732000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-27T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>5854422116000</v>
+      </c>
+      <c r="L108">
+        <v>388616800</v>
+      </c>
+      <c r="M108">
+        <v>3378500</v>
+      </c>
+      <c r="N108">
+        <v>77609661000</v>
+      </c>
+      <c r="O108">
+        <v>8894600</v>
+      </c>
+      <c r="P108">
+        <v>246707430000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1672150560000</v>
+      </c>
+      <c r="B109">
+        <v>729400</v>
+      </c>
+      <c r="C109">
+        <v>5064000</v>
+      </c>
+      <c r="D109">
+        <v>24100</v>
+      </c>
+      <c r="E109">
+        <v>11931897000</v>
+      </c>
+      <c r="F109">
+        <v>78981350000</v>
+      </c>
+      <c r="G109">
+        <v>421805000</v>
+      </c>
+      <c r="H109">
+        <v>5817500</v>
+      </c>
+      <c r="I109">
+        <v>91335052000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-27T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>5945757168000</v>
+      </c>
+      <c r="L109">
+        <v>394434300</v>
+      </c>
+      <c r="M109">
+        <v>4334600</v>
+      </c>
+      <c r="N109">
+        <v>67049453000</v>
+      </c>
+      <c r="O109">
+        <v>13229200</v>
+      </c>
+      <c r="P109">
+        <v>313756883000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1672150680000</v>
+      </c>
+      <c r="B110">
+        <v>1545600</v>
+      </c>
+      <c r="C110">
+        <v>6073000</v>
+      </c>
+      <c r="D110">
+        <v>63200</v>
+      </c>
+      <c r="E110">
+        <v>24895188000</v>
+      </c>
+      <c r="F110">
+        <v>112864817000</v>
+      </c>
+      <c r="G110">
+        <v>543305000</v>
+      </c>
+      <c r="H110">
+        <v>7681800</v>
+      </c>
+      <c r="I110">
+        <v>138303310000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-27T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>6084060478000</v>
+      </c>
+      <c r="L110">
+        <v>402116100</v>
+      </c>
+      <c r="M110">
+        <v>4527400</v>
+      </c>
+      <c r="N110">
+        <v>87969629000</v>
+      </c>
+      <c r="O110">
+        <v>17756600</v>
+      </c>
+      <c r="P110">
+        <v>401726512000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1672150800000</v>
+      </c>
+      <c r="B111">
+        <v>1813600</v>
+      </c>
+      <c r="C111">
+        <v>5581700</v>
+      </c>
+      <c r="D111">
+        <v>22000</v>
+      </c>
+      <c r="E111">
+        <v>33955075000</v>
+      </c>
+      <c r="F111">
+        <v>106200919000</v>
+      </c>
+      <c r="G111">
+        <v>252637000</v>
+      </c>
+      <c r="H111">
+        <v>7417300</v>
+      </c>
+      <c r="I111">
+        <v>140408631000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-27T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>6224469109000</v>
+      </c>
+      <c r="L111">
+        <v>409533400</v>
+      </c>
+      <c r="M111">
+        <v>3768100</v>
+      </c>
+      <c r="N111">
+        <v>72245844000</v>
+      </c>
+      <c r="O111">
+        <v>21524700</v>
+      </c>
+      <c r="P111">
+        <v>473972356000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1672150920000</v>
+      </c>
+      <c r="B112">
+        <v>1849200</v>
+      </c>
+      <c r="C112">
+        <v>6406900</v>
+      </c>
+      <c r="D112">
+        <v>21900</v>
+      </c>
+      <c r="E112">
+        <v>35138358000</v>
+      </c>
+      <c r="F112">
+        <v>107434507000</v>
+      </c>
+      <c r="G112">
+        <v>209037000</v>
+      </c>
+      <c r="H112">
+        <v>8278000</v>
+      </c>
+      <c r="I112">
+        <v>142781902000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-27T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>6367251011000</v>
+      </c>
+      <c r="L112">
+        <v>417811400</v>
+      </c>
+      <c r="M112">
+        <v>4557700</v>
+      </c>
+      <c r="N112">
+        <v>72296149000</v>
+      </c>
+      <c r="O112">
+        <v>26082400</v>
+      </c>
+      <c r="P112">
+        <v>546268505000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1672151040000</v>
+      </c>
+      <c r="B113">
+        <v>1757200</v>
+      </c>
+      <c r="C113">
+        <v>9302400</v>
+      </c>
+      <c r="D113">
+        <v>23600</v>
+      </c>
+      <c r="E113">
+        <v>29377292000</v>
+      </c>
+      <c r="F113">
+        <v>150712498000</v>
+      </c>
+      <c r="G113">
+        <v>432609000</v>
+      </c>
+      <c r="H113">
+        <v>11083200</v>
+      </c>
+      <c r="I113">
+        <v>180522399000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-27T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>6547773410000</v>
+      </c>
+      <c r="L113">
+        <v>428894600</v>
+      </c>
+      <c r="M113">
+        <v>7545200</v>
+      </c>
+      <c r="N113">
+        <v>121335206000</v>
+      </c>
+      <c r="O113">
+        <v>33627600</v>
+      </c>
+      <c r="P113">
+        <v>667603711000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1672151160000</v>
+      </c>
+      <c r="B114">
+        <v>3060200</v>
+      </c>
+      <c r="C114">
+        <v>10084100</v>
+      </c>
+      <c r="D114">
+        <v>45400</v>
+      </c>
+      <c r="E114">
+        <v>54266014000</v>
+      </c>
+      <c r="F114">
+        <v>163822765000</v>
+      </c>
+      <c r="G114">
+        <v>1277157000</v>
+      </c>
+      <c r="H114">
+        <v>13189700</v>
+      </c>
+      <c r="I114">
+        <v>219365936000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-27T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>6767139346000</v>
+      </c>
+      <c r="L114">
+        <v>442084300</v>
+      </c>
+      <c r="M114">
+        <v>7023900</v>
+      </c>
+      <c r="N114">
+        <v>109556751000</v>
+      </c>
+      <c r="O114">
+        <v>40651500</v>
+      </c>
+      <c r="P114">
+        <v>777160462000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1672151280000</v>
+      </c>
+      <c r="B115">
+        <v>3864600</v>
+      </c>
+      <c r="C115">
+        <v>5816900</v>
+      </c>
+      <c r="D115">
+        <v>59600</v>
+      </c>
+      <c r="E115">
+        <v>63321605000</v>
+      </c>
+      <c r="F115">
+        <v>93589889000</v>
+      </c>
+      <c r="G115">
+        <v>1093142000</v>
+      </c>
+      <c r="H115">
+        <v>9741100</v>
+      </c>
+      <c r="I115">
+        <v>158004636000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-27T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>6925143982000</v>
+      </c>
+      <c r="L115">
+        <v>451825400</v>
+      </c>
+      <c r="M115">
+        <v>1952300</v>
+      </c>
+      <c r="N115">
+        <v>30268284000</v>
+      </c>
+      <c r="O115">
+        <v>42603800</v>
+      </c>
+      <c r="P115">
+        <v>807428746000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1672151400000</v>
+      </c>
+      <c r="B116">
+        <v>5900</v>
+      </c>
+      <c r="C116">
+        <v>406700</v>
+      </c>
+      <c r="D116">
+        <v>20600</v>
+      </c>
+      <c r="E116">
+        <v>86585000</v>
+      </c>
+      <c r="F116">
+        <v>9288080000</v>
+      </c>
+      <c r="G116">
+        <v>208060000</v>
+      </c>
+      <c r="H116">
+        <v>433200</v>
+      </c>
+      <c r="I116">
+        <v>9582725000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-27T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>6934726707000</v>
+      </c>
+      <c r="L116">
+        <v>452258600</v>
+      </c>
+      <c r="M116">
+        <v>400800</v>
+      </c>
+      <c r="N116">
+        <v>9201495000</v>
+      </c>
+      <c r="O116">
+        <v>43004600</v>
+      </c>
+      <c r="P116">
+        <v>816630241000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1672151880000</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>10000</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>102000000</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>10000</v>
+      </c>
+      <c r="I117">
+        <v>102000000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-27T14:38:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>6934828707000</v>
+      </c>
+      <c r="L117">
+        <v>452268600</v>
+      </c>
+      <c r="M117">
+        <v>10000</v>
+      </c>
+      <c r="N117">
+        <v>102000000</v>
+      </c>
+      <c r="O117">
+        <v>43014600</v>
+      </c>
+      <c r="P117">
+        <v>816732241000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1672152240000</v>
+      </c>
+      <c r="B118">
+        <v>4239000</v>
+      </c>
+      <c r="C118">
+        <v>6412300</v>
+      </c>
+      <c r="D118">
+        <v>18000000</v>
+      </c>
+      <c r="E118">
+        <v>125868958000</v>
+      </c>
+      <c r="F118">
+        <v>96016080000</v>
+      </c>
+      <c r="G118">
+        <v>351058959000</v>
+      </c>
+      <c r="H118">
+        <v>28651300</v>
+      </c>
+      <c r="I118">
+        <v>572943997000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-27T14:44:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>7507772704000</v>
+      </c>
+      <c r="L118">
+        <v>480919900</v>
+      </c>
+      <c r="M118">
+        <v>2173300</v>
+      </c>
+      <c r="N118">
+        <v>-29852878000</v>
+      </c>
+      <c r="O118">
+        <v>45187900</v>
+      </c>
+      <c r="P118">
+        <v>786879363000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1672153080000</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
         <v>5000</v>
       </c>
-      <c r="E51">
+      <c r="E119">
         <v>0</v>
       </c>
-      <c r="F51">
+      <c r="F119">
         <v>0</v>
       </c>
-      <c r="G51">
+      <c r="G119">
         <v>50000000</v>
       </c>
-      <c r="H51">
+      <c r="H119">
         <v>5000</v>
       </c>
-      <c r="I51">
+      <c r="I119">
         <v>50000000</v>
       </c>
-      <c r="J51" t="str">
-        <v>2022-12-27T14:55:00.000Z</v>
-      </c>
-      <c r="K51">
+      <c r="J119" t="str">
+        <v>2022-12-27T14:58:00.000Z</v>
+      </c>
+      <c r="K119">
         <v>7507822704000</v>
       </c>
-      <c r="L51">
+      <c r="L119">
         <v>480924900</v>
       </c>
-      <c r="M51">
+      <c r="M119">
         <v>0</v>
       </c>
-      <c r="N51">
+      <c r="N119">
         <v>0</v>
       </c>
-      <c r="O51">
+      <c r="O119">
         <v>45187900</v>
       </c>
-      <c r="P51">
+      <c r="P119">
         <v>786879363000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P119"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221227/VNINDEX_HOSE_5p_20221227.xlsx
+++ b/name/vnindex/20221227/VNINDEX_HOSE_5p_20221227.xlsx
@@ -466,25 +466,25 @@
         <v>4696900</v>
       </c>
       <c r="E2">
-        <v>60467348000</v>
+        <v>48366161300</v>
       </c>
       <c r="F2">
-        <v>33181089000</v>
+        <v>30710262300</v>
       </c>
       <c r="G2">
-        <v>57527116000</v>
+        <v>38556905200</v>
       </c>
       <c r="H2">
         <v>11031800</v>
       </c>
       <c r="I2">
-        <v>151175553000</v>
+        <v>117633328800</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-27T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>151175553000</v>
+        <v>117633328800</v>
       </c>
       <c r="L2">
         <v>11031800</v>
@@ -493,13 +493,13 @@
         <v>-2063300</v>
       </c>
       <c r="N2">
-        <v>-27286259000</v>
+        <v>-17655899000</v>
       </c>
       <c r="O2">
         <v>-2063300</v>
       </c>
       <c r="P2">
-        <v>-27286259000</v>
+        <v>-17655899000</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>65300</v>
       </c>
       <c r="E3">
-        <v>27391748000</v>
+        <v>25237204700</v>
       </c>
       <c r="F3">
-        <v>60996868000</v>
+        <v>55302568000</v>
       </c>
       <c r="G3">
-        <v>989340000</v>
+        <v>688840800</v>
       </c>
       <c r="H3">
         <v>6425900</v>
       </c>
       <c r="I3">
-        <v>89377956000</v>
+        <v>81228613500</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-27T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>240553509000</v>
+        <v>198861942300</v>
       </c>
       <c r="L3">
         <v>17457700</v>
@@ -543,13 +543,13 @@
         <v>2476000</v>
       </c>
       <c r="N3">
-        <v>33605120000</v>
+        <v>30065363300</v>
       </c>
       <c r="O3">
         <v>412700</v>
       </c>
       <c r="P3">
-        <v>6318861000</v>
+        <v>12409464300</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>17200</v>
       </c>
       <c r="E4">
-        <v>30995682000</v>
+        <v>28402078200</v>
       </c>
       <c r="F4">
-        <v>39128123000</v>
+        <v>36844409000</v>
       </c>
       <c r="G4">
-        <v>197077000</v>
+        <v>177097000</v>
       </c>
       <c r="H4">
         <v>4939900</v>
       </c>
       <c r="I4">
-        <v>70320882000</v>
+        <v>65423584200</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-27T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>310874391000</v>
+        <v>264285526500</v>
       </c>
       <c r="L4">
         <v>22397600</v>
@@ -593,13 +593,13 @@
         <v>596500</v>
       </c>
       <c r="N4">
-        <v>8132441000</v>
+        <v>8442330800</v>
       </c>
       <c r="O4">
         <v>1009200</v>
       </c>
       <c r="P4">
-        <v>14451302000</v>
+        <v>20851795100</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>24100</v>
       </c>
       <c r="E5">
-        <v>55146725000</v>
+        <v>51169805900</v>
       </c>
       <c r="F5">
-        <v>36232486000</v>
+        <v>34417203100</v>
       </c>
       <c r="G5">
-        <v>329381000</v>
+        <v>327183200</v>
       </c>
       <c r="H5">
         <v>7066600</v>
       </c>
       <c r="I5">
-        <v>91708592000</v>
+        <v>85914192200</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-27T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>402582983000</v>
+        <v>350199718700</v>
       </c>
       <c r="L5">
         <v>29464200</v>
@@ -643,13 +643,13 @@
         <v>-1562900</v>
       </c>
       <c r="N5">
-        <v>-18914239000</v>
+        <v>-16752602800</v>
       </c>
       <c r="O5">
         <v>-553700</v>
       </c>
       <c r="P5">
-        <v>-4462937000</v>
+        <v>4099192300</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>119500</v>
       </c>
       <c r="E6">
-        <v>68812657000</v>
+        <v>59406172900</v>
       </c>
       <c r="F6">
-        <v>21668123000</v>
+        <v>19810882100</v>
       </c>
       <c r="G6">
-        <v>1613572000</v>
+        <v>1612173400</v>
       </c>
       <c r="H6">
         <v>6460700</v>
       </c>
       <c r="I6">
-        <v>92094352000</v>
+        <v>80829228400</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-27T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>494677335000</v>
+        <v>431028947100</v>
       </c>
       <c r="L6">
         <v>35924900</v>
@@ -693,13 +693,13 @@
         <v>-3496800</v>
       </c>
       <c r="N6">
-        <v>-47144534000</v>
+        <v>-39595290800</v>
       </c>
       <c r="O6">
         <v>-4050500</v>
       </c>
       <c r="P6">
-        <v>-51607471000</v>
+        <v>-35496098500</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>9600</v>
       </c>
       <c r="E7">
-        <v>52491675000</v>
+        <v>48200070900</v>
       </c>
       <c r="F7">
-        <v>20757586000</v>
+        <v>18601044700</v>
       </c>
       <c r="G7">
         <v>121127000</v>
@@ -728,13 +728,13 @@
         <v>5322300</v>
       </c>
       <c r="I7">
-        <v>73370388000</v>
+        <v>66922242600</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-27T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>568047723000</v>
+        <v>497951189700</v>
       </c>
       <c r="L7">
         <v>41247200</v>
@@ -743,13 +743,13 @@
         <v>-2417700</v>
       </c>
       <c r="N7">
-        <v>-31734089000</v>
+        <v>-29599026200</v>
       </c>
       <c r="O7">
         <v>-6468200</v>
       </c>
       <c r="P7">
-        <v>-83341560000</v>
+        <v>-65095124700</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>77900</v>
       </c>
       <c r="E8">
-        <v>70442448000</v>
+        <v>65715779400</v>
       </c>
       <c r="F8">
-        <v>29550400000</v>
+        <v>28115935900</v>
       </c>
       <c r="G8">
         <v>643733000</v>
@@ -778,13 +778,13 @@
         <v>7360500</v>
       </c>
       <c r="I8">
-        <v>100636581000</v>
+        <v>94475448300</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-27T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>668684304000</v>
+        <v>592426638000</v>
       </c>
       <c r="L8">
         <v>48607700</v>
@@ -793,13 +793,13 @@
         <v>-3576800</v>
       </c>
       <c r="N8">
-        <v>-40892048000</v>
+        <v>-37599843500</v>
       </c>
       <c r="O8">
         <v>-10045000</v>
       </c>
       <c r="P8">
-        <v>-124233608000</v>
+        <v>-102694968200</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>5900</v>
       </c>
       <c r="E9">
-        <v>32687622000</v>
+        <v>29276436600</v>
       </c>
       <c r="F9">
-        <v>50444462000</v>
+        <v>45718592600</v>
       </c>
       <c r="G9">
-        <v>141192000</v>
+        <v>104029200</v>
       </c>
       <c r="H9">
         <v>6429600</v>
       </c>
       <c r="I9">
-        <v>83273276000</v>
+        <v>75099058400</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-27T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>751957580000</v>
+        <v>667525696400</v>
       </c>
       <c r="L9">
         <v>55037300</v>
@@ -843,13 +843,13 @@
         <v>589500</v>
       </c>
       <c r="N9">
-        <v>17756840000</v>
+        <v>16442156000</v>
       </c>
       <c r="O9">
         <v>-9455500</v>
       </c>
       <c r="P9">
-        <v>-106476768000</v>
+        <v>-86252812200</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>13800</v>
       </c>
       <c r="E10">
-        <v>19605250000</v>
+        <v>18168288400</v>
       </c>
       <c r="F10">
-        <v>33351116000</v>
+        <v>31502966000</v>
       </c>
       <c r="G10">
-        <v>179754000</v>
+        <v>169264500</v>
       </c>
       <c r="H10">
         <v>3679800</v>
       </c>
       <c r="I10">
-        <v>53136120000</v>
+        <v>49840518900</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-27T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>805093700000</v>
+        <v>717366215300</v>
       </c>
       <c r="L10">
         <v>58717100</v>
@@ -893,13 +893,13 @@
         <v>760800</v>
       </c>
       <c r="N10">
-        <v>13745866000</v>
+        <v>13334677600</v>
       </c>
       <c r="O10">
         <v>-8694700</v>
       </c>
       <c r="P10">
-        <v>-92730902000</v>
+        <v>-72918134600</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>61100</v>
       </c>
       <c r="E11">
-        <v>15516861000</v>
+        <v>13681398300</v>
       </c>
       <c r="F11">
-        <v>32668756000</v>
+        <v>31823302300</v>
       </c>
       <c r="G11">
-        <v>842237000</v>
+        <v>815863400</v>
       </c>
       <c r="H11">
         <v>3340500</v>
       </c>
       <c r="I11">
-        <v>49027854000</v>
+        <v>46320564000</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-27T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>854121554000</v>
+        <v>763686779300</v>
       </c>
       <c r="L11">
         <v>62057600</v>
@@ -943,13 +943,13 @@
         <v>1033200</v>
       </c>
       <c r="N11">
-        <v>17151895000</v>
+        <v>18141904000</v>
       </c>
       <c r="O11">
         <v>-7661500</v>
       </c>
       <c r="P11">
-        <v>-75579007000</v>
+        <v>-54776230600</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>25700</v>
       </c>
       <c r="E12">
-        <v>16277610000</v>
+        <v>15376911600</v>
       </c>
       <c r="F12">
-        <v>21189381000</v>
+        <v>20526944100</v>
       </c>
       <c r="G12">
         <v>631601000</v>
@@ -978,13 +978,13 @@
         <v>2564900</v>
       </c>
       <c r="I12">
-        <v>38098592000</v>
+        <v>36535456700</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-27T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>892220146000</v>
+        <v>800222236000</v>
       </c>
       <c r="L12">
         <v>64622500</v>
@@ -993,13 +993,13 @@
         <v>193800</v>
       </c>
       <c r="N12">
-        <v>4911771000</v>
+        <v>5150032500</v>
       </c>
       <c r="O12">
         <v>-7467700</v>
       </c>
       <c r="P12">
-        <v>-70667236000</v>
+        <v>-49626198100</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>3000</v>
       </c>
       <c r="E13">
-        <v>25473040000</v>
+        <v>23768746000</v>
       </c>
       <c r="F13">
-        <v>17637315000</v>
+        <v>16132321500</v>
       </c>
       <c r="G13">
-        <v>70165000</v>
+        <v>5829400</v>
       </c>
       <c r="H13">
         <v>3471100</v>
       </c>
       <c r="I13">
-        <v>43180520000</v>
+        <v>39906896900</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-27T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>935400666000</v>
+        <v>840129132900</v>
       </c>
       <c r="L13">
         <v>68093600</v>
@@ -1043,13 +1043,13 @@
         <v>-766500</v>
       </c>
       <c r="N13">
-        <v>-7835725000</v>
+        <v>-7636424500</v>
       </c>
       <c r="O13">
         <v>-8234200</v>
       </c>
       <c r="P13">
-        <v>-78502961000</v>
+        <v>-57262622600</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>9900</v>
       </c>
       <c r="E14">
-        <v>18704574000</v>
+        <v>18013665600</v>
       </c>
       <c r="F14">
-        <v>10065573000</v>
+        <v>9624314700</v>
       </c>
       <c r="G14">
-        <v>96950000</v>
+        <v>94952000</v>
       </c>
       <c r="H14">
         <v>2375500</v>
       </c>
       <c r="I14">
-        <v>28867097000</v>
+        <v>27732932300</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-27T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>964267763000</v>
+        <v>867862065200</v>
       </c>
       <c r="L14">
         <v>70469100</v>
@@ -1093,13 +1093,13 @@
         <v>-933000</v>
       </c>
       <c r="N14">
-        <v>-8639001000</v>
+        <v>-8389350900</v>
       </c>
       <c r="O14">
         <v>-9167200</v>
       </c>
       <c r="P14">
-        <v>-87141962000</v>
+        <v>-65651973500</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>17000</v>
       </c>
       <c r="E15">
-        <v>23493626000</v>
+        <v>22801219100</v>
       </c>
       <c r="F15">
-        <v>10549523000</v>
+        <v>10386486200</v>
       </c>
       <c r="G15">
         <v>390532000</v>
@@ -1128,13 +1128,13 @@
         <v>2510000</v>
       </c>
       <c r="I15">
-        <v>34433681000</v>
+        <v>33578237300</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-27T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>998701444000</v>
+        <v>901440302500</v>
       </c>
       <c r="L15">
         <v>72979100</v>
@@ -1143,13 +1143,13 @@
         <v>-1119600</v>
       </c>
       <c r="N15">
-        <v>-12944103000</v>
+        <v>-12414732900</v>
       </c>
       <c r="O15">
         <v>-10286800</v>
       </c>
       <c r="P15">
-        <v>-100086065000</v>
+        <v>-78066706400</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>5900</v>
       </c>
       <c r="E16">
-        <v>30103176000</v>
+        <v>26564917800</v>
       </c>
       <c r="F16">
-        <v>14829320000</v>
+        <v>13963586600</v>
       </c>
       <c r="G16">
-        <v>70600000</v>
+        <v>45625000</v>
       </c>
       <c r="H16">
         <v>3313800</v>
       </c>
       <c r="I16">
-        <v>45003096000</v>
+        <v>40574129400</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-27T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1043704540000</v>
+        <v>942014431900</v>
       </c>
       <c r="L16">
         <v>76292900</v>
@@ -1193,13 +1193,13 @@
         <v>-1526900</v>
       </c>
       <c r="N16">
-        <v>-15273856000</v>
+        <v>-12601331200</v>
       </c>
       <c r="O16">
         <v>-11813700</v>
       </c>
       <c r="P16">
-        <v>-115359921000</v>
+        <v>-90668037600</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>24200</v>
       </c>
       <c r="E17">
-        <v>33511311000</v>
+        <v>31786737300</v>
       </c>
       <c r="F17">
-        <v>13625571000</v>
+        <v>12885911400</v>
       </c>
       <c r="G17">
         <v>361664000</v>
@@ -1228,13 +1228,13 @@
         <v>2770800</v>
       </c>
       <c r="I17">
-        <v>47498546000</v>
+        <v>45034312700</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-27T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1091203086000</v>
+        <v>987048744600</v>
       </c>
       <c r="L17">
         <v>79063700</v>
@@ -1243,13 +1243,13 @@
         <v>-1236000</v>
       </c>
       <c r="N17">
-        <v>-19885740000</v>
+        <v>-18900825900</v>
       </c>
       <c r="O17">
         <v>-13049700</v>
       </c>
       <c r="P17">
-        <v>-135245661000</v>
+        <v>-109568863500</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>44000</v>
       </c>
       <c r="E18">
-        <v>19771748000</v>
+        <v>17925196400</v>
       </c>
       <c r="F18">
-        <v>20131539000</v>
+        <v>17980592100</v>
       </c>
       <c r="G18">
         <v>924226000</v>
@@ -1278,13 +1278,13 @@
         <v>2511400</v>
       </c>
       <c r="I18">
-        <v>40827513000</v>
+        <v>36830014500</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-27T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1132030599000</v>
+        <v>1023878759100</v>
       </c>
       <c r="L18">
         <v>81575100</v>
@@ -1293,13 +1293,13 @@
         <v>-34000</v>
       </c>
       <c r="N18">
-        <v>359791000</v>
+        <v>55395700</v>
       </c>
       <c r="O18">
         <v>-13083700</v>
       </c>
       <c r="P18">
-        <v>-134885870000</v>
+        <v>-109513467800</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>4700</v>
       </c>
       <c r="E19">
-        <v>10864798000</v>
+        <v>10684578400</v>
       </c>
       <c r="F19">
-        <v>24859195000</v>
+        <v>23225530300</v>
       </c>
       <c r="G19">
         <v>110488000</v>
@@ -1328,13 +1328,13 @@
         <v>2657700</v>
       </c>
       <c r="I19">
-        <v>35834481000</v>
+        <v>34020596700</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-27T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1167865080000</v>
+        <v>1057899355800</v>
       </c>
       <c r="L19">
         <v>84232800</v>
@@ -1343,13 +1343,13 @@
         <v>1125800</v>
       </c>
       <c r="N19">
-        <v>13994397000</v>
+        <v>12540951900</v>
       </c>
       <c r="O19">
         <v>-11957900</v>
       </c>
       <c r="P19">
-        <v>-120891473000</v>
+        <v>-96972515900</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>40100</v>
       </c>
       <c r="E20">
-        <v>12711724000</v>
+        <v>12648787000</v>
       </c>
       <c r="F20">
-        <v>21329636000</v>
+        <v>19869797300</v>
       </c>
       <c r="G20">
         <v>311529000</v>
@@ -1378,13 +1378,13 @@
         <v>2305000</v>
       </c>
       <c r="I20">
-        <v>34352889000</v>
+        <v>32830113300</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-27T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1202217969000</v>
+        <v>1090729469100</v>
       </c>
       <c r="L20">
         <v>86537800</v>
@@ -1393,13 +1393,13 @@
         <v>454100</v>
       </c>
       <c r="N20">
-        <v>8617912000</v>
+        <v>7221010300</v>
       </c>
       <c r="O20">
         <v>-11503800</v>
       </c>
       <c r="P20">
-        <v>-112273561000</v>
+        <v>-89751505600</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>8500</v>
       </c>
       <c r="E21">
-        <v>15816748000</v>
+        <v>15282283000</v>
       </c>
       <c r="F21">
-        <v>12352832000</v>
+        <v>11759525900</v>
       </c>
       <c r="G21">
         <v>86309000</v>
@@ -1428,13 +1428,13 @@
         <v>1829400</v>
       </c>
       <c r="I21">
-        <v>28255889000</v>
+        <v>27128117900</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-27T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1230473858000</v>
+        <v>1117857587000</v>
       </c>
       <c r="L21">
         <v>88367200</v>
@@ -1443,13 +1443,13 @@
         <v>-187700</v>
       </c>
       <c r="N21">
-        <v>-3463916000</v>
+        <v>-3522757100</v>
       </c>
       <c r="O21">
         <v>-11691500</v>
       </c>
       <c r="P21">
-        <v>-115737477000</v>
+        <v>-93274262700</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>24100</v>
       </c>
       <c r="E22">
-        <v>16060321000</v>
+        <v>15444837100</v>
       </c>
       <c r="F22">
-        <v>10919151000</v>
+        <v>10510859700</v>
       </c>
       <c r="G22">
-        <v>548800000</v>
+        <v>543005800</v>
       </c>
       <c r="H22">
         <v>1830600</v>
       </c>
       <c r="I22">
-        <v>27528272000</v>
+        <v>26498702600</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-27T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1258002130000</v>
+        <v>1144356289600</v>
       </c>
       <c r="L22">
         <v>90197800</v>
@@ -1493,13 +1493,13 @@
         <v>-471900</v>
       </c>
       <c r="N22">
-        <v>-5141170000</v>
+        <v>-4933977400</v>
       </c>
       <c r="O22">
         <v>-12163400</v>
       </c>
       <c r="P22">
-        <v>-120878647000</v>
+        <v>-98208240100</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>10000</v>
       </c>
       <c r="E23">
-        <v>11587959000</v>
+        <v>8316533700</v>
       </c>
       <c r="F23">
-        <v>36185586000</v>
+        <v>34024948800</v>
       </c>
       <c r="G23">
         <v>115199000</v>
@@ -1528,13 +1528,13 @@
         <v>2724000</v>
       </c>
       <c r="I23">
-        <v>47888744000</v>
+        <v>42456681500</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-27T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1305890874000</v>
+        <v>1186812971100</v>
       </c>
       <c r="L23">
         <v>92921800</v>
@@ -1543,13 +1543,13 @@
         <v>1115400</v>
       </c>
       <c r="N23">
-        <v>24597627000</v>
+        <v>25708415100</v>
       </c>
       <c r="O23">
         <v>-11048000</v>
       </c>
       <c r="P23">
-        <v>-96281020000</v>
+        <v>-72499825000</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>68200</v>
       </c>
       <c r="E24">
-        <v>10050240000</v>
+        <v>9354936000</v>
       </c>
       <c r="F24">
-        <v>24818014000</v>
+        <v>24218414200</v>
       </c>
       <c r="G24">
-        <v>1004706000</v>
+        <v>945265500</v>
       </c>
       <c r="H24">
         <v>2658700</v>
       </c>
       <c r="I24">
-        <v>35872960000</v>
+        <v>34518615700</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-27T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1341763834000</v>
+        <v>1221331586800</v>
       </c>
       <c r="L24">
         <v>95580500</v>
@@ -1593,13 +1593,13 @@
         <v>1188500</v>
       </c>
       <c r="N24">
-        <v>14767774000</v>
+        <v>14863478200</v>
       </c>
       <c r="O24">
         <v>-9859500</v>
       </c>
       <c r="P24">
-        <v>-81513246000</v>
+        <v>-57636346800</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>27000</v>
       </c>
       <c r="E25">
-        <v>9744350000</v>
+        <v>9634360100</v>
       </c>
       <c r="F25">
-        <v>36812303000</v>
+        <v>36416599100</v>
       </c>
       <c r="G25">
         <v>494988000</v>
@@ -1628,13 +1628,13 @@
         <v>3149800</v>
       </c>
       <c r="I25">
-        <v>47051641000</v>
+        <v>46545947200</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-27T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1388815475000</v>
+        <v>1267877534000</v>
       </c>
       <c r="L25">
         <v>98730300</v>
@@ -1643,13 +1643,13 @@
         <v>1792000</v>
       </c>
       <c r="N25">
-        <v>27067953000</v>
+        <v>26782239000</v>
       </c>
       <c r="O25">
         <v>-8067500</v>
       </c>
       <c r="P25">
-        <v>-54445293000</v>
+        <v>-30854107800</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>87900</v>
       </c>
       <c r="E26">
-        <v>15792625000</v>
+        <v>15659358400</v>
       </c>
       <c r="F26">
-        <v>50979659000</v>
+        <v>49379161100</v>
       </c>
       <c r="G26">
         <v>778236000</v>
@@ -1678,13 +1678,13 @@
         <v>4555100</v>
       </c>
       <c r="I26">
-        <v>67550520000</v>
+        <v>65816755500</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-27T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1456365995000</v>
+        <v>1333694289500</v>
       </c>
       <c r="L26">
         <v>103285400</v>
@@ -1693,13 +1693,13 @@
         <v>2300600</v>
       </c>
       <c r="N26">
-        <v>35187034000</v>
+        <v>33719802700</v>
       </c>
       <c r="O26">
         <v>-5766900</v>
       </c>
       <c r="P26">
-        <v>-19258259000</v>
+        <v>2865694900</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>7100</v>
       </c>
       <c r="E27">
-        <v>12789402000</v>
+        <v>12280311600</v>
       </c>
       <c r="F27">
-        <v>57518701000</v>
+        <v>53559863800</v>
       </c>
       <c r="G27">
         <v>61818000</v>
@@ -1728,13 +1728,13 @@
         <v>4870400</v>
       </c>
       <c r="I27">
-        <v>70369921000</v>
+        <v>65901993400</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-27T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1526735916000</v>
+        <v>1399596282900</v>
       </c>
       <c r="L27">
         <v>108155800</v>
@@ -1743,13 +1743,13 @@
         <v>2994300</v>
       </c>
       <c r="N27">
-        <v>44729299000</v>
+        <v>41279552200</v>
       </c>
       <c r="O27">
         <v>-2772600</v>
       </c>
       <c r="P27">
-        <v>25471040000</v>
+        <v>44145247100</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>13800</v>
       </c>
       <c r="E28">
-        <v>14928888000</v>
+        <v>14778938100</v>
       </c>
       <c r="F28">
-        <v>51160554000</v>
+        <v>47466951300</v>
       </c>
       <c r="G28">
         <v>178566000</v>
@@ -1778,13 +1778,13 @@
         <v>4684600</v>
       </c>
       <c r="I28">
-        <v>66268008000</v>
+        <v>62424455400</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-27T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1593003924000</v>
+        <v>1462020738300</v>
       </c>
       <c r="L28">
         <v>112840400</v>
@@ -1793,13 +1793,13 @@
         <v>2625800</v>
       </c>
       <c r="N28">
-        <v>36231666000</v>
+        <v>32688013200</v>
       </c>
       <c r="O28">
         <v>-146800</v>
       </c>
       <c r="P28">
-        <v>61702706000</v>
+        <v>76833260300</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>18500</v>
       </c>
       <c r="E29">
-        <v>14283452000</v>
+        <v>13770565400</v>
       </c>
       <c r="F29">
-        <v>39578237000</v>
+        <v>38503113200</v>
       </c>
       <c r="G29">
         <v>98232000</v>
@@ -1828,13 +1828,13 @@
         <v>3696300</v>
       </c>
       <c r="I29">
-        <v>53959921000</v>
+        <v>52371910600</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-27T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1646963845000</v>
+        <v>1514392648900</v>
       </c>
       <c r="L29">
         <v>116536700</v>
@@ -1843,13 +1843,13 @@
         <v>1735800</v>
       </c>
       <c r="N29">
-        <v>25294785000</v>
+        <v>24732547800</v>
       </c>
       <c r="O29">
         <v>1589000</v>
       </c>
       <c r="P29">
-        <v>86997491000</v>
+        <v>101565808100</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>11100</v>
       </c>
       <c r="E30">
-        <v>32031435000</v>
+        <v>31492074900</v>
       </c>
       <c r="F30">
-        <v>19827173000</v>
+        <v>18755545700</v>
       </c>
       <c r="G30">
         <v>184415000</v>
@@ -1878,13 +1878,13 @@
         <v>3705200</v>
       </c>
       <c r="I30">
-        <v>52043023000</v>
+        <v>50432035600</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-27T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1699006868000</v>
+        <v>1564824684500</v>
       </c>
       <c r="L30">
         <v>120241900</v>
@@ -1893,13 +1893,13 @@
         <v>-1150700</v>
       </c>
       <c r="N30">
-        <v>-12204262000</v>
+        <v>-12736529200</v>
       </c>
       <c r="O30">
         <v>438300</v>
       </c>
       <c r="P30">
-        <v>74793229000</v>
+        <v>88829278900</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>9100</v>
       </c>
       <c r="E31">
-        <v>32194028000</v>
+        <v>31285637300</v>
       </c>
       <c r="F31">
-        <v>18410344000</v>
+        <v>16553502700</v>
       </c>
       <c r="G31">
-        <v>122290000</v>
+        <v>98913400</v>
       </c>
       <c r="H31">
         <v>3439700</v>
       </c>
       <c r="I31">
-        <v>50726662000</v>
+        <v>47938053400</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-27T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1749733530000</v>
+        <v>1612762737900</v>
       </c>
       <c r="L31">
         <v>123681600</v>
@@ -1943,13 +1943,13 @@
         <v>-972200</v>
       </c>
       <c r="N31">
-        <v>-13783684000</v>
+        <v>-14732134600</v>
       </c>
       <c r="O31">
         <v>-533900</v>
       </c>
       <c r="P31">
-        <v>61009545000</v>
+        <v>74097144300</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +1966,25 @@
         <v>6000</v>
       </c>
       <c r="E32">
-        <v>16109647000</v>
+        <v>14312845600</v>
       </c>
       <c r="F32">
-        <v>12827484000</v>
+        <v>12664547100</v>
       </c>
       <c r="G32">
-        <v>35129000</v>
+        <v>31432700</v>
       </c>
       <c r="H32">
         <v>2125000</v>
       </c>
       <c r="I32">
-        <v>28972260000</v>
+        <v>27008825400</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-27T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1778705790000</v>
+        <v>1639771563300</v>
       </c>
       <c r="L32">
         <v>125806600</v>
@@ -1993,13 +1993,13 @@
         <v>-319200</v>
       </c>
       <c r="N32">
-        <v>-3282163000</v>
+        <v>-1648298500</v>
       </c>
       <c r="O32">
         <v>-853100</v>
       </c>
       <c r="P32">
-        <v>57727382000</v>
+        <v>72448845800</v>
       </c>
     </row>
     <row r="33">
@@ -2016,25 +2016,25 @@
         <v>19200</v>
       </c>
       <c r="E33">
-        <v>20564352000</v>
+        <v>20456759700</v>
       </c>
       <c r="F33">
-        <v>9364867000</v>
+        <v>9061870300</v>
       </c>
       <c r="G33">
-        <v>750646000</v>
+        <v>747649000</v>
       </c>
       <c r="H33">
         <v>1989500</v>
       </c>
       <c r="I33">
-        <v>30679865000</v>
+        <v>30266279000</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-27T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1809385655000</v>
+        <v>1670037842300</v>
       </c>
       <c r="L33">
         <v>127796100</v>
@@ -2043,13 +2043,13 @@
         <v>-651100</v>
       </c>
       <c r="N33">
-        <v>-11199485000</v>
+        <v>-11394889400</v>
       </c>
       <c r="O33">
         <v>-1504200</v>
       </c>
       <c r="P33">
-        <v>46527897000</v>
+        <v>61053956400</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>7900</v>
       </c>
       <c r="E34">
-        <v>12910803000</v>
+        <v>12163551000</v>
       </c>
       <c r="F34">
-        <v>8205779000</v>
+        <v>8043841100</v>
       </c>
       <c r="G34">
         <v>141365000</v>
@@ -2078,13 +2078,13 @@
         <v>1520600</v>
       </c>
       <c r="I34">
-        <v>21257947000</v>
+        <v>20348757100</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-27T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1830643602000</v>
+        <v>1690386599400</v>
       </c>
       <c r="L34">
         <v>129316700</v>
@@ -2093,13 +2093,13 @@
         <v>-185700</v>
       </c>
       <c r="N34">
-        <v>-4705024000</v>
+        <v>-4119709900</v>
       </c>
       <c r="O34">
         <v>-1689900</v>
       </c>
       <c r="P34">
-        <v>41822873000</v>
+        <v>56934246500</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>500</v>
       </c>
       <c r="E35">
-        <v>21353073000</v>
+        <v>18541487400</v>
       </c>
       <c r="F35">
-        <v>11793665000</v>
+        <v>11452806200</v>
       </c>
       <c r="G35">
         <v>8775000</v>
@@ -2128,13 +2128,13 @@
         <v>2050500</v>
       </c>
       <c r="I35">
-        <v>33155513000</v>
+        <v>30003068600</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-27T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1863799115000</v>
+        <v>1720389668000</v>
       </c>
       <c r="L35">
         <v>131367200</v>
@@ -2143,13 +2143,13 @@
         <v>-590200</v>
       </c>
       <c r="N35">
-        <v>-9559408000</v>
+        <v>-7088681200</v>
       </c>
       <c r="O35">
         <v>-2280100</v>
       </c>
       <c r="P35">
-        <v>32263465000</v>
+        <v>49845565300</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>2700</v>
       </c>
       <c r="E36">
-        <v>17074689000</v>
+        <v>16766197800</v>
       </c>
       <c r="F36">
-        <v>10488195000</v>
+        <v>10055528100</v>
       </c>
       <c r="G36">
         <v>18909000</v>
@@ -2178,13 +2178,13 @@
         <v>1988600</v>
       </c>
       <c r="I36">
-        <v>27581793000</v>
+        <v>26840634900</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-27T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1891380908000</v>
+        <v>1747230302900</v>
       </c>
       <c r="L36">
         <v>133355800</v>
@@ -2193,13 +2193,13 @@
         <v>-271300</v>
       </c>
       <c r="N36">
-        <v>-6586494000</v>
+        <v>-6710669700</v>
       </c>
       <c r="O36">
         <v>-2551400</v>
       </c>
       <c r="P36">
-        <v>25676971000</v>
+        <v>43134895600</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>4200</v>
       </c>
       <c r="E37">
-        <v>17093397000</v>
+        <v>16709980800</v>
       </c>
       <c r="F37">
-        <v>7802570000</v>
+        <v>7640931800</v>
       </c>
       <c r="G37">
         <v>80793000</v>
@@ -2228,13 +2228,13 @@
         <v>1602200</v>
       </c>
       <c r="I37">
-        <v>24976760000</v>
+        <v>24431705600</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-27T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1916357668000</v>
+        <v>1771662008500</v>
       </c>
       <c r="L37">
         <v>134958000</v>
@@ -2243,13 +2243,13 @@
         <v>-557000</v>
       </c>
       <c r="N37">
-        <v>-9290827000</v>
+        <v>-9069049000</v>
       </c>
       <c r="O37">
         <v>-3108400</v>
       </c>
       <c r="P37">
-        <v>16386144000</v>
+        <v>34065846600</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>26100</v>
       </c>
       <c r="E38">
-        <v>22451170000</v>
+        <v>21809712100</v>
       </c>
       <c r="F38">
-        <v>10394321000</v>
+        <v>9226290200</v>
       </c>
       <c r="G38">
         <v>402528000</v>
@@ -2278,13 +2278,13 @@
         <v>2000400</v>
       </c>
       <c r="I38">
-        <v>33248019000</v>
+        <v>31438530300</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-27T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1949605687000</v>
+        <v>1803100538800</v>
       </c>
       <c r="L38">
         <v>136958400</v>
@@ -2293,13 +2293,13 @@
         <v>-618700</v>
       </c>
       <c r="N38">
-        <v>-12056849000</v>
+        <v>-12583421900</v>
       </c>
       <c r="O38">
         <v>-3727100</v>
       </c>
       <c r="P38">
-        <v>4329295000</v>
+        <v>21482424700</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>12200</v>
       </c>
       <c r="E39">
-        <v>16182215000</v>
+        <v>15630167600</v>
       </c>
       <c r="F39">
-        <v>11250180000</v>
+        <v>10996833600</v>
       </c>
       <c r="G39">
         <v>290425000</v>
@@ -2328,13 +2328,13 @@
         <v>1946100</v>
       </c>
       <c r="I39">
-        <v>27722820000</v>
+        <v>26917426200</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-27T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1977328507000</v>
+        <v>1830017965000</v>
       </c>
       <c r="L39">
         <v>138904500</v>
@@ -2343,13 +2343,13 @@
         <v>-530700</v>
       </c>
       <c r="N39">
-        <v>-4932035000</v>
+        <v>-4633334000</v>
       </c>
       <c r="O39">
         <v>-4257800</v>
       </c>
       <c r="P39">
-        <v>-602740000</v>
+        <v>16849090700</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>13900</v>
       </c>
       <c r="E40">
-        <v>13578099000</v>
+        <v>13498278900</v>
       </c>
       <c r="F40">
-        <v>16903834000</v>
+        <v>16774463500</v>
       </c>
       <c r="G40">
         <v>512542000</v>
@@ -2378,13 +2378,13 @@
         <v>1709000</v>
       </c>
       <c r="I40">
-        <v>30994475000</v>
+        <v>30785284400</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-27T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2008322982000</v>
+        <v>1860803249400</v>
       </c>
       <c r="L40">
         <v>140613500</v>
@@ -2393,13 +2393,13 @@
         <v>219300</v>
       </c>
       <c r="N40">
-        <v>3325735000</v>
+        <v>3276184600</v>
       </c>
       <c r="O40">
         <v>-4038500</v>
       </c>
       <c r="P40">
-        <v>2722995000</v>
+        <v>20125275300</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>4000</v>
       </c>
       <c r="E41">
-        <v>15547802000</v>
+        <v>14332118900</v>
       </c>
       <c r="F41">
-        <v>25019898000</v>
+        <v>23805913200</v>
       </c>
       <c r="G41">
-        <v>131220000</v>
+        <v>115236000</v>
       </c>
       <c r="H41">
         <v>2302900</v>
       </c>
       <c r="I41">
-        <v>40698920000</v>
+        <v>38253268100</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-27T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2049021902000</v>
+        <v>1899056517500</v>
       </c>
       <c r="L41">
         <v>142916400</v>
@@ -2443,13 +2443,13 @@
         <v>570100</v>
       </c>
       <c r="N41">
-        <v>9472096000</v>
+        <v>9473794300</v>
       </c>
       <c r="O41">
         <v>-3468400</v>
       </c>
       <c r="P41">
-        <v>12195091000</v>
+        <v>29599069600</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>1900</v>
       </c>
       <c r="E42">
-        <v>7901712000</v>
+        <v>7726687200</v>
       </c>
       <c r="F42">
-        <v>26113605000</v>
+        <v>25177941600</v>
       </c>
       <c r="G42">
         <v>13260000</v>
@@ -2478,13 +2478,13 @@
         <v>2255200</v>
       </c>
       <c r="I42">
-        <v>34028577000</v>
+        <v>32917888800</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-27T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2083050479000</v>
+        <v>1931974406300</v>
       </c>
       <c r="L42">
         <v>145171600</v>
@@ -2493,13 +2493,13 @@
         <v>977700</v>
       </c>
       <c r="N42">
-        <v>18211893000</v>
+        <v>17451254400</v>
       </c>
       <c r="O42">
         <v>-2490700</v>
       </c>
       <c r="P42">
-        <v>30406984000</v>
+        <v>47050324000</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>23700</v>
       </c>
       <c r="E43">
-        <v>11271376000</v>
+        <v>10936810900</v>
       </c>
       <c r="F43">
-        <v>22496150000</v>
+        <v>21945900800</v>
       </c>
       <c r="G43">
         <v>277983000</v>
@@ -2528,13 +2528,13 @@
         <v>2254800</v>
       </c>
       <c r="I43">
-        <v>34045509000</v>
+        <v>33160694700</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-27T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2117095988000</v>
+        <v>1965135101000</v>
       </c>
       <c r="L43">
         <v>147426400</v>
@@ -2543,13 +2543,13 @@
         <v>682700</v>
       </c>
       <c r="N43">
-        <v>11224774000</v>
+        <v>11009089900</v>
       </c>
       <c r="O43">
         <v>-1808000</v>
       </c>
       <c r="P43">
-        <v>41631758000</v>
+        <v>58059413900</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>8300</v>
       </c>
       <c r="E44">
-        <v>13085692000</v>
+        <v>12842735200</v>
       </c>
       <c r="F44">
-        <v>38166695000</v>
+        <v>37413249200</v>
       </c>
       <c r="G44">
         <v>291555000</v>
@@ -2578,13 +2578,13 @@
         <v>3187200</v>
       </c>
       <c r="I44">
-        <v>51543942000</v>
+        <v>50547539400</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-27T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2168639930000</v>
+        <v>2015682640400</v>
       </c>
       <c r="L44">
         <v>150613600</v>
@@ -2593,13 +2593,13 @@
         <v>1754300</v>
       </c>
       <c r="N44">
-        <v>25081003000</v>
+        <v>24570514000</v>
       </c>
       <c r="O44">
         <v>-53700</v>
       </c>
       <c r="P44">
-        <v>66712761000</v>
+        <v>82629927900</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>54400</v>
       </c>
       <c r="E45">
-        <v>13874324000</v>
+        <v>13759039400</v>
       </c>
       <c r="F45">
-        <v>33783869000</v>
+        <v>31594860200</v>
       </c>
       <c r="G45">
         <v>543287000</v>
@@ -2628,13 +2628,13 @@
         <v>3263100</v>
       </c>
       <c r="I45">
-        <v>48201480000</v>
+        <v>45897186600</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-27T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>2216841410000</v>
+        <v>2061579827000</v>
       </c>
       <c r="L45">
         <v>153876700</v>
@@ -2643,13 +2643,13 @@
         <v>1408500</v>
       </c>
       <c r="N45">
-        <v>19909545000</v>
+        <v>17835820800</v>
       </c>
       <c r="O45">
         <v>1354800</v>
       </c>
       <c r="P45">
-        <v>86622306000</v>
+        <v>100465748700</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>15600</v>
       </c>
       <c r="E46">
-        <v>13402847000</v>
+        <v>11940510800</v>
       </c>
       <c r="F46">
-        <v>31093501000</v>
+        <v>29920475200</v>
       </c>
       <c r="G46">
-        <v>366090000</v>
+        <v>309147000</v>
       </c>
       <c r="H46">
         <v>2946100</v>
       </c>
       <c r="I46">
-        <v>44862438000</v>
+        <v>42170133000</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-27T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2261703848000</v>
+        <v>2103749960000</v>
       </c>
       <c r="L46">
         <v>156822800</v>
@@ -2693,13 +2693,13 @@
         <v>1179100</v>
       </c>
       <c r="N46">
-        <v>17690654000</v>
+        <v>17979964400</v>
       </c>
       <c r="O46">
         <v>2533900</v>
       </c>
       <c r="P46">
-        <v>104312960000</v>
+        <v>118445713100</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>8500</v>
       </c>
       <c r="E47">
-        <v>11688434000</v>
+        <v>11356066700</v>
       </c>
       <c r="F47">
-        <v>54343683000</v>
+        <v>46806727500</v>
       </c>
       <c r="G47">
         <v>123014000</v>
@@ -2728,13 +2728,13 @@
         <v>4473900</v>
       </c>
       <c r="I47">
-        <v>66155131000</v>
+        <v>58285808200</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-27T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2327858979000</v>
+        <v>2162035768200</v>
       </c>
       <c r="L47">
         <v>161296700</v>
@@ -2743,13 +2743,13 @@
         <v>2917200</v>
       </c>
       <c r="N47">
-        <v>42655249000</v>
+        <v>35450660800</v>
       </c>
       <c r="O47">
         <v>5451100</v>
       </c>
       <c r="P47">
-        <v>146968209000</v>
+        <v>153896373900</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>10900</v>
       </c>
       <c r="E48">
-        <v>9338977000</v>
+        <v>8288928100</v>
       </c>
       <c r="F48">
-        <v>50354268000</v>
+        <v>46724801100</v>
       </c>
       <c r="G48">
         <v>245958000</v>
@@ -2778,13 +2778,13 @@
         <v>4256500</v>
       </c>
       <c r="I48">
-        <v>59939203000</v>
+        <v>55259687200</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-27T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2387798182000</v>
+        <v>2217295455400</v>
       </c>
       <c r="L48">
         <v>165553200</v>
@@ -2793,13 +2793,13 @@
         <v>2954200</v>
       </c>
       <c r="N48">
-        <v>41015291000</v>
+        <v>38435873000</v>
       </c>
       <c r="O48">
         <v>8405300</v>
       </c>
       <c r="P48">
-        <v>187983500000</v>
+        <v>192332246900</v>
       </c>
     </row>
     <row r="49">
@@ -2816,25 +2816,25 @@
         <v>39700</v>
       </c>
       <c r="E49">
-        <v>19993161000</v>
+        <v>19182172800</v>
       </c>
       <c r="F49">
-        <v>48587057000</v>
+        <v>45187260200</v>
       </c>
       <c r="G49">
-        <v>625585000</v>
+        <v>360650200</v>
       </c>
       <c r="H49">
         <v>4697400</v>
       </c>
       <c r="I49">
-        <v>69205803000</v>
+        <v>64730083200</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-27T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2457003985000</v>
+        <v>2282025538600</v>
       </c>
       <c r="L49">
         <v>170250600</v>
@@ -2843,13 +2843,13 @@
         <v>1758900</v>
       </c>
       <c r="N49">
-        <v>28593896000</v>
+        <v>26005087400</v>
       </c>
       <c r="O49">
         <v>10164200</v>
       </c>
       <c r="P49">
-        <v>216577396000</v>
+        <v>218337334300</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>21900</v>
       </c>
       <c r="E50">
-        <v>19943268000</v>
+        <v>19814297100</v>
       </c>
       <c r="F50">
-        <v>82897160000</v>
+        <v>79646014400</v>
       </c>
       <c r="G50">
         <v>405965000</v>
@@ -2878,13 +2878,13 @@
         <v>6679200</v>
       </c>
       <c r="I50">
-        <v>103246393000</v>
+        <v>99866276500</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-27T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2560250378000</v>
+        <v>2381891815100</v>
       </c>
       <c r="L50">
         <v>176929800</v>
@@ -2893,13 +2893,13 @@
         <v>3871900</v>
       </c>
       <c r="N50">
-        <v>62953892000</v>
+        <v>59831717300</v>
       </c>
       <c r="O50">
         <v>14036100</v>
       </c>
       <c r="P50">
-        <v>279531288000</v>
+        <v>278169051600</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>91000</v>
       </c>
       <c r="E51">
-        <v>35370222000</v>
+        <v>33622171800</v>
       </c>
       <c r="F51">
-        <v>108639395000</v>
+        <v>87855599600</v>
       </c>
       <c r="G51">
         <v>1546755000</v>
@@ -2928,13 +2928,13 @@
         <v>8890400</v>
       </c>
       <c r="I51">
-        <v>145556372000</v>
+        <v>123024526400</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-27T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2705806750000</v>
+        <v>2504916341500</v>
       </c>
       <c r="L51">
         <v>185820200</v>
@@ -2943,13 +2943,13 @@
         <v>4546600</v>
       </c>
       <c r="N51">
-        <v>73269173000</v>
+        <v>54233427800</v>
       </c>
       <c r="O51">
         <v>18582700</v>
       </c>
       <c r="P51">
-        <v>352800461000</v>
+        <v>332402479400</v>
       </c>
     </row>
     <row r="52">
@@ -2966,25 +2966,25 @@
         <v>20700</v>
       </c>
       <c r="E52">
-        <v>34223384000</v>
+        <v>32307601700</v>
       </c>
       <c r="F52">
-        <v>45798873000</v>
+        <v>41962413300</v>
       </c>
       <c r="G52">
-        <v>555666000</v>
+        <v>524896800</v>
       </c>
       <c r="H52">
         <v>5734600</v>
       </c>
       <c r="I52">
-        <v>80577923000</v>
+        <v>74794911800</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-27T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2786384673000</v>
+        <v>2579711253300</v>
       </c>
       <c r="L52">
         <v>191554800</v>
@@ -2993,13 +2993,13 @@
         <v>723100</v>
       </c>
       <c r="N52">
-        <v>11575489000</v>
+        <v>9654811600</v>
       </c>
       <c r="O52">
         <v>19305800</v>
       </c>
       <c r="P52">
-        <v>364375950000</v>
+        <v>342057291000</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>34600</v>
       </c>
       <c r="E53">
-        <v>45213307000</v>
+        <v>39895430200</v>
       </c>
       <c r="F53">
-        <v>27694181000</v>
+        <v>24808669400</v>
       </c>
       <c r="G53">
         <v>359238000</v>
@@ -3028,13 +3028,13 @@
         <v>4782200</v>
       </c>
       <c r="I53">
-        <v>73266726000</v>
+        <v>65063337600</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-27T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2859651399000</v>
+        <v>2644774590900</v>
       </c>
       <c r="L53">
         <v>196337000</v>
@@ -3043,13 +3043,13 @@
         <v>-1038000</v>
       </c>
       <c r="N53">
-        <v>-17519126000</v>
+        <v>-15086760800</v>
       </c>
       <c r="O53">
         <v>18267800</v>
       </c>
       <c r="P53">
-        <v>346856824000</v>
+        <v>326970530200</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>7400</v>
       </c>
       <c r="E54">
-        <v>37504800000</v>
+        <v>36105800400</v>
       </c>
       <c r="F54">
-        <v>19073497000</v>
+        <v>14167308100</v>
       </c>
       <c r="G54">
         <v>79847000</v>
@@ -3078,13 +3078,13 @@
         <v>3809200</v>
       </c>
       <c r="I54">
-        <v>56658144000</v>
+        <v>50352955500</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-27T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2916309543000</v>
+        <v>2695127546400</v>
       </c>
       <c r="L54">
         <v>200146200</v>
@@ -3093,13 +3093,13 @@
         <v>-1437000</v>
       </c>
       <c r="N54">
-        <v>-18431303000</v>
+        <v>-21938492300</v>
       </c>
       <c r="O54">
         <v>16830800</v>
       </c>
       <c r="P54">
-        <v>328425521000</v>
+        <v>305032037900</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>20300</v>
       </c>
       <c r="E55">
-        <v>28589083000</v>
+        <v>28179193300</v>
       </c>
       <c r="F55">
-        <v>10933287000</v>
+        <v>10001619600</v>
       </c>
       <c r="G55">
         <v>242996000</v>
@@ -3128,13 +3128,13 @@
         <v>2876600</v>
       </c>
       <c r="I55">
-        <v>39765366000</v>
+        <v>38423808900</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-27T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2956074909000</v>
+        <v>2733551355300</v>
       </c>
       <c r="L55">
         <v>203022800</v>
@@ -3143,13 +3143,13 @@
         <v>-1395700</v>
       </c>
       <c r="N55">
-        <v>-17655796000</v>
+        <v>-18177573700</v>
       </c>
       <c r="O55">
         <v>15435100</v>
       </c>
       <c r="P55">
-        <v>310769725000</v>
+        <v>286854464200</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>7000</v>
       </c>
       <c r="E56">
-        <v>18667432000</v>
+        <v>17947652500</v>
       </c>
       <c r="F56">
-        <v>7859968000</v>
+        <v>6936592300</v>
       </c>
       <c r="G56">
         <v>128260000</v>
@@ -3178,13 +3178,13 @@
         <v>1903800</v>
       </c>
       <c r="I56">
-        <v>26655660000</v>
+        <v>25012504800</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-27T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2982730569000</v>
+        <v>2758563860100</v>
       </c>
       <c r="L56">
         <v>204926600</v>
@@ -3193,13 +3193,13 @@
         <v>-884800</v>
       </c>
       <c r="N56">
-        <v>-10807464000</v>
+        <v>-11011060200</v>
       </c>
       <c r="O56">
         <v>14550300</v>
       </c>
       <c r="P56">
-        <v>299962261000</v>
+        <v>275843404000</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>300</v>
       </c>
       <c r="E57">
-        <v>23818949000</v>
+        <v>22952016800</v>
       </c>
       <c r="F57">
-        <v>5727365000</v>
+        <v>4998894200</v>
       </c>
       <c r="G57">
         <v>8830000</v>
@@ -3228,13 +3228,13 @@
         <v>1948000</v>
       </c>
       <c r="I57">
-        <v>29555144000</v>
+        <v>27959741000</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-27T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>3012285713000</v>
+        <v>2786523601100</v>
       </c>
       <c r="L57">
         <v>206874600</v>
@@ -3243,13 +3243,13 @@
         <v>-1135700</v>
       </c>
       <c r="N57">
-        <v>-18091584000</v>
+        <v>-17953122600</v>
       </c>
       <c r="O57">
         <v>13414600</v>
       </c>
       <c r="P57">
-        <v>281870677000</v>
+        <v>257890281400</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>2200</v>
       </c>
       <c r="E58">
-        <v>16131605000</v>
+        <v>15354283100</v>
       </c>
       <c r="F58">
-        <v>8364479000</v>
+        <v>7308136400</v>
       </c>
       <c r="G58">
         <v>50997000</v>
@@ -3278,13 +3278,13 @@
         <v>1720100</v>
       </c>
       <c r="I58">
-        <v>24547081000</v>
+        <v>22713416500</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-27T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>3036832794000</v>
+        <v>2809237017600</v>
       </c>
       <c r="L58">
         <v>208594700</v>
@@ -3293,13 +3293,13 @@
         <v>-622700</v>
       </c>
       <c r="N58">
-        <v>-7767126000</v>
+        <v>-8046146700</v>
       </c>
       <c r="O58">
         <v>12791900</v>
       </c>
       <c r="P58">
-        <v>274103551000</v>
+        <v>249844134700</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>8600</v>
       </c>
       <c r="E59">
-        <v>16845319000</v>
+        <v>15452313400</v>
       </c>
       <c r="F59">
-        <v>10749951000</v>
+        <v>8610992100</v>
       </c>
       <c r="G59">
         <v>145395000</v>
@@ -3328,13 +3328,13 @@
         <v>1677000</v>
       </c>
       <c r="I59">
-        <v>27740665000</v>
+        <v>24208700500</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-27T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>3064573459000</v>
+        <v>2833445718100</v>
       </c>
       <c r="L59">
         <v>210271700</v>
@@ -3343,13 +3343,13 @@
         <v>-422600</v>
       </c>
       <c r="N59">
-        <v>-6095368000</v>
+        <v>-6841321300</v>
       </c>
       <c r="O59">
         <v>12369300</v>
       </c>
       <c r="P59">
-        <v>268008183000</v>
+        <v>243002813400</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>8400</v>
       </c>
       <c r="E60">
-        <v>12206376000</v>
+        <v>12001281300</v>
       </c>
       <c r="F60">
-        <v>12877997000</v>
+        <v>12428846600</v>
       </c>
       <c r="G60">
         <v>145886000</v>
@@ -3378,13 +3378,13 @@
         <v>1736100</v>
       </c>
       <c r="I60">
-        <v>25230259000</v>
+        <v>24576013900</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-27T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>3089803718000</v>
+        <v>2858021732000</v>
       </c>
       <c r="L60">
         <v>212007800</v>
@@ -3393,13 +3393,13 @@
         <v>-113500</v>
       </c>
       <c r="N60">
-        <v>671621000</v>
+        <v>427565300</v>
       </c>
       <c r="O60">
         <v>12255800</v>
       </c>
       <c r="P60">
-        <v>268679804000</v>
+        <v>243430378700</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>5600</v>
       </c>
       <c r="E61">
-        <v>9581935000</v>
+        <v>9458558500</v>
       </c>
       <c r="F61">
-        <v>13059346000</v>
+        <v>12004402000</v>
       </c>
       <c r="G61">
         <v>88875000</v>
@@ -3428,13 +3428,13 @@
         <v>1731900</v>
       </c>
       <c r="I61">
-        <v>22730156000</v>
+        <v>21551835500</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-27T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>3112533874000</v>
+        <v>2879573567500</v>
       </c>
       <c r="L61">
         <v>213739700</v>
@@ -3443,13 +3443,13 @@
         <v>127500</v>
       </c>
       <c r="N61">
-        <v>3477411000</v>
+        <v>2545843500</v>
       </c>
       <c r="O61">
         <v>12383300</v>
       </c>
       <c r="P61">
-        <v>272157215000</v>
+        <v>245976222200</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>5200</v>
       </c>
       <c r="E62">
-        <v>12343060000</v>
+        <v>11830772800</v>
       </c>
       <c r="F62">
-        <v>8471204000</v>
+        <v>7528647500</v>
       </c>
       <c r="G62">
         <v>80110000</v>
@@ -3478,13 +3478,13 @@
         <v>1102500</v>
       </c>
       <c r="I62">
-        <v>20894374000</v>
+        <v>19439530300</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-27T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>3133428248000</v>
+        <v>2899013097800</v>
       </c>
       <c r="L62">
         <v>214842200</v>
@@ -3493,13 +3493,13 @@
         <v>-120900</v>
       </c>
       <c r="N62">
-        <v>-3871856000</v>
+        <v>-4302125300</v>
       </c>
       <c r="O62">
         <v>12262400</v>
       </c>
       <c r="P62">
-        <v>268285359000</v>
+        <v>241674096900</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>16700</v>
       </c>
       <c r="E63">
-        <v>6995075000</v>
+        <v>6892577600</v>
       </c>
       <c r="F63">
-        <v>17153661000</v>
+        <v>15289027500</v>
       </c>
       <c r="G63">
         <v>145236000</v>
@@ -3528,13 +3528,13 @@
         <v>1532500</v>
       </c>
       <c r="I63">
-        <v>24293972000</v>
+        <v>22326841100</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-27T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>3157722220000</v>
+        <v>2921339938900</v>
       </c>
       <c r="L63">
         <v>216374700</v>
@@ -3543,13 +3543,13 @@
         <v>562000</v>
       </c>
       <c r="N63">
-        <v>10158586000</v>
+        <v>8396449900</v>
       </c>
       <c r="O63">
         <v>12824400</v>
       </c>
       <c r="P63">
-        <v>278443945000</v>
+        <v>250070546800</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>13638872000</v>
+        <v>12791720000</v>
       </c>
       <c r="F64">
-        <v>15062031000</v>
+        <v>14447546100</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3578,13 +3578,13 @@
         <v>1934000</v>
       </c>
       <c r="I64">
-        <v>28700903000</v>
+        <v>27239266100</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-27T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>3186423123000</v>
+        <v>2948579205000</v>
       </c>
       <c r="L64">
         <v>218308700</v>
@@ -3593,13 +3593,13 @@
         <v>180000</v>
       </c>
       <c r="N64">
-        <v>1423159000</v>
+        <v>1655826100</v>
       </c>
       <c r="O64">
         <v>13004400</v>
       </c>
       <c r="P64">
-        <v>279867104000</v>
+        <v>251726372900</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>8800</v>
       </c>
       <c r="E65">
-        <v>8118605000</v>
+        <v>7436387900</v>
       </c>
       <c r="F65">
-        <v>24006611000</v>
+        <v>22546872200</v>
       </c>
       <c r="G65">
         <v>197443000</v>
@@ -3628,13 +3628,13 @@
         <v>1842500</v>
       </c>
       <c r="I65">
-        <v>32322659000</v>
+        <v>30180703100</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-27T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>3218745782000</v>
+        <v>2978759908100</v>
       </c>
       <c r="L65">
         <v>220151200</v>
@@ -3643,13 +3643,13 @@
         <v>678300</v>
       </c>
       <c r="N65">
-        <v>15888006000</v>
+        <v>15110484300</v>
       </c>
       <c r="O65">
         <v>13682700</v>
       </c>
       <c r="P65">
-        <v>295755110000</v>
+        <v>266836857200</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>3100</v>
       </c>
       <c r="E66">
-        <v>10317832000</v>
+        <v>9417433300</v>
       </c>
       <c r="F66">
-        <v>22633240000</v>
+        <v>22443529900</v>
       </c>
       <c r="G66">
         <v>92535000</v>
@@ -3678,13 +3678,13 @@
         <v>2069900</v>
       </c>
       <c r="I66">
-        <v>33043607000</v>
+        <v>31953498200</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-27T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>3251789389000</v>
+        <v>3010713406300</v>
       </c>
       <c r="L66">
         <v>222221100</v>
@@ -3693,13 +3693,13 @@
         <v>748600</v>
       </c>
       <c r="N66">
-        <v>12315408000</v>
+        <v>13026096600</v>
       </c>
       <c r="O66">
         <v>14431300</v>
       </c>
       <c r="P66">
-        <v>308070518000</v>
+        <v>279862953800</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>9000</v>
       </c>
       <c r="E67">
-        <v>21025150000</v>
+        <v>20928646600</v>
       </c>
       <c r="F67">
-        <v>22676657000</v>
+        <v>20685949700</v>
       </c>
       <c r="G67">
         <v>82447000</v>
@@ -3728,13 +3728,13 @@
         <v>2568100</v>
       </c>
       <c r="I67">
-        <v>43784254000</v>
+        <v>41697043300</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-27T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>3295573643000</v>
+        <v>3052410449600</v>
       </c>
       <c r="L67">
         <v>224789200</v>
@@ -3743,13 +3743,13 @@
         <v>444900</v>
       </c>
       <c r="N67">
-        <v>1651507000</v>
+        <v>-242696900</v>
       </c>
       <c r="O67">
         <v>14876200</v>
       </c>
       <c r="P67">
-        <v>309722025000</v>
+        <v>279620256900</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>2100</v>
       </c>
       <c r="E68">
-        <v>21904976000</v>
+        <v>21805875200</v>
       </c>
       <c r="F68">
-        <v>15321601000</v>
+        <v>15152170600</v>
       </c>
       <c r="G68">
         <v>50985000</v>
@@ -3778,13 +3778,13 @@
         <v>2445000</v>
       </c>
       <c r="I68">
-        <v>37277562000</v>
+        <v>37009030800</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-27T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>3332851205000</v>
+        <v>3089419480400</v>
       </c>
       <c r="L68">
         <v>227234200</v>
@@ -3793,13 +3793,13 @@
         <v>-114100</v>
       </c>
       <c r="N68">
-        <v>-6583375000</v>
+        <v>-6653704600</v>
       </c>
       <c r="O68">
         <v>14762100</v>
       </c>
       <c r="P68">
-        <v>303138650000</v>
+        <v>272966552300</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>18300</v>
       </c>
       <c r="E69">
-        <v>14121881000</v>
+        <v>14046756200</v>
       </c>
       <c r="F69">
-        <v>10071963000</v>
+        <v>9907927200</v>
       </c>
       <c r="G69">
         <v>267443000</v>
@@ -3828,13 +3828,13 @@
         <v>1837400</v>
       </c>
       <c r="I69">
-        <v>24461287000</v>
+        <v>24222126400</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-27T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3357312492000</v>
+        <v>3113641606800</v>
       </c>
       <c r="L69">
         <v>229071600</v>
@@ -3843,13 +3843,13 @@
         <v>-240300</v>
       </c>
       <c r="N69">
-        <v>-4049918000</v>
+        <v>-4138829000</v>
       </c>
       <c r="O69">
         <v>14521800</v>
       </c>
       <c r="P69">
-        <v>299088732000</v>
+        <v>268827723300</v>
       </c>
     </row>
     <row r="70">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>127000000</v>
+        <v>127000</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>12700</v>
       </c>
       <c r="I70">
-        <v>127000000</v>
+        <v>127000</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-27T12:58:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3357439492000</v>
+        <v>3113641733800</v>
       </c>
       <c r="L70">
         <v>229084300</v>
@@ -3893,13 +3893,13 @@
         <v>-12700</v>
       </c>
       <c r="N70">
-        <v>-127000000</v>
+        <v>-127000</v>
       </c>
       <c r="O70">
         <v>14509100</v>
       </c>
       <c r="P70">
-        <v>298961732000</v>
+        <v>268827596300</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>349200</v>
       </c>
       <c r="E71">
-        <v>44392302000</v>
+        <v>42529566600</v>
       </c>
       <c r="F71">
-        <v>29402750000</v>
+        <v>28406547200</v>
       </c>
       <c r="G71">
         <v>4918762000</v>
@@ -3928,13 +3928,13 @@
         <v>5238200</v>
       </c>
       <c r="I71">
-        <v>78713814000</v>
+        <v>75854875800</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-27T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3436153306000</v>
+        <v>3189496609600</v>
       </c>
       <c r="L71">
         <v>234322500</v>
@@ -3943,13 +3943,13 @@
         <v>-641600</v>
       </c>
       <c r="N71">
-        <v>-14989552000</v>
+        <v>-14123019400</v>
       </c>
       <c r="O71">
         <v>13867500</v>
       </c>
       <c r="P71">
-        <v>283972180000</v>
+        <v>254704576900</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>53500</v>
       </c>
       <c r="E72">
-        <v>21597722000</v>
+        <v>18388234700</v>
       </c>
       <c r="F72">
-        <v>21963550000</v>
+        <v>21620893000</v>
       </c>
       <c r="G72">
-        <v>490381000</v>
+        <v>489182200</v>
       </c>
       <c r="H72">
         <v>3344800</v>
       </c>
       <c r="I72">
-        <v>44051653000</v>
+        <v>40498309900</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-27T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3480204959000</v>
+        <v>3229994919500</v>
       </c>
       <c r="L72">
         <v>237667300</v>
@@ -3993,13 +3993,13 @@
         <v>392900</v>
       </c>
       <c r="N72">
-        <v>365828000</v>
+        <v>3232658300</v>
       </c>
       <c r="O72">
         <v>14260400</v>
       </c>
       <c r="P72">
-        <v>284338008000</v>
+        <v>257937235200</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>69900</v>
       </c>
       <c r="E73">
-        <v>33736015000</v>
+        <v>32617035100</v>
       </c>
       <c r="F73">
-        <v>47071921000</v>
+        <v>45578316100</v>
       </c>
       <c r="G73">
         <v>877154000</v>
@@ -4028,13 +4028,13 @@
         <v>5640000</v>
       </c>
       <c r="I73">
-        <v>81685090000</v>
+        <v>79072505200</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-27T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3561890049000</v>
+        <v>3309067424700</v>
       </c>
       <c r="L73">
         <v>243307300</v>
@@ -4043,13 +4043,13 @@
         <v>689500</v>
       </c>
       <c r="N73">
-        <v>13335906000</v>
+        <v>12961281000</v>
       </c>
       <c r="O73">
         <v>14949900</v>
       </c>
       <c r="P73">
-        <v>297673914000</v>
+        <v>270898516200</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>40800</v>
       </c>
       <c r="E74">
-        <v>22981199000</v>
+        <v>22229251700</v>
       </c>
       <c r="F74">
-        <v>72475019000</v>
+        <v>69300996200</v>
       </c>
       <c r="G74">
         <v>508781000</v>
@@ -4078,13 +4078,13 @@
         <v>7277300</v>
       </c>
       <c r="I74">
-        <v>95964999000</v>
+        <v>92039028900</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-27T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3657855048000</v>
+        <v>3401106453600</v>
       </c>
       <c r="L74">
         <v>250584600</v>
@@ -4093,13 +4093,13 @@
         <v>3781900</v>
       </c>
       <c r="N74">
-        <v>49493820000</v>
+        <v>47071744500</v>
       </c>
       <c r="O74">
         <v>18731800</v>
       </c>
       <c r="P74">
-        <v>347167734000</v>
+        <v>317970260700</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>24200</v>
       </c>
       <c r="E75">
-        <v>24217388000</v>
+        <v>22926380300</v>
       </c>
       <c r="F75">
-        <v>51884334000</v>
+        <v>46279644300</v>
       </c>
       <c r="G75">
-        <v>455442000</v>
+        <v>441955500</v>
       </c>
       <c r="H75">
         <v>5649200</v>
       </c>
       <c r="I75">
-        <v>76557164000</v>
+        <v>69647980100</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-27T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3734412212000</v>
+        <v>3470754433700</v>
       </c>
       <c r="L75">
         <v>256233800</v>
@@ -4143,13 +4143,13 @@
         <v>1918200</v>
       </c>
       <c r="N75">
-        <v>27666946000</v>
+        <v>23353264000</v>
       </c>
       <c r="O75">
         <v>20650000</v>
       </c>
       <c r="P75">
-        <v>374834680000</v>
+        <v>341323524700</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>12800</v>
       </c>
       <c r="E76">
-        <v>27930585000</v>
+        <v>26577539400</v>
       </c>
       <c r="F76">
-        <v>50200843000</v>
+        <v>45196752100</v>
       </c>
       <c r="G76">
         <v>99801000</v>
@@ -4178,13 +4178,13 @@
         <v>5021200</v>
       </c>
       <c r="I76">
-        <v>78231229000</v>
+        <v>71874092500</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-27T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3812643441000</v>
+        <v>3542628526200</v>
       </c>
       <c r="L76">
         <v>261255000</v>
@@ -4193,13 +4193,13 @@
         <v>822000</v>
       </c>
       <c r="N76">
-        <v>22270258000</v>
+        <v>18619212700</v>
       </c>
       <c r="O76">
         <v>21472000</v>
       </c>
       <c r="P76">
-        <v>397104938000</v>
+        <v>359942737400</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>17800</v>
       </c>
       <c r="E77">
-        <v>26640538000</v>
+        <v>24688791700</v>
       </c>
       <c r="F77">
-        <v>34050721000</v>
+        <v>31192182400</v>
       </c>
       <c r="G77">
         <v>242214000</v>
@@ -4228,13 +4228,13 @@
         <v>4483000</v>
       </c>
       <c r="I77">
-        <v>60933473000</v>
+        <v>56123188100</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-27T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3873576914000</v>
+        <v>3598751714300</v>
       </c>
       <c r="L77">
         <v>265738000</v>
@@ -4243,13 +4243,13 @@
         <v>407600</v>
       </c>
       <c r="N77">
-        <v>7410183000</v>
+        <v>6503390700</v>
       </c>
       <c r="O77">
         <v>21879600</v>
       </c>
       <c r="P77">
-        <v>404515121000</v>
+        <v>366446128100</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>35600</v>
       </c>
       <c r="E78">
-        <v>32390158000</v>
+        <v>31267881400</v>
       </c>
       <c r="F78">
-        <v>33335451000</v>
+        <v>28452438900</v>
       </c>
       <c r="G78">
         <v>243002000</v>
@@ -4278,13 +4278,13 @@
         <v>4257700</v>
       </c>
       <c r="I78">
-        <v>65968611000</v>
+        <v>59963322300</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-27T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3939545525000</v>
+        <v>3658715036600</v>
       </c>
       <c r="L78">
         <v>269995700</v>
@@ -4293,13 +4293,13 @@
         <v>-133500</v>
       </c>
       <c r="N78">
-        <v>945293000</v>
+        <v>-2815442500</v>
       </c>
       <c r="O78">
         <v>21746100</v>
       </c>
       <c r="P78">
-        <v>405460414000</v>
+        <v>363630685600</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>8000</v>
       </c>
       <c r="E79">
-        <v>20597424000</v>
+        <v>18994728300</v>
       </c>
       <c r="F79">
-        <v>24156836000</v>
+        <v>23264529200</v>
       </c>
       <c r="G79">
         <v>92333000</v>
@@ -4328,13 +4328,13 @@
         <v>3242700</v>
       </c>
       <c r="I79">
-        <v>44846593000</v>
+        <v>42351590500</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-27T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3984392118000</v>
+        <v>3701066627100</v>
       </c>
       <c r="L79">
         <v>273238400</v>
@@ -4343,13 +4343,13 @@
         <v>-18500</v>
       </c>
       <c r="N79">
-        <v>3559412000</v>
+        <v>4269800900</v>
       </c>
       <c r="O79">
         <v>21727600</v>
       </c>
       <c r="P79">
-        <v>409019826000</v>
+        <v>367900486500</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>13400</v>
       </c>
       <c r="E80">
-        <v>30801167000</v>
+        <v>28231239500</v>
       </c>
       <c r="F80">
-        <v>34386233000</v>
+        <v>31831590200</v>
       </c>
       <c r="G80">
-        <v>215785000</v>
+        <v>213587200</v>
       </c>
       <c r="H80">
         <v>4497800</v>
       </c>
       <c r="I80">
-        <v>65403185000</v>
+        <v>60276416900</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-27T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>4049795303000</v>
+        <v>3761343044000</v>
       </c>
       <c r="L80">
         <v>277736200</v>
@@ -4393,13 +4393,13 @@
         <v>431800</v>
       </c>
       <c r="N80">
-        <v>3585066000</v>
+        <v>3600350700</v>
       </c>
       <c r="O80">
         <v>22159400</v>
       </c>
       <c r="P80">
-        <v>412604892000</v>
+        <v>371500837200</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>37100</v>
       </c>
       <c r="E81">
-        <v>42238086000</v>
+        <v>40335390600</v>
       </c>
       <c r="F81">
-        <v>24734936000</v>
+        <v>22826646200</v>
       </c>
       <c r="G81">
         <v>1125351000</v>
@@ -4428,13 +4428,13 @@
         <v>4408500</v>
       </c>
       <c r="I81">
-        <v>68098373000</v>
+        <v>64287387800</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-27T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>4117893676000</v>
+        <v>3825630431800</v>
       </c>
       <c r="L81">
         <v>282144700</v>
@@ -4443,13 +4443,13 @@
         <v>-1031600</v>
       </c>
       <c r="N81">
-        <v>-17503150000</v>
+        <v>-17508744400</v>
       </c>
       <c r="O81">
         <v>21127800</v>
       </c>
       <c r="P81">
-        <v>395101742000</v>
+        <v>353992092800</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>7400</v>
       </c>
       <c r="E82">
-        <v>47036088000</v>
+        <v>42144584400</v>
       </c>
       <c r="F82">
-        <v>28308229000</v>
+        <v>22216127200</v>
       </c>
       <c r="G82">
         <v>175192000</v>
@@ -4478,13 +4478,13 @@
         <v>5060300</v>
       </c>
       <c r="I82">
-        <v>75519509000</v>
+        <v>64535903600</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-27T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>4193413185000</v>
+        <v>3890166335400</v>
       </c>
       <c r="L82">
         <v>287205000</v>
@@ -4493,13 +4493,13 @@
         <v>-1570700</v>
       </c>
       <c r="N82">
-        <v>-18727859000</v>
+        <v>-19928457200</v>
       </c>
       <c r="O82">
         <v>19557100</v>
       </c>
       <c r="P82">
-        <v>376373883000</v>
+        <v>334063635600</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>34600</v>
       </c>
       <c r="E83">
-        <v>54206378000</v>
+        <v>52578207800</v>
       </c>
       <c r="F83">
-        <v>27192776000</v>
+        <v>24705266000</v>
       </c>
       <c r="G83">
-        <v>463946000</v>
+        <v>364046000</v>
       </c>
       <c r="H83">
         <v>5074900</v>
       </c>
       <c r="I83">
-        <v>81863100000</v>
+        <v>77647519800</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-27T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>4275276285000</v>
+        <v>3967813855200</v>
       </c>
       <c r="L83">
         <v>292279900</v>
@@ -4543,13 +4543,13 @@
         <v>-1903700</v>
       </c>
       <c r="N83">
-        <v>-27013602000</v>
+        <v>-27872941800</v>
       </c>
       <c r="O83">
         <v>17653400</v>
       </c>
       <c r="P83">
-        <v>349360281000</v>
+        <v>306190693800</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>18900</v>
       </c>
       <c r="E84">
-        <v>80986234000</v>
+        <v>75666259300</v>
       </c>
       <c r="F84">
-        <v>16184667000</v>
+        <v>15704847300</v>
       </c>
       <c r="G84">
-        <v>256668000</v>
+        <v>176748000</v>
       </c>
       <c r="H84">
         <v>6541900</v>
       </c>
       <c r="I84">
-        <v>97427569000</v>
+        <v>91547854600</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-27T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>4372703854000</v>
+        <v>4059361709800</v>
       </c>
       <c r="L84">
         <v>298821800</v>
@@ -4593,13 +4593,13 @@
         <v>-4114400</v>
       </c>
       <c r="N84">
-        <v>-64801567000</v>
+        <v>-59961412000</v>
       </c>
       <c r="O84">
         <v>13539000</v>
       </c>
       <c r="P84">
-        <v>284558714000</v>
+        <v>246229281800</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>44600</v>
       </c>
       <c r="E85">
-        <v>54708136000</v>
+        <v>51168479200</v>
       </c>
       <c r="F85">
-        <v>19763013000</v>
+        <v>19542933300</v>
       </c>
       <c r="G85">
-        <v>688428000</v>
+        <v>681834600</v>
       </c>
       <c r="H85">
         <v>5077000</v>
       </c>
       <c r="I85">
-        <v>75159577000</v>
+        <v>71393247100</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-27T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4447863431000</v>
+        <v>4130754956900</v>
       </c>
       <c r="L85">
         <v>303898800</v>
@@ -4643,13 +4643,13 @@
         <v>-2202000</v>
       </c>
       <c r="N85">
-        <v>-34945123000</v>
+        <v>-31625545900</v>
       </c>
       <c r="O85">
         <v>11337000</v>
       </c>
       <c r="P85">
-        <v>249613591000</v>
+        <v>214603735900</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>22900</v>
       </c>
       <c r="E86">
-        <v>34615037000</v>
+        <v>30294062300</v>
       </c>
       <c r="F86">
-        <v>15321618000</v>
+        <v>14605534800</v>
       </c>
       <c r="G86">
         <v>250467000</v>
@@ -4678,13 +4678,13 @@
         <v>3429300</v>
       </c>
       <c r="I86">
-        <v>50187122000</v>
+        <v>45150064100</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-27T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4498050553000</v>
+        <v>4175905021000</v>
       </c>
       <c r="L86">
         <v>307328100</v>
@@ -4693,13 +4693,13 @@
         <v>-1260800</v>
       </c>
       <c r="N86">
-        <v>-19293419000</v>
+        <v>-15688527500</v>
       </c>
       <c r="O86">
         <v>10076200</v>
       </c>
       <c r="P86">
-        <v>230320172000</v>
+        <v>198915208400</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>16600</v>
       </c>
       <c r="E87">
-        <v>38854831000</v>
+        <v>37543443700</v>
       </c>
       <c r="F87">
-        <v>24662330000</v>
+        <v>24045147800</v>
       </c>
       <c r="G87">
-        <v>249612000</v>
+        <v>241919700</v>
       </c>
       <c r="H87">
         <v>3795700</v>
       </c>
       <c r="I87">
-        <v>63766773000</v>
+        <v>61830511200</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-27T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4561817326000</v>
+        <v>4237735532200</v>
       </c>
       <c r="L87">
         <v>311123800</v>
@@ -4743,13 +4743,13 @@
         <v>-868100</v>
       </c>
       <c r="N87">
-        <v>-14192501000</v>
+        <v>-13498295900</v>
       </c>
       <c r="O87">
         <v>9208100</v>
       </c>
       <c r="P87">
-        <v>216127671000</v>
+        <v>185416912500</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>31000</v>
       </c>
       <c r="E88">
-        <v>57096484000</v>
+        <v>52445140000</v>
       </c>
       <c r="F88">
-        <v>13866952000</v>
+        <v>13630488700</v>
       </c>
       <c r="G88">
         <v>399660000</v>
@@ -4778,13 +4778,13 @@
         <v>4760900</v>
       </c>
       <c r="I88">
-        <v>71363096000</v>
+        <v>66475288700</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-27T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4633180422000</v>
+        <v>4304210820900</v>
       </c>
       <c r="L88">
         <v>315884700</v>
@@ -4793,13 +4793,13 @@
         <v>-2947500</v>
       </c>
       <c r="N88">
-        <v>-43229532000</v>
+        <v>-38814651300</v>
       </c>
       <c r="O88">
         <v>6260600</v>
       </c>
       <c r="P88">
-        <v>172898139000</v>
+        <v>146602261200</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>25400</v>
       </c>
       <c r="E89">
-        <v>47528603000</v>
+        <v>45838994300</v>
       </c>
       <c r="F89">
-        <v>13688415000</v>
+        <v>13614588900</v>
       </c>
       <c r="G89">
-        <v>286603000</v>
+        <v>252437200</v>
       </c>
       <c r="H89">
         <v>3962000</v>
       </c>
       <c r="I89">
-        <v>61503621000</v>
+        <v>59706020400</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-27T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4694684043000</v>
+        <v>4363916841300</v>
       </c>
       <c r="L89">
         <v>319846700</v>
@@ -4843,13 +4843,13 @@
         <v>-2208400</v>
       </c>
       <c r="N89">
-        <v>-33840188000</v>
+        <v>-32224405400</v>
       </c>
       <c r="O89">
         <v>4052200</v>
       </c>
       <c r="P89">
-        <v>139057951000</v>
+        <v>114377855800</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>4300</v>
       </c>
       <c r="E90">
-        <v>30157293000</v>
+        <v>29808642000</v>
       </c>
       <c r="F90">
-        <v>28406062000</v>
+        <v>26409460600</v>
       </c>
       <c r="G90">
         <v>82602000</v>
@@ -4878,13 +4878,13 @@
         <v>3929400</v>
       </c>
       <c r="I90">
-        <v>58645957000</v>
+        <v>56300704600</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-27T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4753330000000</v>
+        <v>4420217545900</v>
       </c>
       <c r="L90">
         <v>323776100</v>
@@ -4893,13 +4893,13 @@
         <v>-166500</v>
       </c>
       <c r="N90">
-        <v>-1751231000</v>
+        <v>-3399181400</v>
       </c>
       <c r="O90">
         <v>3885700</v>
       </c>
       <c r="P90">
-        <v>137306720000</v>
+        <v>110978674400</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>11900</v>
       </c>
       <c r="E91">
-        <v>14653807000</v>
+        <v>13643718100</v>
       </c>
       <c r="F91">
-        <v>41913131000</v>
+        <v>39580965500</v>
       </c>
       <c r="G91">
-        <v>226082000</v>
+        <v>204703400</v>
       </c>
       <c r="H91">
         <v>3715500</v>
       </c>
       <c r="I91">
-        <v>56793020000</v>
+        <v>53429387000</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-27T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4810123020000</v>
+        <v>4473646932900</v>
       </c>
       <c r="L91">
         <v>327491600</v>
@@ -4943,13 +4943,13 @@
         <v>1678000</v>
       </c>
       <c r="N91">
-        <v>27259324000</v>
+        <v>25937247400</v>
       </c>
       <c r="O91">
         <v>5563700</v>
       </c>
       <c r="P91">
-        <v>164566044000</v>
+        <v>136915921800</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>8100</v>
       </c>
       <c r="E92">
-        <v>23674670000</v>
+        <v>22237308800</v>
       </c>
       <c r="F92">
-        <v>31535295000</v>
+        <v>30622209000</v>
       </c>
       <c r="G92">
         <v>183845000</v>
@@ -4978,13 +4978,13 @@
         <v>3218600</v>
       </c>
       <c r="I92">
-        <v>55393810000</v>
+        <v>53043362800</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-27T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4865516830000</v>
+        <v>4526690295700</v>
       </c>
       <c r="L92">
         <v>330710200</v>
@@ -4993,13 +4993,13 @@
         <v>745700</v>
       </c>
       <c r="N92">
-        <v>7860625000</v>
+        <v>8384900200</v>
       </c>
       <c r="O92">
         <v>6309400</v>
       </c>
       <c r="P92">
-        <v>172426669000</v>
+        <v>145300822000</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>54100</v>
       </c>
       <c r="E93">
-        <v>81794074000</v>
+        <v>78793977100</v>
       </c>
       <c r="F93">
-        <v>14426124000</v>
+        <v>12662789100</v>
       </c>
       <c r="G93">
         <v>1218670000</v>
@@ -5028,13 +5028,13 @@
         <v>5432000</v>
       </c>
       <c r="I93">
-        <v>97438868000</v>
+        <v>92675436200</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-27T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4962955698000</v>
+        <v>4619365731900</v>
       </c>
       <c r="L93">
         <v>336142200</v>
@@ -5043,13 +5043,13 @@
         <v>-3534700</v>
       </c>
       <c r="N93">
-        <v>-67367950000</v>
+        <v>-66131188000</v>
       </c>
       <c r="O93">
         <v>2774700</v>
       </c>
       <c r="P93">
-        <v>105058719000</v>
+        <v>79169634000</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>31900</v>
       </c>
       <c r="E94">
-        <v>62651490000</v>
+        <v>60954988200</v>
       </c>
       <c r="F94">
-        <v>27423783000</v>
+        <v>22690021500</v>
       </c>
       <c r="G94">
         <v>556864000</v>
@@ -5078,13 +5078,13 @@
         <v>5834800</v>
       </c>
       <c r="I94">
-        <v>90632137000</v>
+        <v>84201873700</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-27T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>5053587835000</v>
+        <v>4703567605600</v>
       </c>
       <c r="L94">
         <v>341977000</v>
@@ -5093,13 +5093,13 @@
         <v>-2691300</v>
       </c>
       <c r="N94">
-        <v>-35227707000</v>
+        <v>-38264966700</v>
       </c>
       <c r="O94">
         <v>83400</v>
       </c>
       <c r="P94">
-        <v>69831012000</v>
+        <v>40904667300</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>12000</v>
       </c>
       <c r="E95">
-        <v>28213332000</v>
+        <v>26438708400</v>
       </c>
       <c r="F95">
-        <v>33242659000</v>
+        <v>31697106100</v>
       </c>
       <c r="G95">
         <v>86948000</v>
@@ -5128,13 +5128,13 @@
         <v>3888300</v>
       </c>
       <c r="I95">
-        <v>61542939000</v>
+        <v>58222762500</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-27T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>5115130774000</v>
+        <v>4761790368100</v>
       </c>
       <c r="L95">
         <v>345865300</v>
@@ -5143,13 +5143,13 @@
         <v>96100</v>
       </c>
       <c r="N95">
-        <v>5029327000</v>
+        <v>5258397700</v>
       </c>
       <c r="O95">
         <v>179500</v>
       </c>
       <c r="P95">
-        <v>74860339000</v>
+        <v>46163065000</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>4900</v>
       </c>
       <c r="E96">
-        <v>23356266000</v>
+        <v>23085537000</v>
       </c>
       <c r="F96">
-        <v>26199238000</v>
+        <v>22218622600</v>
       </c>
       <c r="G96">
         <v>108542000</v>
@@ -5178,13 +5178,13 @@
         <v>2743000</v>
       </c>
       <c r="I96">
-        <v>49664046000</v>
+        <v>45412701600</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-27T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>5164794820000</v>
+        <v>4807203069700</v>
       </c>
       <c r="L96">
         <v>348608300</v>
@@ -5193,13 +5193,13 @@
         <v>250500</v>
       </c>
       <c r="N96">
-        <v>2842972000</v>
+        <v>-866914400</v>
       </c>
       <c r="O96">
         <v>430000</v>
       </c>
       <c r="P96">
-        <v>77703311000</v>
+        <v>45296150600</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>6400</v>
       </c>
       <c r="E97">
-        <v>24622975000</v>
+        <v>23293905400</v>
       </c>
       <c r="F97">
-        <v>16313029000</v>
+        <v>14702740900</v>
       </c>
       <c r="G97">
         <v>190270000</v>
@@ -5228,13 +5228,13 @@
         <v>2175000</v>
       </c>
       <c r="I97">
-        <v>41126274000</v>
+        <v>38186916300</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-27T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>5205921094000</v>
+        <v>4845389986000</v>
       </c>
       <c r="L97">
         <v>350783300</v>
@@ -5243,13 +5243,13 @@
         <v>-440400</v>
       </c>
       <c r="N97">
-        <v>-8309946000</v>
+        <v>-8591164500</v>
       </c>
       <c r="O97">
         <v>-10400</v>
       </c>
       <c r="P97">
-        <v>69393365000</v>
+        <v>36704986100</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>47100</v>
       </c>
       <c r="E98">
-        <v>28629761000</v>
+        <v>24735459200</v>
       </c>
       <c r="F98">
-        <v>12750768000</v>
+        <v>11608011900</v>
       </c>
       <c r="G98">
         <v>722220000</v>
@@ -5278,13 +5278,13 @@
         <v>2411200</v>
       </c>
       <c r="I98">
-        <v>42102749000</v>
+        <v>37065691100</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-27T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>5248023843000</v>
+        <v>4882455677100</v>
       </c>
       <c r="L98">
         <v>353194500</v>
@@ -5293,13 +5293,13 @@
         <v>-863100</v>
       </c>
       <c r="N98">
-        <v>-15878993000</v>
+        <v>-13127447300</v>
       </c>
       <c r="O98">
         <v>-873500</v>
       </c>
       <c r="P98">
-        <v>53514372000</v>
+        <v>23577538800</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>14700</v>
       </c>
       <c r="E99">
-        <v>12879806000</v>
+        <v>12868317500</v>
       </c>
       <c r="F99">
-        <v>24384286000</v>
+        <v>23029941700</v>
       </c>
       <c r="G99">
         <v>164922000</v>
@@ -5328,13 +5328,13 @@
         <v>2301900</v>
       </c>
       <c r="I99">
-        <v>37429014000</v>
+        <v>36063181200</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-27T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>5285452857000</v>
+        <v>4918518858300</v>
       </c>
       <c r="L99">
         <v>355496400</v>
@@ -5343,13 +5343,13 @@
         <v>593200</v>
       </c>
       <c r="N99">
-        <v>11504480000</v>
+        <v>10161624200</v>
       </c>
       <c r="O99">
         <v>-280300</v>
       </c>
       <c r="P99">
-        <v>65018852000</v>
+        <v>33739163000</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>18500</v>
       </c>
       <c r="E100">
-        <v>11954119000</v>
+        <v>11536337200</v>
       </c>
       <c r="F100">
-        <v>38808137000</v>
+        <v>36255392300</v>
       </c>
       <c r="G100">
-        <v>450376000</v>
+        <v>360066400</v>
       </c>
       <c r="H100">
         <v>3090500</v>
       </c>
       <c r="I100">
-        <v>51212632000</v>
+        <v>48151795900</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-27T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>5336665489000</v>
+        <v>4966670654200</v>
       </c>
       <c r="L100">
         <v>358586900</v>
@@ -5393,13 +5393,13 @@
         <v>1843200</v>
       </c>
       <c r="N100">
-        <v>26854018000</v>
+        <v>24719055100</v>
       </c>
       <c r="O100">
         <v>1562900</v>
       </c>
       <c r="P100">
-        <v>91872870000</v>
+        <v>58458218100</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>53100</v>
       </c>
       <c r="E101">
-        <v>15168650000</v>
+        <v>13498521800</v>
       </c>
       <c r="F101">
-        <v>59233459000</v>
+        <v>54429967300</v>
       </c>
       <c r="G101">
-        <v>847181000</v>
+        <v>656771600</v>
       </c>
       <c r="H101">
         <v>4660200</v>
       </c>
       <c r="I101">
-        <v>75249290000</v>
+        <v>68585260700</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-27T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>5411914779000</v>
+        <v>5035255914900</v>
       </c>
       <c r="L101">
         <v>363247100</v>
@@ -5443,13 +5443,13 @@
         <v>2713300</v>
       </c>
       <c r="N101">
-        <v>44064809000</v>
+        <v>40931445500</v>
       </c>
       <c r="O101">
         <v>4276200</v>
       </c>
       <c r="P101">
-        <v>135937679000</v>
+        <v>99389663600</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>6400</v>
       </c>
       <c r="E102">
-        <v>17420851000</v>
+        <v>16570102600</v>
       </c>
       <c r="F102">
-        <v>48788980000</v>
+        <v>46954915900</v>
       </c>
       <c r="G102">
         <v>59483000</v>
@@ -5478,13 +5478,13 @@
         <v>4056800</v>
       </c>
       <c r="I102">
-        <v>66269314000</v>
+        <v>63584501500</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-27T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>5478184093000</v>
+        <v>5098840416400</v>
       </c>
       <c r="L102">
         <v>367303900</v>
@@ -5493,13 +5493,13 @@
         <v>1899000</v>
       </c>
       <c r="N102">
-        <v>31368129000</v>
+        <v>30384813300</v>
       </c>
       <c r="O102">
         <v>6175200</v>
       </c>
       <c r="P102">
-        <v>167305808000</v>
+        <v>129774476900</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>9000</v>
       </c>
       <c r="E103">
-        <v>18649111000</v>
+        <v>17566095100</v>
       </c>
       <c r="F103">
-        <v>30745455000</v>
+        <v>28865836500</v>
       </c>
       <c r="G103">
         <v>164710000</v>
@@ -5528,13 +5528,13 @@
         <v>2937700</v>
       </c>
       <c r="I103">
-        <v>49559276000</v>
+        <v>46596641600</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-27T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>5527743369000</v>
+        <v>5145437058000</v>
       </c>
       <c r="L103">
         <v>370241600</v>
@@ -5543,13 +5543,13 @@
         <v>704700</v>
       </c>
       <c r="N103">
-        <v>12096344000</v>
+        <v>11299741400</v>
       </c>
       <c r="O103">
         <v>6879900</v>
       </c>
       <c r="P103">
-        <v>179402152000</v>
+        <v>141074218300</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>63600</v>
       </c>
       <c r="E104">
-        <v>17689360000</v>
+        <v>16328122600</v>
       </c>
       <c r="F104">
-        <v>29562007000</v>
+        <v>27951319300</v>
       </c>
       <c r="G104">
-        <v>865304000</v>
+        <v>730439000</v>
       </c>
       <c r="H104">
         <v>2769300</v>
       </c>
       <c r="I104">
-        <v>48116671000</v>
+        <v>45009880900</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-27T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>5575860040000</v>
+        <v>5190446938900</v>
       </c>
       <c r="L104">
         <v>373010900</v>
@@ -5593,13 +5593,13 @@
         <v>696700</v>
       </c>
       <c r="N104">
-        <v>11872647000</v>
+        <v>11623196700</v>
       </c>
       <c r="O104">
         <v>7576600</v>
       </c>
       <c r="P104">
-        <v>191274799000</v>
+        <v>152697415000</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>4100</v>
       </c>
       <c r="E105">
-        <v>29370674000</v>
+        <v>28646698700</v>
       </c>
       <c r="F105">
-        <v>25820476000</v>
+        <v>24321676300</v>
       </c>
       <c r="G105">
         <v>118905000</v>
@@ -5628,13 +5628,13 @@
         <v>3448600</v>
       </c>
       <c r="I105">
-        <v>55310055000</v>
+        <v>53087280000</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-27T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>5631170095000</v>
+        <v>5243534218900</v>
       </c>
       <c r="L105">
         <v>376459500</v>
@@ -5643,13 +5643,13 @@
         <v>-393700</v>
       </c>
       <c r="N105">
-        <v>-3550198000</v>
+        <v>-4325022400</v>
       </c>
       <c r="O105">
         <v>7182900</v>
       </c>
       <c r="P105">
-        <v>187724601000</v>
+        <v>148372392600</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>8500</v>
       </c>
       <c r="E106">
-        <v>22515885000</v>
+        <v>18642062700</v>
       </c>
       <c r="F106">
-        <v>14596566000</v>
+        <v>13812650700</v>
       </c>
       <c r="G106">
-        <v>302504000</v>
+        <v>112694000</v>
       </c>
       <c r="H106">
         <v>2267600</v>
       </c>
       <c r="I106">
-        <v>37414955000</v>
+        <v>32567407400</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-27T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>5668585050000</v>
+        <v>5276101626300</v>
       </c>
       <c r="L106">
         <v>378727100</v>
@@ -5693,13 +5693,13 @@
         <v>-697900</v>
       </c>
       <c r="N106">
-        <v>-7919319000</v>
+        <v>-4829412000</v>
       </c>
       <c r="O106">
         <v>6485000</v>
       </c>
       <c r="P106">
-        <v>179805282000</v>
+        <v>143542980600</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>26500</v>
       </c>
       <c r="E107">
-        <v>34578079000</v>
+        <v>33295562800</v>
       </c>
       <c r="F107">
-        <v>23870566000</v>
+        <v>22039199200</v>
       </c>
       <c r="G107">
         <v>799689000</v>
@@ -5728,13 +5728,13 @@
         <v>3624800</v>
       </c>
       <c r="I107">
-        <v>59248334000</v>
+        <v>56134451000</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-27T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>5727833384000</v>
+        <v>5332236077300</v>
       </c>
       <c r="L107">
         <v>382351900</v>
@@ -5743,13 +5743,13 @@
         <v>-968900</v>
       </c>
       <c r="N107">
-        <v>-10707513000</v>
+        <v>-11256363600</v>
       </c>
       <c r="O107">
         <v>5516100</v>
       </c>
       <c r="P107">
-        <v>169097769000</v>
+        <v>132286617000</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>34400</v>
       </c>
       <c r="E108">
-        <v>23990470000</v>
+        <v>22974487000</v>
       </c>
       <c r="F108">
-        <v>101600131000</v>
+        <v>91918122700</v>
       </c>
       <c r="G108">
-        <v>998131000</v>
+        <v>881248000</v>
       </c>
       <c r="H108">
         <v>6264900</v>
       </c>
       <c r="I108">
-        <v>126588732000</v>
+        <v>115773857700</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-27T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>5854422116000</v>
+        <v>5448009935000</v>
       </c>
       <c r="L108">
         <v>388616800</v>
@@ -5793,13 +5793,13 @@
         <v>3378500</v>
       </c>
       <c r="N108">
-        <v>77609661000</v>
+        <v>68943635700</v>
       </c>
       <c r="O108">
         <v>8894600</v>
       </c>
       <c r="P108">
-        <v>246707430000</v>
+        <v>201230252700</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>24100</v>
       </c>
       <c r="E109">
-        <v>11931897000</v>
+        <v>9627903300</v>
       </c>
       <c r="F109">
-        <v>78981350000</v>
+        <v>61212736400</v>
       </c>
       <c r="G109">
         <v>421805000</v>
@@ -5828,13 +5828,13 @@
         <v>5817500</v>
       </c>
       <c r="I109">
-        <v>91335052000</v>
+        <v>71262444700</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-27T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>5945757168000</v>
+        <v>5519272379700</v>
       </c>
       <c r="L109">
         <v>394434300</v>
@@ -5843,13 +5843,13 @@
         <v>4334600</v>
       </c>
       <c r="N109">
-        <v>67049453000</v>
+        <v>51584833100</v>
       </c>
       <c r="O109">
         <v>13229200</v>
       </c>
       <c r="P109">
-        <v>313756883000</v>
+        <v>252815085800</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>63200</v>
       </c>
       <c r="E110">
-        <v>24895188000</v>
+        <v>18060629400</v>
       </c>
       <c r="F110">
-        <v>112864817000</v>
+        <v>95164634900</v>
       </c>
       <c r="G110">
         <v>543305000</v>
@@ -5878,13 +5878,13 @@
         <v>7681800</v>
       </c>
       <c r="I110">
-        <v>138303310000</v>
+        <v>113768569300</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-27T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>6084060478000</v>
+        <v>5633040949000</v>
       </c>
       <c r="L110">
         <v>402116100</v>
@@ -5893,13 +5893,13 @@
         <v>4527400</v>
       </c>
       <c r="N110">
-        <v>87969629000</v>
+        <v>77104005500</v>
       </c>
       <c r="O110">
         <v>17756600</v>
       </c>
       <c r="P110">
-        <v>401726512000</v>
+        <v>329919091300</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>22000</v>
       </c>
       <c r="E111">
-        <v>33955075000</v>
+        <v>32806524700</v>
       </c>
       <c r="F111">
-        <v>106200919000</v>
+        <v>83646496000</v>
       </c>
       <c r="G111">
         <v>252637000</v>
@@ -5928,13 +5928,13 @@
         <v>7417300</v>
       </c>
       <c r="I111">
-        <v>140408631000</v>
+        <v>116705657700</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-27T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>6224469109000</v>
+        <v>5749746606700</v>
       </c>
       <c r="L111">
         <v>409533400</v>
@@ -5943,13 +5943,13 @@
         <v>3768100</v>
       </c>
       <c r="N111">
-        <v>72245844000</v>
+        <v>50839971300</v>
       </c>
       <c r="O111">
         <v>21524700</v>
       </c>
       <c r="P111">
-        <v>473972356000</v>
+        <v>380759062600</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>21900</v>
       </c>
       <c r="E112">
-        <v>35138358000</v>
+        <v>32541557400</v>
       </c>
       <c r="F112">
-        <v>107434507000</v>
+        <v>86042920000</v>
       </c>
       <c r="G112">
-        <v>209037000</v>
+        <v>198048000</v>
       </c>
       <c r="H112">
         <v>8278000</v>
       </c>
       <c r="I112">
-        <v>142781902000</v>
+        <v>118782525400</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-27T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>6367251011000</v>
+        <v>5868529132100</v>
       </c>
       <c r="L112">
         <v>417811400</v>
@@ -5993,13 +5993,13 @@
         <v>4557700</v>
       </c>
       <c r="N112">
-        <v>72296149000</v>
+        <v>53501362600</v>
       </c>
       <c r="O112">
         <v>26082400</v>
       </c>
       <c r="P112">
-        <v>546268505000</v>
+        <v>434260425200</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>23600</v>
       </c>
       <c r="E113">
-        <v>29377292000</v>
+        <v>23930644100</v>
       </c>
       <c r="F113">
-        <v>150712498000</v>
+        <v>127069464700</v>
       </c>
       <c r="G113">
         <v>432609000</v>
@@ -6028,13 +6028,13 @@
         <v>11083200</v>
       </c>
       <c r="I113">
-        <v>180522399000</v>
+        <v>151432717800</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-27T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>6547773410000</v>
+        <v>6019961849900</v>
       </c>
       <c r="L113">
         <v>428894600</v>
@@ -6043,13 +6043,13 @@
         <v>7545200</v>
       </c>
       <c r="N113">
-        <v>121335206000</v>
+        <v>103138820600</v>
       </c>
       <c r="O113">
         <v>33627600</v>
       </c>
       <c r="P113">
-        <v>667603711000</v>
+        <v>537399245800</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>45400</v>
       </c>
       <c r="E114">
-        <v>54266014000</v>
+        <v>51522460300</v>
       </c>
       <c r="F114">
-        <v>163822765000</v>
+        <v>140155456000</v>
       </c>
       <c r="G114">
         <v>1277157000</v>
@@ -6078,13 +6078,13 @@
         <v>13189700</v>
       </c>
       <c r="I114">
-        <v>219365936000</v>
+        <v>192955073300</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-27T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>6767139346000</v>
+        <v>6212916923200</v>
       </c>
       <c r="L114">
         <v>442084300</v>
@@ -6093,13 +6093,13 @@
         <v>7023900</v>
       </c>
       <c r="N114">
-        <v>109556751000</v>
+        <v>88632995700</v>
       </c>
       <c r="O114">
         <v>40651500</v>
       </c>
       <c r="P114">
-        <v>777160462000</v>
+        <v>626032241500</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>59600</v>
       </c>
       <c r="E115">
-        <v>63321605000</v>
+        <v>58321110500</v>
       </c>
       <c r="F115">
-        <v>93589889000</v>
+        <v>81822568100</v>
       </c>
       <c r="G115">
-        <v>1093142000</v>
+        <v>1085150000</v>
       </c>
       <c r="H115">
         <v>9741100</v>
       </c>
       <c r="I115">
-        <v>158004636000</v>
+        <v>141228828600</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-27T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>6925143982000</v>
+        <v>6354145751800</v>
       </c>
       <c r="L115">
         <v>451825400</v>
@@ -6143,13 +6143,13 @@
         <v>1952300</v>
       </c>
       <c r="N115">
-        <v>30268284000</v>
+        <v>23501457600</v>
       </c>
       <c r="O115">
         <v>42603800</v>
       </c>
       <c r="P115">
-        <v>807428746000</v>
+        <v>649533699100</v>
       </c>
     </row>
     <row r="116">
@@ -6169,7 +6169,7 @@
         <v>86585000</v>
       </c>
       <c r="F116">
-        <v>9288080000</v>
+        <v>3612761000</v>
       </c>
       <c r="G116">
         <v>208060000</v>
@@ -6178,13 +6178,13 @@
         <v>433200</v>
       </c>
       <c r="I116">
-        <v>9582725000</v>
+        <v>3907406000</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-27T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>6934726707000</v>
+        <v>6358053157800</v>
       </c>
       <c r="L116">
         <v>452258600</v>
@@ -6193,13 +6193,13 @@
         <v>400800</v>
       </c>
       <c r="N116">
-        <v>9201495000</v>
+        <v>3526176000</v>
       </c>
       <c r="O116">
         <v>43004600</v>
       </c>
       <c r="P116">
-        <v>816630241000</v>
+        <v>653059875100</v>
       </c>
     </row>
     <row r="117">
@@ -6234,7 +6234,7 @@
         <v>2022-12-27T14:38:00.000Z</v>
       </c>
       <c r="K117">
-        <v>6934828707000</v>
+        <v>6358155157800</v>
       </c>
       <c r="L117">
         <v>452268600</v>
@@ -6249,7 +6249,7 @@
         <v>43014600</v>
       </c>
       <c r="P117">
-        <v>816732241000</v>
+        <v>653161875100</v>
       </c>
     </row>
     <row r="118">
@@ -6266,25 +6266,25 @@
         <v>18000000</v>
       </c>
       <c r="E118">
-        <v>125868958000</v>
+        <v>115375761700</v>
       </c>
       <c r="F118">
-        <v>96016080000</v>
+        <v>69313609200</v>
       </c>
       <c r="G118">
-        <v>351058959000</v>
+        <v>309831028200</v>
       </c>
       <c r="H118">
         <v>28651300</v>
       </c>
       <c r="I118">
-        <v>572943997000</v>
+        <v>494520399100</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-27T14:44:00.000Z</v>
       </c>
       <c r="K118">
-        <v>7507772704000</v>
+        <v>6852675556900</v>
       </c>
       <c r="L118">
         <v>480919900</v>
@@ -6293,13 +6293,13 @@
         <v>2173300</v>
       </c>
       <c r="N118">
-        <v>-29852878000</v>
+        <v>-46062152500</v>
       </c>
       <c r="O118">
         <v>45187900</v>
       </c>
       <c r="P118">
-        <v>786879363000</v>
+        <v>607099722600</v>
       </c>
     </row>
     <row r="119">
@@ -6322,19 +6322,19 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="H119">
         <v>5000</v>
       </c>
       <c r="I119">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-27T14:58:00.000Z</v>
       </c>
       <c r="K119">
-        <v>7507822704000</v>
+        <v>6852675606900</v>
       </c>
       <c r="L119">
         <v>480924900</v>
@@ -6349,7 +6349,7 @@
         <v>45187900</v>
       </c>
       <c r="P119">
-        <v>786879363000</v>
+        <v>607099722600</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221227/VNINDEX_HOSE_5p_20221227.xlsx
+++ b/name/vnindex/20221227/VNINDEX_HOSE_5p_20221227.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:AC119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-17655899000</v>
       </c>
+      <c r="Q2">
+        <v>30710262300</v>
+      </c>
+      <c r="R2">
+        <v>48366161300</v>
+      </c>
+      <c r="S2">
+        <v>2135800</v>
+      </c>
+      <c r="T2">
+        <v>4199100</v>
+      </c>
+      <c r="U2">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V2">
+        <v>24802083711</v>
+      </c>
+      <c r="W2">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X2">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y2">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z2">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA2">
+        <v>382948.3</v>
+      </c>
+      <c r="AB2">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC2">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>12409464300</v>
       </c>
+      <c r="Q3">
+        <v>86012830300</v>
+      </c>
+      <c r="R3">
+        <v>73603366000</v>
+      </c>
+      <c r="S3">
+        <v>6554100</v>
+      </c>
+      <c r="T3">
+        <v>6141400</v>
+      </c>
+      <c r="U3">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V3">
+        <v>24802083711</v>
+      </c>
+      <c r="W3">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X3">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y3">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z3">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA3">
+        <v>382948.3</v>
+      </c>
+      <c r="AB3">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC3">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>20851795100</v>
       </c>
+      <c r="Q4">
+        <v>122857239300</v>
+      </c>
+      <c r="R4">
+        <v>102005444200</v>
+      </c>
+      <c r="S4">
+        <v>9313700</v>
+      </c>
+      <c r="T4">
+        <v>8304500</v>
+      </c>
+      <c r="U4">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V4">
+        <v>24802083711</v>
+      </c>
+      <c r="W4">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X4">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y4">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z4">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA4">
+        <v>382948.3</v>
+      </c>
+      <c r="AB4">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC4">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>4099192300</v>
       </c>
+      <c r="Q5">
+        <v>157274442400</v>
+      </c>
+      <c r="R5">
+        <v>153175250100</v>
+      </c>
+      <c r="S5">
+        <v>12053500</v>
+      </c>
+      <c r="T5">
+        <v>12607200</v>
+      </c>
+      <c r="U5">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V5">
+        <v>24802083711</v>
+      </c>
+      <c r="W5">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X5">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y5">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z5">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA5">
+        <v>382948.3</v>
+      </c>
+      <c r="AB5">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC5">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-35496098500</v>
       </c>
+      <c r="Q6">
+        <v>177085324500</v>
+      </c>
+      <c r="R6">
+        <v>212581423000</v>
+      </c>
+      <c r="S6">
+        <v>13475700</v>
+      </c>
+      <c r="T6">
+        <v>17526200</v>
+      </c>
+      <c r="U6">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V6">
+        <v>24802083711</v>
+      </c>
+      <c r="W6">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X6">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y6">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z6">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA6">
+        <v>382948.3</v>
+      </c>
+      <c r="AB6">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC6">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-65095124700</v>
       </c>
+      <c r="Q7">
+        <v>195686369200</v>
+      </c>
+      <c r="R7">
+        <v>260781493900</v>
+      </c>
+      <c r="S7">
+        <v>14923200</v>
+      </c>
+      <c r="T7">
+        <v>21391400</v>
+      </c>
+      <c r="U7">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V7">
+        <v>24802083711</v>
+      </c>
+      <c r="W7">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X7">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y7">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z7">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA7">
+        <v>382948.3</v>
+      </c>
+      <c r="AB7">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC7">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-102694968200</v>
       </c>
+      <c r="Q8">
+        <v>223802305100</v>
+      </c>
+      <c r="R8">
+        <v>326497273300</v>
+      </c>
+      <c r="S8">
+        <v>16776100</v>
+      </c>
+      <c r="T8">
+        <v>26821100</v>
+      </c>
+      <c r="U8">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V8">
+        <v>24802083711</v>
+      </c>
+      <c r="W8">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X8">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y8">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z8">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA8">
+        <v>382948.3</v>
+      </c>
+      <c r="AB8">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC8">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-86252812200</v>
       </c>
+      <c r="Q9">
+        <v>269520897700</v>
+      </c>
+      <c r="R9">
+        <v>355773709900</v>
+      </c>
+      <c r="S9">
+        <v>20282700</v>
+      </c>
+      <c r="T9">
+        <v>29738200</v>
+      </c>
+      <c r="U9">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V9">
+        <v>24802083711</v>
+      </c>
+      <c r="W9">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X9">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y9">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z9">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA9">
+        <v>382948.3</v>
+      </c>
+      <c r="AB9">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC9">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-72918134600</v>
       </c>
+      <c r="Q10">
+        <v>301023863700</v>
+      </c>
+      <c r="R10">
+        <v>373941998300</v>
+      </c>
+      <c r="S10">
+        <v>22496100</v>
+      </c>
+      <c r="T10">
+        <v>31190800</v>
+      </c>
+      <c r="U10">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V10">
+        <v>24802083711</v>
+      </c>
+      <c r="W10">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X10">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y10">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z10">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA10">
+        <v>382948.3</v>
+      </c>
+      <c r="AB10">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC10">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-54776230600</v>
       </c>
+      <c r="Q11">
+        <v>332847166000</v>
+      </c>
+      <c r="R11">
+        <v>387623396600</v>
+      </c>
+      <c r="S11">
+        <v>24652400</v>
+      </c>
+      <c r="T11">
+        <v>32313900</v>
+      </c>
+      <c r="U11">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V11">
+        <v>24802083711</v>
+      </c>
+      <c r="W11">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X11">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y11">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z11">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA11">
+        <v>382948.3</v>
+      </c>
+      <c r="AB11">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC11">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-49626198100</v>
       </c>
+      <c r="Q12">
+        <v>353374110100</v>
+      </c>
+      <c r="R12">
+        <v>403000308200</v>
+      </c>
+      <c r="S12">
+        <v>26018900</v>
+      </c>
+      <c r="T12">
+        <v>33486600</v>
+      </c>
+      <c r="U12">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V12">
+        <v>24802083711</v>
+      </c>
+      <c r="W12">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X12">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y12">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z12">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA12">
+        <v>382948.3</v>
+      </c>
+      <c r="AB12">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-57262622600</v>
       </c>
+      <c r="Q13">
+        <v>369506431600</v>
+      </c>
+      <c r="R13">
+        <v>426769054200</v>
+      </c>
+      <c r="S13">
+        <v>27369700</v>
+      </c>
+      <c r="T13">
+        <v>35603900</v>
+      </c>
+      <c r="U13">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V13">
+        <v>24802083711</v>
+      </c>
+      <c r="W13">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X13">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y13">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z13">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA13">
+        <v>382948.3</v>
+      </c>
+      <c r="AB13">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-65651973500</v>
       </c>
+      <c r="Q14">
+        <v>379130746300</v>
+      </c>
+      <c r="R14">
+        <v>444782719800</v>
+      </c>
+      <c r="S14">
+        <v>28086000</v>
+      </c>
+      <c r="T14">
+        <v>37253200</v>
+      </c>
+      <c r="U14">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V14">
+        <v>24802083711</v>
+      </c>
+      <c r="W14">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X14">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y14">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z14">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA14">
+        <v>382948.3</v>
+      </c>
+      <c r="AB14">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC14">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-78066706400</v>
       </c>
+      <c r="Q15">
+        <v>389517232500</v>
+      </c>
+      <c r="R15">
+        <v>467583938900</v>
+      </c>
+      <c r="S15">
+        <v>28772700</v>
+      </c>
+      <c r="T15">
+        <v>39059500</v>
+      </c>
+      <c r="U15">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V15">
+        <v>24802083711</v>
+      </c>
+      <c r="W15">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X15">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y15">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z15">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA15">
+        <v>382948.3</v>
+      </c>
+      <c r="AB15">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC15">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-90668037600</v>
       </c>
+      <c r="Q16">
+        <v>403480819100</v>
+      </c>
+      <c r="R16">
+        <v>494148856700</v>
+      </c>
+      <c r="S16">
+        <v>29663200</v>
+      </c>
+      <c r="T16">
+        <v>41476900</v>
+      </c>
+      <c r="U16">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V16">
+        <v>24802083711</v>
+      </c>
+      <c r="W16">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X16">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y16">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z16">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA16">
+        <v>382948.3</v>
+      </c>
+      <c r="AB16">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC16">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-109568863500</v>
       </c>
+      <c r="Q17">
+        <v>416366730500</v>
+      </c>
+      <c r="R17">
+        <v>525935594000</v>
+      </c>
+      <c r="S17">
+        <v>30418500</v>
+      </c>
+      <c r="T17">
+        <v>43468200</v>
+      </c>
+      <c r="U17">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V17">
+        <v>24802083711</v>
+      </c>
+      <c r="W17">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X17">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y17">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z17">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA17">
+        <v>382948.3</v>
+      </c>
+      <c r="AB17">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC17">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-109513467800</v>
       </c>
+      <c r="Q18">
+        <v>434347322600</v>
+      </c>
+      <c r="R18">
+        <v>543860790400</v>
+      </c>
+      <c r="S18">
+        <v>31635200</v>
+      </c>
+      <c r="T18">
+        <v>44718900</v>
+      </c>
+      <c r="U18">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V18">
+        <v>24802083711</v>
+      </c>
+      <c r="W18">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X18">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y18">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z18">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA18">
+        <v>382948.3</v>
+      </c>
+      <c r="AB18">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-96972515900</v>
       </c>
+      <c r="Q19">
+        <v>457572852900</v>
+      </c>
+      <c r="R19">
+        <v>554545368800</v>
+      </c>
+      <c r="S19">
+        <v>33524600</v>
+      </c>
+      <c r="T19">
+        <v>45482500</v>
+      </c>
+      <c r="U19">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V19">
+        <v>24802083711</v>
+      </c>
+      <c r="W19">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X19">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y19">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z19">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA19">
+        <v>382948.3</v>
+      </c>
+      <c r="AB19">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC19">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-89751505600</v>
       </c>
+      <c r="Q20">
+        <v>477442650200</v>
+      </c>
+      <c r="R20">
+        <v>567194155800</v>
+      </c>
+      <c r="S20">
+        <v>34884100</v>
+      </c>
+      <c r="T20">
+        <v>46387900</v>
+      </c>
+      <c r="U20">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V20">
+        <v>24802083711</v>
+      </c>
+      <c r="W20">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X20">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y20">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z20">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA20">
+        <v>382948.3</v>
+      </c>
+      <c r="AB20">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC20">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-93274262700</v>
       </c>
+      <c r="Q21">
+        <v>489202176100</v>
+      </c>
+      <c r="R21">
+        <v>582476438800</v>
+      </c>
+      <c r="S21">
+        <v>35700700</v>
+      </c>
+      <c r="T21">
+        <v>47392200</v>
+      </c>
+      <c r="U21">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V21">
+        <v>24802083711</v>
+      </c>
+      <c r="W21">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X21">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y21">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z21">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA21">
+        <v>382948.3</v>
+      </c>
+      <c r="AB21">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC21">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-98208240100</v>
       </c>
+      <c r="Q22">
+        <v>499713035800</v>
+      </c>
+      <c r="R22">
+        <v>597921275900</v>
+      </c>
+      <c r="S22">
+        <v>36368000</v>
+      </c>
+      <c r="T22">
+        <v>48531400</v>
+      </c>
+      <c r="U22">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V22">
+        <v>24802083711</v>
+      </c>
+      <c r="W22">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X22">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y22">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z22">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA22">
+        <v>382948.3</v>
+      </c>
+      <c r="AB22">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-72499825000</v>
       </c>
+      <c r="Q23">
+        <v>533737984600</v>
+      </c>
+      <c r="R23">
+        <v>606237809600</v>
+      </c>
+      <c r="S23">
+        <v>38282700</v>
+      </c>
+      <c r="T23">
+        <v>49330700</v>
+      </c>
+      <c r="U23">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V23">
+        <v>24802083711</v>
+      </c>
+      <c r="W23">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X23">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y23">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z23">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA23">
+        <v>382948.3</v>
+      </c>
+      <c r="AB23">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC23">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-57636346800</v>
       </c>
+      <c r="Q24">
+        <v>557956398800</v>
+      </c>
+      <c r="R24">
+        <v>615592745600</v>
+      </c>
+      <c r="S24">
+        <v>40172200</v>
+      </c>
+      <c r="T24">
+        <v>50031700</v>
+      </c>
+      <c r="U24">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V24">
+        <v>24802083711</v>
+      </c>
+      <c r="W24">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X24">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y24">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z24">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA24">
+        <v>382948.3</v>
+      </c>
+      <c r="AB24">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC24">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-30854107800</v>
       </c>
+      <c r="Q25">
+        <v>594372997900</v>
+      </c>
+      <c r="R25">
+        <v>625227105700</v>
+      </c>
+      <c r="S25">
+        <v>42629600</v>
+      </c>
+      <c r="T25">
+        <v>50697100</v>
+      </c>
+      <c r="U25">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V25">
+        <v>24802083711</v>
+      </c>
+      <c r="W25">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X25">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y25">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z25">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA25">
+        <v>382948.3</v>
+      </c>
+      <c r="AB25">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC25">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>2865694900</v>
       </c>
+      <c r="Q26">
+        <v>643752159000</v>
+      </c>
+      <c r="R26">
+        <v>640886464100</v>
+      </c>
+      <c r="S26">
+        <v>46013500</v>
+      </c>
+      <c r="T26">
+        <v>51780400</v>
+      </c>
+      <c r="U26">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V26">
+        <v>24802083711</v>
+      </c>
+      <c r="W26">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X26">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y26">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z26">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA26">
+        <v>382948.3</v>
+      </c>
+      <c r="AB26">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC26">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>44145247100</v>
       </c>
+      <c r="Q27">
+        <v>697312022800</v>
+      </c>
+      <c r="R27">
+        <v>653166775700</v>
+      </c>
+      <c r="S27">
+        <v>49942300</v>
+      </c>
+      <c r="T27">
+        <v>52714900</v>
+      </c>
+      <c r="U27">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V27">
+        <v>24802083711</v>
+      </c>
+      <c r="W27">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X27">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y27">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z27">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA27">
+        <v>382948.3</v>
+      </c>
+      <c r="AB27">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC27">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>76833260300</v>
       </c>
+      <c r="Q28">
+        <v>744778974100</v>
+      </c>
+      <c r="R28">
+        <v>667945713800</v>
+      </c>
+      <c r="S28">
+        <v>53590600</v>
+      </c>
+      <c r="T28">
+        <v>53737400</v>
+      </c>
+      <c r="U28">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V28">
+        <v>24802083711</v>
+      </c>
+      <c r="W28">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X28">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y28">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z28">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA28">
+        <v>382948.3</v>
+      </c>
+      <c r="AB28">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC28">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>101565808100</v>
       </c>
+      <c r="Q29">
+        <v>783282087300</v>
+      </c>
+      <c r="R29">
+        <v>681716279200</v>
+      </c>
+      <c r="S29">
+        <v>56297400</v>
+      </c>
+      <c r="T29">
+        <v>54708400</v>
+      </c>
+      <c r="U29">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V29">
+        <v>24802083711</v>
+      </c>
+      <c r="W29">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X29">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y29">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z29">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA29">
+        <v>382948.3</v>
+      </c>
+      <c r="AB29">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC29">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>88829278900</v>
       </c>
+      <c r="Q30">
+        <v>802037633000</v>
+      </c>
+      <c r="R30">
+        <v>713208354100</v>
+      </c>
+      <c r="S30">
+        <v>57569100</v>
+      </c>
+      <c r="T30">
+        <v>57130800</v>
+      </c>
+      <c r="U30">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V30">
+        <v>24802083711</v>
+      </c>
+      <c r="W30">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X30">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y30">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z30">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA30">
+        <v>382948.3</v>
+      </c>
+      <c r="AB30">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC30">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>74097144300</v>
       </c>
+      <c r="Q31">
+        <v>818591135700</v>
+      </c>
+      <c r="R31">
+        <v>744493991400</v>
+      </c>
+      <c r="S31">
+        <v>58798300</v>
+      </c>
+      <c r="T31">
+        <v>59332200</v>
+      </c>
+      <c r="U31">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V31">
+        <v>24802083711</v>
+      </c>
+      <c r="W31">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X31">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y31">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z31">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA31">
+        <v>382948.3</v>
+      </c>
+      <c r="AB31">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC31">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>72448845800</v>
       </c>
+      <c r="Q32">
+        <v>831255682800</v>
+      </c>
+      <c r="R32">
+        <v>758806837000</v>
+      </c>
+      <c r="S32">
+        <v>59698200</v>
+      </c>
+      <c r="T32">
+        <v>60551300</v>
+      </c>
+      <c r="U32">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V32">
+        <v>24802083711</v>
+      </c>
+      <c r="W32">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X32">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y32">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z32">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA32">
+        <v>382948.3</v>
+      </c>
+      <c r="AB32">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC32">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>61053956400</v>
       </c>
+      <c r="Q33">
+        <v>840317553100</v>
+      </c>
+      <c r="R33">
+        <v>779263596700</v>
+      </c>
+      <c r="S33">
+        <v>60357800</v>
+      </c>
+      <c r="T33">
+        <v>61862000</v>
+      </c>
+      <c r="U33">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V33">
+        <v>24802083711</v>
+      </c>
+      <c r="W33">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X33">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y33">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z33">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA33">
+        <v>382948.3</v>
+      </c>
+      <c r="AB33">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC33">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>56934246500</v>
       </c>
+      <c r="Q34">
+        <v>848361394200</v>
+      </c>
+      <c r="R34">
+        <v>791427147700</v>
+      </c>
+      <c r="S34">
+        <v>61021300</v>
+      </c>
+      <c r="T34">
+        <v>62711200</v>
+      </c>
+      <c r="U34">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V34">
+        <v>24802083711</v>
+      </c>
+      <c r="W34">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X34">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y34">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z34">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA34">
+        <v>382948.3</v>
+      </c>
+      <c r="AB34">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC34">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>49845565300</v>
       </c>
+      <c r="Q35">
+        <v>859814200400</v>
+      </c>
+      <c r="R35">
+        <v>809968635100</v>
+      </c>
+      <c r="S35">
+        <v>61751200</v>
+      </c>
+      <c r="T35">
+        <v>64031300</v>
+      </c>
+      <c r="U35">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V35">
+        <v>24802083711</v>
+      </c>
+      <c r="W35">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X35">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y35">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z35">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA35">
+        <v>382948.3</v>
+      </c>
+      <c r="AB35">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC35">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>43134895600</v>
       </c>
+      <c r="Q36">
+        <v>869869728500</v>
+      </c>
+      <c r="R36">
+        <v>826734832900</v>
+      </c>
+      <c r="S36">
+        <v>62608500</v>
+      </c>
+      <c r="T36">
+        <v>65159900</v>
+      </c>
+      <c r="U36">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V36">
+        <v>24802083711</v>
+      </c>
+      <c r="W36">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X36">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y36">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z36">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA36">
+        <v>382948.3</v>
+      </c>
+      <c r="AB36">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC36">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>34065846600</v>
       </c>
+      <c r="Q37">
+        <v>877510660300</v>
+      </c>
+      <c r="R37">
+        <v>843444813700</v>
+      </c>
+      <c r="S37">
+        <v>63129000</v>
+      </c>
+      <c r="T37">
+        <v>66237400</v>
+      </c>
+      <c r="U37">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V37">
+        <v>24802083711</v>
+      </c>
+      <c r="W37">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X37">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y37">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z37">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA37">
+        <v>382948.3</v>
+      </c>
+      <c r="AB37">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC37">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>21482424700</v>
       </c>
+      <c r="Q38">
+        <v>886736950500</v>
+      </c>
+      <c r="R38">
+        <v>865254525800</v>
+      </c>
+      <c r="S38">
+        <v>63806800</v>
+      </c>
+      <c r="T38">
+        <v>67533900</v>
+      </c>
+      <c r="U38">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V38">
+        <v>24802083711</v>
+      </c>
+      <c r="W38">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X38">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y38">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z38">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA38">
+        <v>382948.3</v>
+      </c>
+      <c r="AB38">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC38">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>16849090700</v>
       </c>
+      <c r="Q39">
+        <v>897733784100</v>
+      </c>
+      <c r="R39">
+        <v>880884693400</v>
+      </c>
+      <c r="S39">
+        <v>64508400</v>
+      </c>
+      <c r="T39">
+        <v>68766200</v>
+      </c>
+      <c r="U39">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V39">
+        <v>24802083711</v>
+      </c>
+      <c r="W39">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X39">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y39">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z39">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA39">
+        <v>382948.3</v>
+      </c>
+      <c r="AB39">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC39">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>20125275300</v>
       </c>
+      <c r="Q40">
+        <v>914508247600</v>
+      </c>
+      <c r="R40">
+        <v>894382972300</v>
+      </c>
+      <c r="S40">
+        <v>65465600</v>
+      </c>
+      <c r="T40">
+        <v>69504100</v>
+      </c>
+      <c r="U40">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V40">
+        <v>24802083711</v>
+      </c>
+      <c r="W40">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X40">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y40">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z40">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA40">
+        <v>382948.3</v>
+      </c>
+      <c r="AB40">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC40">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>29599069600</v>
       </c>
+      <c r="Q41">
+        <v>938314160800</v>
+      </c>
+      <c r="R41">
+        <v>908715091200</v>
+      </c>
+      <c r="S41">
+        <v>66900100</v>
+      </c>
+      <c r="T41">
+        <v>70368500</v>
+      </c>
+      <c r="U41">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V41">
+        <v>24802083711</v>
+      </c>
+      <c r="W41">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X41">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y41">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z41">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA41">
+        <v>382948.3</v>
+      </c>
+      <c r="AB41">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC41">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>47050324000</v>
       </c>
+      <c r="Q42">
+        <v>963492102400</v>
+      </c>
+      <c r="R42">
+        <v>916441778400</v>
+      </c>
+      <c r="S42">
+        <v>68515600</v>
+      </c>
+      <c r="T42">
+        <v>71006300</v>
+      </c>
+      <c r="U42">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V42">
+        <v>24802083711</v>
+      </c>
+      <c r="W42">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X42">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y42">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z42">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA42">
+        <v>382948.3</v>
+      </c>
+      <c r="AB42">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC42">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>58059413900</v>
       </c>
+      <c r="Q43">
+        <v>985438003200</v>
+      </c>
+      <c r="R43">
+        <v>927378589300</v>
+      </c>
+      <c r="S43">
+        <v>69972500</v>
+      </c>
+      <c r="T43">
+        <v>71780500</v>
+      </c>
+      <c r="U43">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V43">
+        <v>24802083711</v>
+      </c>
+      <c r="W43">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X43">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y43">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z43">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA43">
+        <v>382948.3</v>
+      </c>
+      <c r="AB43">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC43">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>82629927900</v>
       </c>
+      <c r="Q44">
+        <v>1022851252400</v>
+      </c>
+      <c r="R44">
+        <v>940221324500</v>
+      </c>
+      <c r="S44">
+        <v>72439100</v>
+      </c>
+      <c r="T44">
+        <v>72492800</v>
+      </c>
+      <c r="U44">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V44">
+        <v>24802083711</v>
+      </c>
+      <c r="W44">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X44">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y44">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z44">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA44">
+        <v>382948.3</v>
+      </c>
+      <c r="AB44">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC44">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>100465748700</v>
       </c>
+      <c r="Q45">
+        <v>1054446112600</v>
+      </c>
+      <c r="R45">
+        <v>953980363900</v>
+      </c>
+      <c r="S45">
+        <v>74747700</v>
+      </c>
+      <c r="T45">
+        <v>73392900</v>
+      </c>
+      <c r="U45">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V45">
+        <v>24802083711</v>
+      </c>
+      <c r="W45">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X45">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y45">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z45">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA45">
+        <v>382948.3</v>
+      </c>
+      <c r="AB45">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC45">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>118445713100</v>
       </c>
+      <c r="Q46">
+        <v>1084366587800</v>
+      </c>
+      <c r="R46">
+        <v>965920874700</v>
+      </c>
+      <c r="S46">
+        <v>76802500</v>
+      </c>
+      <c r="T46">
+        <v>74268600</v>
+      </c>
+      <c r="U46">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V46">
+        <v>24802083711</v>
+      </c>
+      <c r="W46">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X46">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y46">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z46">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA46">
+        <v>382948.3</v>
+      </c>
+      <c r="AB46">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC46">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>153896373900</v>
       </c>
+      <c r="Q47">
+        <v>1131173315300</v>
+      </c>
+      <c r="R47">
+        <v>977276941400</v>
+      </c>
+      <c r="S47">
+        <v>80493800</v>
+      </c>
+      <c r="T47">
+        <v>75042700</v>
+      </c>
+      <c r="U47">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V47">
+        <v>24802083711</v>
+      </c>
+      <c r="W47">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X47">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y47">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z47">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA47">
+        <v>382948.3</v>
+      </c>
+      <c r="AB47">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC47">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>192332246900</v>
       </c>
+      <c r="Q48">
+        <v>1177898116400</v>
+      </c>
+      <c r="R48">
+        <v>985565869500</v>
+      </c>
+      <c r="S48">
+        <v>84093700</v>
+      </c>
+      <c r="T48">
+        <v>75688400</v>
+      </c>
+      <c r="U48">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V48">
+        <v>24802083711</v>
+      </c>
+      <c r="W48">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X48">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y48">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z48">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA48">
+        <v>382948.3</v>
+      </c>
+      <c r="AB48">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC48">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>218337334300</v>
       </c>
+      <c r="Q49">
+        <v>1223085376600</v>
+      </c>
+      <c r="R49">
+        <v>1004748042300</v>
+      </c>
+      <c r="S49">
+        <v>87302000</v>
+      </c>
+      <c r="T49">
+        <v>77137800</v>
+      </c>
+      <c r="U49">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V49">
+        <v>24802083711</v>
+      </c>
+      <c r="W49">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X49">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y49">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z49">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA49">
+        <v>382948.3</v>
+      </c>
+      <c r="AB49">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC49">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>278169051600</v>
       </c>
+      <c r="Q50">
+        <v>1302731391000</v>
+      </c>
+      <c r="R50">
+        <v>1024562339400</v>
+      </c>
+      <c r="S50">
+        <v>92566600</v>
+      </c>
+      <c r="T50">
+        <v>78530500</v>
+      </c>
+      <c r="U50">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V50">
+        <v>24802083711</v>
+      </c>
+      <c r="W50">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X50">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y50">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z50">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA50">
+        <v>382948.3</v>
+      </c>
+      <c r="AB50">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC50">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>332402479400</v>
       </c>
+      <c r="Q51">
+        <v>1390586990600</v>
+      </c>
+      <c r="R51">
+        <v>1058184511200</v>
+      </c>
+      <c r="S51">
+        <v>99239600</v>
+      </c>
+      <c r="T51">
+        <v>80656900</v>
+      </c>
+      <c r="U51">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V51">
+        <v>24802083711</v>
+      </c>
+      <c r="W51">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X51">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y51">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z51">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA51">
+        <v>382948.3</v>
+      </c>
+      <c r="AB51">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC51">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>342057291000</v>
       </c>
+      <c r="Q52">
+        <v>1432549403900</v>
+      </c>
+      <c r="R52">
+        <v>1090492112900</v>
+      </c>
+      <c r="S52">
+        <v>102458100</v>
+      </c>
+      <c r="T52">
+        <v>83152300</v>
+      </c>
+      <c r="U52">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V52">
+        <v>24802083711</v>
+      </c>
+      <c r="W52">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X52">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y52">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z52">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA52">
+        <v>382948.3</v>
+      </c>
+      <c r="AB52">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC52">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>326970530200</v>
       </c>
+      <c r="Q53">
+        <v>1457358073300</v>
+      </c>
+      <c r="R53">
+        <v>1130387543100</v>
+      </c>
+      <c r="S53">
+        <v>104312900</v>
+      </c>
+      <c r="T53">
+        <v>86045100</v>
+      </c>
+      <c r="U53">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V53">
+        <v>24802083711</v>
+      </c>
+      <c r="W53">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X53">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y53">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z53">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA53">
+        <v>382948.3</v>
+      </c>
+      <c r="AB53">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC53">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>305032037900</v>
       </c>
+      <c r="Q54">
+        <v>1471525381400</v>
+      </c>
+      <c r="R54">
+        <v>1166493343500</v>
+      </c>
+      <c r="S54">
+        <v>105495300</v>
+      </c>
+      <c r="T54">
+        <v>88664500</v>
+      </c>
+      <c r="U54">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V54">
+        <v>24802083711</v>
+      </c>
+      <c r="W54">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X54">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y54">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z54">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA54">
+        <v>382948.3</v>
+      </c>
+      <c r="AB54">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC54">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>286854464200</v>
       </c>
+      <c r="Q55">
+        <v>1481527001000</v>
+      </c>
+      <c r="R55">
+        <v>1194672536800</v>
+      </c>
+      <c r="S55">
+        <v>106225600</v>
+      </c>
+      <c r="T55">
+        <v>90790500</v>
+      </c>
+      <c r="U55">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V55">
+        <v>24802083711</v>
+      </c>
+      <c r="W55">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X55">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y55">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z55">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA55">
+        <v>382948.3</v>
+      </c>
+      <c r="AB55">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC55">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>275843404000</v>
       </c>
+      <c r="Q56">
+        <v>1488463593300</v>
+      </c>
+      <c r="R56">
+        <v>1212620189300</v>
+      </c>
+      <c r="S56">
+        <v>106731600</v>
+      </c>
+      <c r="T56">
+        <v>92181300</v>
+      </c>
+      <c r="U56">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V56">
+        <v>24802083711</v>
+      </c>
+      <c r="W56">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X56">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y56">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z56">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA56">
+        <v>382948.3</v>
+      </c>
+      <c r="AB56">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC56">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>257890281400</v>
       </c>
+      <c r="Q57">
+        <v>1493462487500</v>
+      </c>
+      <c r="R57">
+        <v>1235572206100</v>
+      </c>
+      <c r="S57">
+        <v>107137600</v>
+      </c>
+      <c r="T57">
+        <v>93723000</v>
+      </c>
+      <c r="U57">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V57">
+        <v>24802083711</v>
+      </c>
+      <c r="W57">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X57">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y57">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z57">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA57">
+        <v>382948.3</v>
+      </c>
+      <c r="AB57">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC57">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>249844134700</v>
       </c>
+      <c r="Q58">
+        <v>1500770623900</v>
+      </c>
+      <c r="R58">
+        <v>1250926489200</v>
+      </c>
+      <c r="S58">
+        <v>107685200</v>
+      </c>
+      <c r="T58">
+        <v>94893300</v>
+      </c>
+      <c r="U58">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V58">
+        <v>24802083711</v>
+      </c>
+      <c r="W58">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X58">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y58">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z58">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA58">
+        <v>382948.3</v>
+      </c>
+      <c r="AB58">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC58">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>243002813400</v>
       </c>
+      <c r="Q59">
+        <v>1509381616000</v>
+      </c>
+      <c r="R59">
+        <v>1266378802600</v>
+      </c>
+      <c r="S59">
+        <v>108308100</v>
+      </c>
+      <c r="T59">
+        <v>95938800</v>
+      </c>
+      <c r="U59">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V59">
+        <v>24802083711</v>
+      </c>
+      <c r="W59">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X59">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y59">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z59">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA59">
+        <v>382948.3</v>
+      </c>
+      <c r="AB59">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC59">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>243430378700</v>
       </c>
+      <c r="Q60">
+        <v>1521810462600</v>
+      </c>
+      <c r="R60">
+        <v>1278380083900</v>
+      </c>
+      <c r="S60">
+        <v>109115200</v>
+      </c>
+      <c r="T60">
+        <v>96859400</v>
+      </c>
+      <c r="U60">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V60">
+        <v>24802083711</v>
+      </c>
+      <c r="W60">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X60">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y60">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z60">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA60">
+        <v>382948.3</v>
+      </c>
+      <c r="AB60">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC60">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>245976222200</v>
       </c>
+      <c r="Q61">
+        <v>1533814864600</v>
+      </c>
+      <c r="R61">
+        <v>1287838642400</v>
+      </c>
+      <c r="S61">
+        <v>110042100</v>
+      </c>
+      <c r="T61">
+        <v>97658800</v>
+      </c>
+      <c r="U61">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V61">
+        <v>24802083711</v>
+      </c>
+      <c r="W61">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X61">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y61">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z61">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA61">
+        <v>382948.3</v>
+      </c>
+      <c r="AB61">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC61">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>241674096900</v>
       </c>
+      <c r="Q62">
+        <v>1541343512100</v>
+      </c>
+      <c r="R62">
+        <v>1299669415200</v>
+      </c>
+      <c r="S62">
+        <v>110530300</v>
+      </c>
+      <c r="T62">
+        <v>98267900</v>
+      </c>
+      <c r="U62">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V62">
+        <v>24802083711</v>
+      </c>
+      <c r="W62">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X62">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y62">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z62">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA62">
+        <v>382948.3</v>
+      </c>
+      <c r="AB62">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC62">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>250070546800</v>
       </c>
+      <c r="Q63">
+        <v>1556632539600</v>
+      </c>
+      <c r="R63">
+        <v>1306561992800</v>
+      </c>
+      <c r="S63">
+        <v>111569200</v>
+      </c>
+      <c r="T63">
+        <v>98744800</v>
+      </c>
+      <c r="U63">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V63">
+        <v>24802083711</v>
+      </c>
+      <c r="W63">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X63">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y63">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z63">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA63">
+        <v>382948.3</v>
+      </c>
+      <c r="AB63">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC63">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>251726372900</v>
       </c>
+      <c r="Q64">
+        <v>1571080085700</v>
+      </c>
+      <c r="R64">
+        <v>1319353712800</v>
+      </c>
+      <c r="S64">
+        <v>112626200</v>
+      </c>
+      <c r="T64">
+        <v>99621800</v>
+      </c>
+      <c r="U64">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V64">
+        <v>24802083711</v>
+      </c>
+      <c r="W64">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X64">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y64">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z64">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA64">
+        <v>382948.3</v>
+      </c>
+      <c r="AB64">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC64">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>266836857200</v>
       </c>
+      <c r="Q65">
+        <v>1593626957900</v>
+      </c>
+      <c r="R65">
+        <v>1326790100700</v>
+      </c>
+      <c r="S65">
+        <v>113882200</v>
+      </c>
+      <c r="T65">
+        <v>100199500</v>
+      </c>
+      <c r="U65">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V65">
+        <v>24802083711</v>
+      </c>
+      <c r="W65">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X65">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y65">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z65">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA65">
+        <v>382948.3</v>
+      </c>
+      <c r="AB65">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC65">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>279862953800</v>
       </c>
+      <c r="Q66">
+        <v>1616070487800</v>
+      </c>
+      <c r="R66">
+        <v>1336207534000</v>
+      </c>
+      <c r="S66">
+        <v>115289900</v>
+      </c>
+      <c r="T66">
+        <v>100858600</v>
+      </c>
+      <c r="U66">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V66">
+        <v>24802083711</v>
+      </c>
+      <c r="W66">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X66">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y66">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z66">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA66">
+        <v>382948.3</v>
+      </c>
+      <c r="AB66">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC66">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>279620256900</v>
       </c>
+      <c r="Q67">
+        <v>1636756437500</v>
+      </c>
+      <c r="R67">
+        <v>1357136180600</v>
+      </c>
+      <c r="S67">
+        <v>116791900</v>
+      </c>
+      <c r="T67">
+        <v>101915700</v>
+      </c>
+      <c r="U67">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V67">
+        <v>24802083711</v>
+      </c>
+      <c r="W67">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X67">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y67">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z67">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA67">
+        <v>382948.3</v>
+      </c>
+      <c r="AB67">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>272966552300</v>
       </c>
+      <c r="Q68">
+        <v>1651908608100</v>
+      </c>
+      <c r="R68">
+        <v>1378942055800</v>
+      </c>
+      <c r="S68">
+        <v>117956300</v>
+      </c>
+      <c r="T68">
+        <v>103194200</v>
+      </c>
+      <c r="U68">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V68">
+        <v>24802083711</v>
+      </c>
+      <c r="W68">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X68">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y68">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z68">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA68">
+        <v>382948.3</v>
+      </c>
+      <c r="AB68">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC68">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>268827723300</v>
       </c>
+      <c r="Q69">
+        <v>1661816535300</v>
+      </c>
+      <c r="R69">
+        <v>1392988812000</v>
+      </c>
+      <c r="S69">
+        <v>118745700</v>
+      </c>
+      <c r="T69">
+        <v>104223900</v>
+      </c>
+      <c r="U69">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V69">
+        <v>24802083711</v>
+      </c>
+      <c r="W69">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X69">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y69">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z69">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA69">
+        <v>382948.3</v>
+      </c>
+      <c r="AB69">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC69">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>268827596300</v>
       </c>
+      <c r="Q70">
+        <v>1661816535300</v>
+      </c>
+      <c r="R70">
+        <v>1392988939000</v>
+      </c>
+      <c r="S70">
+        <v>118745700</v>
+      </c>
+      <c r="T70">
+        <v>104236600</v>
+      </c>
+      <c r="U70">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V70">
+        <v>24802083711</v>
+      </c>
+      <c r="W70">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X70">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y70">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z70">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA70">
+        <v>382948.3</v>
+      </c>
+      <c r="AB70">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>254704576900</v>
       </c>
+      <c r="Q71">
+        <v>1690223082500</v>
+      </c>
+      <c r="R71">
+        <v>1435518505600</v>
+      </c>
+      <c r="S71">
+        <v>120869400</v>
+      </c>
+      <c r="T71">
+        <v>107001900</v>
+      </c>
+      <c r="U71">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V71">
+        <v>24802083711</v>
+      </c>
+      <c r="W71">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X71">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y71">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z71">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA71">
+        <v>382948.3</v>
+      </c>
+      <c r="AB71">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC71">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>257937235200</v>
       </c>
+      <c r="Q72">
+        <v>1711843975500</v>
+      </c>
+      <c r="R72">
+        <v>1453906740300</v>
+      </c>
+      <c r="S72">
+        <v>122711500</v>
+      </c>
+      <c r="T72">
+        <v>108451100</v>
+      </c>
+      <c r="U72">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V72">
+        <v>24802083711</v>
+      </c>
+      <c r="W72">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X72">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y72">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z72">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA72">
+        <v>382948.3</v>
+      </c>
+      <c r="AB72">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC72">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>270898516200</v>
       </c>
+      <c r="Q73">
+        <v>1757422291600</v>
+      </c>
+      <c r="R73">
+        <v>1486523775400</v>
+      </c>
+      <c r="S73">
+        <v>125841300</v>
+      </c>
+      <c r="T73">
+        <v>110891400</v>
+      </c>
+      <c r="U73">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V73">
+        <v>24802083711</v>
+      </c>
+      <c r="W73">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X73">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y73">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z73">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA73">
+        <v>382948.3</v>
+      </c>
+      <c r="AB73">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC73">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>317970260700</v>
       </c>
+      <c r="Q74">
+        <v>1826723287800</v>
+      </c>
+      <c r="R74">
+        <v>1508753027100</v>
+      </c>
+      <c r="S74">
+        <v>131350500</v>
+      </c>
+      <c r="T74">
+        <v>112618700</v>
+      </c>
+      <c r="U74">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V74">
+        <v>24802083711</v>
+      </c>
+      <c r="W74">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X74">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y74">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z74">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA74">
+        <v>382948.3</v>
+      </c>
+      <c r="AB74">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC74">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>341323524700</v>
       </c>
+      <c r="Q75">
+        <v>1873002932100</v>
+      </c>
+      <c r="R75">
+        <v>1531679407400</v>
+      </c>
+      <c r="S75">
+        <v>135122100</v>
+      </c>
+      <c r="T75">
+        <v>114472100</v>
+      </c>
+      <c r="U75">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V75">
+        <v>24802083711</v>
+      </c>
+      <c r="W75">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X75">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y75">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z75">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA75">
+        <v>382948.3</v>
+      </c>
+      <c r="AB75">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC75">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>359942737400</v>
       </c>
+      <c r="Q76">
+        <v>1918199684200</v>
+      </c>
+      <c r="R76">
+        <v>1558256946800</v>
+      </c>
+      <c r="S76">
+        <v>138037300</v>
+      </c>
+      <c r="T76">
+        <v>116565300</v>
+      </c>
+      <c r="U76">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V76">
+        <v>24802083711</v>
+      </c>
+      <c r="W76">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X76">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y76">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z76">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA76">
+        <v>382948.3</v>
+      </c>
+      <c r="AB76">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC76">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>366446128100</v>
       </c>
+      <c r="Q77">
+        <v>1949391866600</v>
+      </c>
+      <c r="R77">
+        <v>1582945738500</v>
+      </c>
+      <c r="S77">
+        <v>140473700</v>
+      </c>
+      <c r="T77">
+        <v>118594100</v>
+      </c>
+      <c r="U77">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V77">
+        <v>24802083711</v>
+      </c>
+      <c r="W77">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X77">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y77">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z77">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA77">
+        <v>382948.3</v>
+      </c>
+      <c r="AB77">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC77">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>363630685600</v>
       </c>
+      <c r="Q78">
+        <v>1977844305500</v>
+      </c>
+      <c r="R78">
+        <v>1614213619900</v>
+      </c>
+      <c r="S78">
+        <v>142518000</v>
+      </c>
+      <c r="T78">
+        <v>120771900</v>
+      </c>
+      <c r="U78">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V78">
+        <v>24802083711</v>
+      </c>
+      <c r="W78">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X78">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y78">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z78">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA78">
+        <v>382948.3</v>
+      </c>
+      <c r="AB78">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC78">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>367900486500</v>
       </c>
+      <c r="Q79">
+        <v>2001108834700</v>
+      </c>
+      <c r="R79">
+        <v>1633208348200</v>
+      </c>
+      <c r="S79">
+        <v>144126100</v>
+      </c>
+      <c r="T79">
+        <v>122398500</v>
+      </c>
+      <c r="U79">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V79">
+        <v>24802083711</v>
+      </c>
+      <c r="W79">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X79">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y79">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z79">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA79">
+        <v>382948.3</v>
+      </c>
+      <c r="AB79">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC79">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>371500837200</v>
       </c>
+      <c r="Q80">
+        <v>2032940424900</v>
+      </c>
+      <c r="R80">
+        <v>1661439587700</v>
+      </c>
+      <c r="S80">
+        <v>146584200</v>
+      </c>
+      <c r="T80">
+        <v>124424800</v>
+      </c>
+      <c r="U80">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V80">
+        <v>24802083711</v>
+      </c>
+      <c r="W80">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X80">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y80">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z80">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA80">
+        <v>382948.3</v>
+      </c>
+      <c r="AB80">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC80">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>353992092800</v>
       </c>
+      <c r="Q81">
+        <v>2055767071100</v>
+      </c>
+      <c r="R81">
+        <v>1701774978300</v>
+      </c>
+      <c r="S81">
+        <v>148254100</v>
+      </c>
+      <c r="T81">
+        <v>127126300</v>
+      </c>
+      <c r="U81">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V81">
+        <v>24802083711</v>
+      </c>
+      <c r="W81">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X81">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y81">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z81">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA81">
+        <v>382948.3</v>
+      </c>
+      <c r="AB81">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC81">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>334063635600</v>
       </c>
+      <c r="Q82">
+        <v>2077983198300</v>
+      </c>
+      <c r="R82">
+        <v>1743919562700</v>
+      </c>
+      <c r="S82">
+        <v>149995200</v>
+      </c>
+      <c r="T82">
+        <v>130438100</v>
+      </c>
+      <c r="U82">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V82">
+        <v>24802083711</v>
+      </c>
+      <c r="W82">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X82">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y82">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z82">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA82">
+        <v>382948.3</v>
+      </c>
+      <c r="AB82">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC82">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>306190693800</v>
       </c>
+      <c r="Q83">
+        <v>2102688464300</v>
+      </c>
+      <c r="R83">
+        <v>1796497770500</v>
+      </c>
+      <c r="S83">
+        <v>151563500</v>
+      </c>
+      <c r="T83">
+        <v>133910100</v>
+      </c>
+      <c r="U83">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V83">
+        <v>24802083711</v>
+      </c>
+      <c r="W83">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X83">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y83">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z83">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA83">
+        <v>382948.3</v>
+      </c>
+      <c r="AB83">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC83">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>246229281800</v>
       </c>
+      <c r="Q84">
+        <v>2118393311600</v>
+      </c>
+      <c r="R84">
+        <v>1872164029800</v>
+      </c>
+      <c r="S84">
+        <v>152767800</v>
+      </c>
+      <c r="T84">
+        <v>139228800</v>
+      </c>
+      <c r="U84">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V84">
+        <v>24802083711</v>
+      </c>
+      <c r="W84">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X84">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y84">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z84">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA84">
+        <v>382948.3</v>
+      </c>
+      <c r="AB84">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC84">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>214603735900</v>
       </c>
+      <c r="Q85">
+        <v>2137936244900</v>
+      </c>
+      <c r="R85">
+        <v>1923332509000</v>
+      </c>
+      <c r="S85">
+        <v>154183000</v>
+      </c>
+      <c r="T85">
+        <v>142846000</v>
+      </c>
+      <c r="U85">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V85">
+        <v>24802083711</v>
+      </c>
+      <c r="W85">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X85">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y85">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z85">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA85">
+        <v>382948.3</v>
+      </c>
+      <c r="AB85">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC85">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>198915208400</v>
       </c>
+      <c r="Q86">
+        <v>2152541779700</v>
+      </c>
+      <c r="R86">
+        <v>1953626571300</v>
+      </c>
+      <c r="S86">
+        <v>155255800</v>
+      </c>
+      <c r="T86">
+        <v>145179600</v>
+      </c>
+      <c r="U86">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V86">
+        <v>24802083711</v>
+      </c>
+      <c r="W86">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X86">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y86">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z86">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA86">
+        <v>382948.3</v>
+      </c>
+      <c r="AB86">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC86">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>185416912500</v>
       </c>
+      <c r="Q87">
+        <v>2176586927500</v>
+      </c>
+      <c r="R87">
+        <v>1991170015000</v>
+      </c>
+      <c r="S87">
+        <v>156711300</v>
+      </c>
+      <c r="T87">
+        <v>147503200</v>
+      </c>
+      <c r="U87">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V87">
+        <v>24802083711</v>
+      </c>
+      <c r="W87">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X87">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y87">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z87">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA87">
+        <v>382948.3</v>
+      </c>
+      <c r="AB87">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC87">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>146602261200</v>
       </c>
+      <c r="Q88">
+        <v>2190217416200</v>
+      </c>
+      <c r="R88">
+        <v>2043615155000</v>
+      </c>
+      <c r="S88">
+        <v>157602500</v>
+      </c>
+      <c r="T88">
+        <v>151341900</v>
+      </c>
+      <c r="U88">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V88">
+        <v>24802083711</v>
+      </c>
+      <c r="W88">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X88">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y88">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z88">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA88">
+        <v>382948.3</v>
+      </c>
+      <c r="AB88">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC88">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>114377855800</v>
       </c>
+      <c r="Q89">
+        <v>2203832005100</v>
+      </c>
+      <c r="R89">
+        <v>2089454149300</v>
+      </c>
+      <c r="S89">
+        <v>158466600</v>
+      </c>
+      <c r="T89">
+        <v>154414400</v>
+      </c>
+      <c r="U89">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V89">
+        <v>24802083711</v>
+      </c>
+      <c r="W89">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X89">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y89">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z89">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA89">
+        <v>382948.3</v>
+      </c>
+      <c r="AB89">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC89">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>110978674400</v>
       </c>
+      <c r="Q90">
+        <v>2230241465700</v>
+      </c>
+      <c r="R90">
+        <v>2119262791300</v>
+      </c>
+      <c r="S90">
+        <v>160345900</v>
+      </c>
+      <c r="T90">
+        <v>156460200</v>
+      </c>
+      <c r="U90">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V90">
+        <v>24802083711</v>
+      </c>
+      <c r="W90">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X90">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y90">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z90">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA90">
+        <v>382948.3</v>
+      </c>
+      <c r="AB90">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC90">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>136915921800</v>
       </c>
+      <c r="Q91">
+        <v>2269822431200</v>
+      </c>
+      <c r="R91">
+        <v>2132906509400</v>
+      </c>
+      <c r="S91">
+        <v>163036700</v>
+      </c>
+      <c r="T91">
+        <v>157473000</v>
+      </c>
+      <c r="U91">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V91">
+        <v>24802083711</v>
+      </c>
+      <c r="W91">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X91">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y91">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z91">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA91">
+        <v>382948.3</v>
+      </c>
+      <c r="AB91">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC91">
+        <v>5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>145300822000</v>
       </c>
+      <c r="Q92">
+        <v>2300444640200</v>
+      </c>
+      <c r="R92">
+        <v>2155143818200</v>
+      </c>
+      <c r="S92">
+        <v>165014800</v>
+      </c>
+      <c r="T92">
+        <v>158705400</v>
+      </c>
+      <c r="U92">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V92">
+        <v>24802083711</v>
+      </c>
+      <c r="W92">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X92">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y92">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z92">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA92">
+        <v>382948.3</v>
+      </c>
+      <c r="AB92">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC92">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>79169634000</v>
       </c>
+      <c r="Q93">
+        <v>2313107429300</v>
+      </c>
+      <c r="R93">
+        <v>2233937795300</v>
+      </c>
+      <c r="S93">
+        <v>165936400</v>
+      </c>
+      <c r="T93">
+        <v>163161700</v>
+      </c>
+      <c r="U93">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V93">
+        <v>24802083711</v>
+      </c>
+      <c r="W93">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X93">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y93">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z93">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA93">
+        <v>382948.3</v>
+      </c>
+      <c r="AB93">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC93">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>40904667300</v>
       </c>
+      <c r="Q94">
+        <v>2335797450800</v>
+      </c>
+      <c r="R94">
+        <v>2294892783500</v>
+      </c>
+      <c r="S94">
+        <v>167492200</v>
+      </c>
+      <c r="T94">
+        <v>167408800</v>
+      </c>
+      <c r="U94">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V94">
+        <v>24802083711</v>
+      </c>
+      <c r="W94">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X94">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y94">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z94">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA94">
+        <v>382948.3</v>
+      </c>
+      <c r="AB94">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC94">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>46163065000</v>
       </c>
+      <c r="Q95">
+        <v>2367494556900</v>
+      </c>
+      <c r="R95">
+        <v>2321331491900</v>
+      </c>
+      <c r="S95">
+        <v>169478400</v>
+      </c>
+      <c r="T95">
+        <v>169298900</v>
+      </c>
+      <c r="U95">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V95">
+        <v>24802083711</v>
+      </c>
+      <c r="W95">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X95">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y95">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z95">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA95">
+        <v>382948.3</v>
+      </c>
+      <c r="AB95">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>45296150600</v>
       </c>
+      <c r="Q96">
+        <v>2389713179500</v>
+      </c>
+      <c r="R96">
+        <v>2344417028900</v>
+      </c>
+      <c r="S96">
+        <v>170972700</v>
+      </c>
+      <c r="T96">
+        <v>170542700</v>
+      </c>
+      <c r="U96">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V96">
+        <v>24802083711</v>
+      </c>
+      <c r="W96">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X96">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y96">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z96">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA96">
+        <v>382948.3</v>
+      </c>
+      <c r="AB96">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC96">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>36704986100</v>
       </c>
+      <c r="Q97">
+        <v>2404415920400</v>
+      </c>
+      <c r="R97">
+        <v>2367710934300</v>
+      </c>
+      <c r="S97">
+        <v>171836800</v>
+      </c>
+      <c r="T97">
+        <v>171847200</v>
+      </c>
+      <c r="U97">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V97">
+        <v>24802083711</v>
+      </c>
+      <c r="W97">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X97">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y97">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z97">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA97">
+        <v>382948.3</v>
+      </c>
+      <c r="AB97">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC97">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>23577538800</v>
       </c>
+      <c r="Q98">
+        <v>2416023932300</v>
+      </c>
+      <c r="R98">
+        <v>2392446393500</v>
+      </c>
+      <c r="S98">
+        <v>172587300</v>
+      </c>
+      <c r="T98">
+        <v>173460800</v>
+      </c>
+      <c r="U98">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V98">
+        <v>24802083711</v>
+      </c>
+      <c r="W98">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X98">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y98">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z98">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA98">
+        <v>382948.3</v>
+      </c>
+      <c r="AB98">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC98">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>33739163000</v>
       </c>
+      <c r="Q99">
+        <v>2439053874000</v>
+      </c>
+      <c r="R99">
+        <v>2405314711000</v>
+      </c>
+      <c r="S99">
+        <v>174027500</v>
+      </c>
+      <c r="T99">
+        <v>174307800</v>
+      </c>
+      <c r="U99">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V99">
+        <v>24802083711</v>
+      </c>
+      <c r="W99">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X99">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y99">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z99">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA99">
+        <v>382948.3</v>
+      </c>
+      <c r="AB99">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC99">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>58458218100</v>
       </c>
+      <c r="Q100">
+        <v>2475309266300</v>
+      </c>
+      <c r="R100">
+        <v>2416851048200</v>
+      </c>
+      <c r="S100">
+        <v>176485100</v>
+      </c>
+      <c r="T100">
+        <v>174922200</v>
+      </c>
+      <c r="U100">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V100">
+        <v>24802083711</v>
+      </c>
+      <c r="W100">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X100">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y100">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z100">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA100">
+        <v>382948.3</v>
+      </c>
+      <c r="AB100">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC100">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>99389663600</v>
       </c>
+      <c r="Q101">
+        <v>2529739233600</v>
+      </c>
+      <c r="R101">
+        <v>2430349570000</v>
+      </c>
+      <c r="S101">
+        <v>180145300</v>
+      </c>
+      <c r="T101">
+        <v>175869100</v>
+      </c>
+      <c r="U101">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V101">
+        <v>24802083711</v>
+      </c>
+      <c r="W101">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X101">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y101">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z101">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA101">
+        <v>382948.3</v>
+      </c>
+      <c r="AB101">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC101">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>129774476900</v>
       </c>
+      <c r="Q102">
+        <v>2576694149500</v>
+      </c>
+      <c r="R102">
+        <v>2446919672600</v>
+      </c>
+      <c r="S102">
+        <v>183120000</v>
+      </c>
+      <c r="T102">
+        <v>176944800</v>
+      </c>
+      <c r="U102">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V102">
+        <v>24802083711</v>
+      </c>
+      <c r="W102">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X102">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y102">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z102">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA102">
+        <v>382948.3</v>
+      </c>
+      <c r="AB102">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC102">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>141074218300</v>
       </c>
+      <c r="Q103">
+        <v>2605559986000</v>
+      </c>
+      <c r="R103">
+        <v>2464485767700</v>
+      </c>
+      <c r="S103">
+        <v>184936700</v>
+      </c>
+      <c r="T103">
+        <v>178056800</v>
+      </c>
+      <c r="U103">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V103">
+        <v>24802083711</v>
+      </c>
+      <c r="W103">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X103">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y103">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z103">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA103">
+        <v>382948.3</v>
+      </c>
+      <c r="AB103">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC103">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>152697415000</v>
       </c>
+      <c r="Q104">
+        <v>2633511305300</v>
+      </c>
+      <c r="R104">
+        <v>2480813890300</v>
+      </c>
+      <c r="S104">
+        <v>186637900</v>
+      </c>
+      <c r="T104">
+        <v>179061300</v>
+      </c>
+      <c r="U104">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V104">
+        <v>24802083711</v>
+      </c>
+      <c r="W104">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X104">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y104">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z104">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA104">
+        <v>382948.3</v>
+      </c>
+      <c r="AB104">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC104">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>148372392600</v>
       </c>
+      <c r="Q105">
+        <v>2657832981600</v>
+      </c>
+      <c r="R105">
+        <v>2509460589000</v>
+      </c>
+      <c r="S105">
+        <v>188163300</v>
+      </c>
+      <c r="T105">
+        <v>180980400</v>
+      </c>
+      <c r="U105">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V105">
+        <v>24802083711</v>
+      </c>
+      <c r="W105">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X105">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y105">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z105">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA105">
+        <v>382948.3</v>
+      </c>
+      <c r="AB105">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC105">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>143542980600</v>
       </c>
+      <c r="Q106">
+        <v>2671645632300</v>
+      </c>
+      <c r="R106">
+        <v>2528102651700</v>
+      </c>
+      <c r="S106">
+        <v>188943900</v>
+      </c>
+      <c r="T106">
+        <v>182458900</v>
+      </c>
+      <c r="U106">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V106">
+        <v>24802083711</v>
+      </c>
+      <c r="W106">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X106">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y106">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z106">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA106">
+        <v>382948.3</v>
+      </c>
+      <c r="AB106">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC106">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>132286617000</v>
       </c>
+      <c r="Q107">
+        <v>2693684831500</v>
+      </c>
+      <c r="R107">
+        <v>2561398214500</v>
+      </c>
+      <c r="S107">
+        <v>190258600</v>
+      </c>
+      <c r="T107">
+        <v>184742500</v>
+      </c>
+      <c r="U107">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V107">
+        <v>24802083711</v>
+      </c>
+      <c r="W107">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X107">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y107">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z107">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA107">
+        <v>382948.3</v>
+      </c>
+      <c r="AB107">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC107">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>201230252700</v>
       </c>
+      <c r="Q108">
+        <v>2785602954200</v>
+      </c>
+      <c r="R108">
+        <v>2584372701500</v>
+      </c>
+      <c r="S108">
+        <v>195063100</v>
+      </c>
+      <c r="T108">
+        <v>186168500</v>
+      </c>
+      <c r="U108">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V108">
+        <v>24802083711</v>
+      </c>
+      <c r="W108">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X108">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y108">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z108">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA108">
+        <v>382948.3</v>
+      </c>
+      <c r="AB108">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC108">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>252815085800</v>
       </c>
+      <c r="Q109">
+        <v>2846815690600</v>
+      </c>
+      <c r="R109">
+        <v>2594000604800</v>
+      </c>
+      <c r="S109">
+        <v>200127100</v>
+      </c>
+      <c r="T109">
+        <v>186897900</v>
+      </c>
+      <c r="U109">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V109">
+        <v>24802083711</v>
+      </c>
+      <c r="W109">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X109">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y109">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z109">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA109">
+        <v>382948.3</v>
+      </c>
+      <c r="AB109">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC109">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>329919091300</v>
       </c>
+      <c r="Q110">
+        <v>2941980325500</v>
+      </c>
+      <c r="R110">
+        <v>2612061234200</v>
+      </c>
+      <c r="S110">
+        <v>206200100</v>
+      </c>
+      <c r="T110">
+        <v>188443500</v>
+      </c>
+      <c r="U110">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V110">
+        <v>24802083711</v>
+      </c>
+      <c r="W110">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X110">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y110">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z110">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA110">
+        <v>382948.3</v>
+      </c>
+      <c r="AB110">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC110">
+        <v>15</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>380759062600</v>
       </c>
+      <c r="Q111">
+        <v>3025626821500</v>
+      </c>
+      <c r="R111">
+        <v>2644867758900</v>
+      </c>
+      <c r="S111">
+        <v>211781800</v>
+      </c>
+      <c r="T111">
+        <v>190257100</v>
+      </c>
+      <c r="U111">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V111">
+        <v>24802083711</v>
+      </c>
+      <c r="W111">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X111">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y111">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z111">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA111">
+        <v>382948.3</v>
+      </c>
+      <c r="AB111">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC111">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>434260425200</v>
       </c>
+      <c r="Q112">
+        <v>3111669741500</v>
+      </c>
+      <c r="R112">
+        <v>2677409316300</v>
+      </c>
+      <c r="S112">
+        <v>218188700</v>
+      </c>
+      <c r="T112">
+        <v>192106300</v>
+      </c>
+      <c r="U112">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V112">
+        <v>24802083711</v>
+      </c>
+      <c r="W112">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X112">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y112">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z112">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA112">
+        <v>382948.3</v>
+      </c>
+      <c r="AB112">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC112">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>537399245800</v>
       </c>
+      <c r="Q113">
+        <v>3238739206200</v>
+      </c>
+      <c r="R113">
+        <v>2701339960400</v>
+      </c>
+      <c r="S113">
+        <v>227491100</v>
+      </c>
+      <c r="T113">
+        <v>193863500</v>
+      </c>
+      <c r="U113">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V113">
+        <v>24802083711</v>
+      </c>
+      <c r="W113">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X113">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y113">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z113">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA113">
+        <v>382948.3</v>
+      </c>
+      <c r="AB113">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC113">
+        <v>20</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>626032241500</v>
       </c>
+      <c r="Q114">
+        <v>3378894662200</v>
+      </c>
+      <c r="R114">
+        <v>2752862420700</v>
+      </c>
+      <c r="S114">
+        <v>237575200</v>
+      </c>
+      <c r="T114">
+        <v>196923700</v>
+      </c>
+      <c r="U114">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V114">
+        <v>24802083711</v>
+      </c>
+      <c r="W114">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X114">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y114">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z114">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA114">
+        <v>382948.3</v>
+      </c>
+      <c r="AB114">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC114">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>649533699100</v>
       </c>
+      <c r="Q115">
+        <v>3460717230300</v>
+      </c>
+      <c r="R115">
+        <v>2811183531200</v>
+      </c>
+      <c r="S115">
+        <v>243392100</v>
+      </c>
+      <c r="T115">
+        <v>200788300</v>
+      </c>
+      <c r="U115">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V115">
+        <v>24802083711</v>
+      </c>
+      <c r="W115">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X115">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y115">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z115">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA115">
+        <v>382948.3</v>
+      </c>
+      <c r="AB115">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC115">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>653059875100</v>
       </c>
+      <c r="Q116">
+        <v>3464329991300</v>
+      </c>
+      <c r="R116">
+        <v>2811270116200</v>
+      </c>
+      <c r="S116">
+        <v>243798800</v>
+      </c>
+      <c r="T116">
+        <v>200794200</v>
+      </c>
+      <c r="U116">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V116">
+        <v>24802083711</v>
+      </c>
+      <c r="W116">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X116">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y116">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z116">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA116">
+        <v>382948.3</v>
+      </c>
+      <c r="AB116">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC116">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>653161875100</v>
       </c>
+      <c r="Q117">
+        <v>3464431991300</v>
+      </c>
+      <c r="R117">
+        <v>2811270116200</v>
+      </c>
+      <c r="S117">
+        <v>243808800</v>
+      </c>
+      <c r="T117">
+        <v>200794200</v>
+      </c>
+      <c r="U117">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V117">
+        <v>24802083711</v>
+      </c>
+      <c r="W117">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X117">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y117">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z117">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA117">
+        <v>382948.3</v>
+      </c>
+      <c r="AB117">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>607099722600</v>
       </c>
+      <c r="Q118">
+        <v>3533745600500</v>
+      </c>
+      <c r="R118">
+        <v>2926645877900</v>
+      </c>
+      <c r="S118">
+        <v>250221100</v>
+      </c>
+      <c r="T118">
+        <v>205033200</v>
+      </c>
+      <c r="U118">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V118">
+        <v>24802083711</v>
+      </c>
+      <c r="W118">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X118">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y118">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z118">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA118">
+        <v>382948.3</v>
+      </c>
+      <c r="AB118">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC118">
+        <v>9</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,10 +10953,49 @@
       <c r="P119">
         <v>607099722600</v>
       </c>
+      <c r="Q119">
+        <v>3533745600500</v>
+      </c>
+      <c r="R119">
+        <v>2926645877900</v>
+      </c>
+      <c r="S119">
+        <v>250221100</v>
+      </c>
+      <c r="T119">
+        <v>205033200</v>
+      </c>
+      <c r="U119">
+        <v>29946996614.4</v>
+      </c>
+      <c r="V119">
+        <v>24802083711</v>
+      </c>
+      <c r="W119">
+        <v>58073522092.4</v>
+      </c>
+      <c r="X119">
+        <v>4075634.7</v>
+      </c>
+      <c r="Y119">
+        <v>2120517.8</v>
+      </c>
+      <c r="Z119">
+        <v>1737569.5</v>
+      </c>
+      <c r="AA119">
+        <v>382948.3</v>
+      </c>
+      <c r="AB119">
+        <v>5144912903.4</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P119"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC119"/>
   </ignoredErrors>
 </worksheet>
 </file>